--- a/output/vhtsum.xlsx
+++ b/output/vhtsum.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\lidar\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04DD396-B7B7-4512-A5D5-5B1015B54C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="vhtsum" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="85">
   <si>
     <t>site</t>
   </si>
@@ -281,15 +276,21 @@
   <si>
     <t>GSMNP, TN (Porters Creek)</t>
   </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>3m</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1256,7 +1257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1308,7 +1309,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1502,28 +1503,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="15.75" thickBot="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1618,7 +1619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33">
       <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
@@ -1627,19 +1628,19 @@
       </c>
       <c r="C2" s="6">
         <f t="shared" ref="C2:D4" si="0">T2</f>
-        <v>26.81</v>
+        <v>1.45</v>
       </c>
       <c r="D2" s="6">
         <f t="shared" si="0"/>
-        <v>33.119999999999997</v>
+        <v>26.3</v>
       </c>
       <c r="E2" s="6">
         <f t="shared" ref="E2:I4" si="1">W2</f>
-        <v>40.07</v>
+        <v>72.22</v>
       </c>
       <c r="F2" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G2" s="6">
         <f t="shared" si="1"/>
@@ -1655,27 +1656,27 @@
       </c>
       <c r="J2" s="6">
         <f t="shared" ref="J2:J31" si="2">V2</f>
-        <v>40.07</v>
+        <v>72.25</v>
       </c>
       <c r="K2" s="6">
         <f>AB2</f>
-        <v>5.24</v>
+        <v>5.31</v>
       </c>
       <c r="L2" s="18">
         <f t="shared" ref="L2:P2" si="3">AC2</f>
-        <v>5.76</v>
+        <v>6.09</v>
       </c>
       <c r="M2" s="26">
         <f t="shared" si="3"/>
-        <v>6.4</v>
+        <v>6.93</v>
       </c>
       <c r="N2" s="22">
         <f t="shared" si="3"/>
-        <v>7.38</v>
+        <v>8.06</v>
       </c>
       <c r="O2" s="6">
         <f t="shared" si="3"/>
-        <v>9.68</v>
+        <v>10.66</v>
       </c>
       <c r="P2" s="6">
         <f t="shared" si="3"/>
@@ -1683,30 +1684,30 @@
       </c>
       <c r="R2" s="3">
         <f>N2/L2</f>
-        <v>1.28125</v>
+        <v>1.323481116584565</v>
       </c>
       <c r="S2" t="s">
         <v>57</v>
       </c>
       <c r="T2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>26.81</v>
+        <v>1.45</v>
       </c>
       <c r="U2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>33.119999999999997</v>
+        <v>26.3</v>
       </c>
       <c r="V2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>40.07</v>
+        <v>72.25</v>
       </c>
       <c r="W2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>40.07</v>
+        <v>72.22</v>
       </c>
       <c r="X2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="Y2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,Y$1,FALSE)</f>
@@ -1722,30 +1723,30 @@
       </c>
       <c r="AB2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>5.24</v>
+        <v>5.31</v>
       </c>
       <c r="AC2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>5.76</v>
+        <v>6.09</v>
       </c>
       <c r="AD2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>6.4</v>
+        <v>6.93</v>
       </c>
       <c r="AE2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>7.38</v>
+        <v>8.06</v>
       </c>
       <c r="AF2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>9.68</v>
+        <v>10.66</v>
       </c>
       <c r="AG2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33">
       <c r="A3" s="8" t="s">
         <v>61</v>
       </c>
@@ -1754,19 +1755,19 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" si="0"/>
-        <v>13.05</v>
+        <v>0.44</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>17.010000000000002</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>69.930000000000007</v>
+        <v>94.44</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
@@ -1782,27 +1783,27 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" si="2"/>
-        <v>69.930000000000007</v>
+        <v>94.45</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:K31" si="4">AB3</f>
-        <v>5.41</v>
+        <v>5.89</v>
       </c>
       <c r="L3" s="19">
         <f t="shared" ref="L3:L31" si="5">AC3</f>
-        <v>6.14</v>
+        <v>6.97</v>
       </c>
       <c r="M3" s="27">
         <f t="shared" ref="M3:M31" si="6">AD3</f>
-        <v>6.93</v>
+        <v>7.96</v>
       </c>
       <c r="N3" s="23">
         <f t="shared" ref="N3:N31" si="7">AE3</f>
-        <v>8.02</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" ref="O3:O31" si="8">AF3</f>
-        <v>10.28</v>
+        <v>11.47</v>
       </c>
       <c r="P3" s="9">
         <f t="shared" ref="P3:P31" si="9">AG3</f>
@@ -1810,30 +1811,30 @@
       </c>
       <c r="R3" s="3">
         <f t="shared" ref="R3:R31" si="10">N3/L3</f>
-        <v>1.3061889250814331</v>
+        <v>1.3328550932568148</v>
       </c>
       <c r="S3" t="s">
         <v>65</v>
       </c>
       <c r="T3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>13.05</v>
+        <v>0.44</v>
       </c>
       <c r="U3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>17.010000000000002</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="V3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>69.930000000000007</v>
+        <v>94.45</v>
       </c>
       <c r="W3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>69.930000000000007</v>
+        <v>94.44</v>
       </c>
       <c r="X3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Y3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,Y$1,FALSE)</f>
@@ -1849,30 +1850,30 @@
       </c>
       <c r="AB3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>5.41</v>
+        <v>5.89</v>
       </c>
       <c r="AC3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>6.14</v>
+        <v>6.97</v>
       </c>
       <c r="AD3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>6.93</v>
+        <v>7.96</v>
       </c>
       <c r="AE3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>8.02</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="AF3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>10.28</v>
+        <v>11.47</v>
       </c>
       <c r="AG3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>15.49</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" ht="15.75" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>61</v>
       </c>
@@ -1881,23 +1882,23 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>4.8499999999999996</v>
+        <v>0.31</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" si="0"/>
-        <v>7.51</v>
+        <v>2.5</v>
       </c>
       <c r="E4" s="12">
         <f t="shared" si="1"/>
-        <v>22.42</v>
+        <v>12.98</v>
       </c>
       <c r="F4" s="12">
         <f t="shared" si="1"/>
-        <v>65.14</v>
+        <v>83.86</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>0.34</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="1"/>
@@ -1909,27 +1910,27 @@
       </c>
       <c r="J4" s="12">
         <f t="shared" si="2"/>
-        <v>87.64</v>
+        <v>97.19</v>
       </c>
       <c r="K4" s="12">
         <f t="shared" si="4"/>
-        <v>7.08</v>
+        <v>9.68</v>
       </c>
       <c r="L4" s="20">
         <f t="shared" si="5"/>
-        <v>14.84</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="M4" s="28">
         <f t="shared" si="6"/>
-        <v>18.350000000000001</v>
+        <v>20.48</v>
       </c>
       <c r="N4" s="24">
         <f t="shared" si="7"/>
-        <v>21.21</v>
+        <v>22.64</v>
       </c>
       <c r="O4" s="12">
         <f t="shared" si="8"/>
-        <v>24.34</v>
+        <v>25.71</v>
       </c>
       <c r="P4" s="13">
         <f t="shared" si="9"/>
@@ -1937,34 +1938,34 @@
       </c>
       <c r="R4" s="3">
         <f t="shared" si="10"/>
-        <v>1.429245283018868</v>
+        <v>1.2747747747747746</v>
       </c>
       <c r="S4" t="s">
         <v>56</v>
       </c>
       <c r="T4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>4.8499999999999996</v>
+        <v>0.31</v>
       </c>
       <c r="U4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>7.51</v>
+        <v>2.5</v>
       </c>
       <c r="V4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>87.64</v>
+        <v>97.19</v>
       </c>
       <c r="W4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>22.42</v>
+        <v>12.98</v>
       </c>
       <c r="X4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>65.14</v>
+        <v>83.86</v>
       </c>
       <c r="Y4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>0.08</v>
+        <v>0.34</v>
       </c>
       <c r="Z4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,Z$1,FALSE)</f>
@@ -1976,30 +1977,30 @@
       </c>
       <c r="AB4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>7.08</v>
+        <v>9.68</v>
       </c>
       <c r="AC4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>14.84</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="AD4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>18.350000000000001</v>
+        <v>20.48</v>
       </c>
       <c r="AE4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>21.21</v>
+        <v>22.64</v>
       </c>
       <c r="AF4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>24.34</v>
+        <v>25.71</v>
       </c>
       <c r="AG4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>36.24</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -2008,15 +2009,15 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" ref="C5:C28" si="11">T5</f>
-        <v>5.48</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D28" si="12">U5</f>
-        <v>12.77</v>
+        <v>3.73</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" ref="E5:E28" si="13">W5</f>
-        <v>81.75</v>
+        <v>96.27</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" ref="F5:F28" si="14">X5</f>
@@ -2036,27 +2037,27 @@
       </c>
       <c r="J5" s="6">
         <f t="shared" si="2"/>
-        <v>81.75</v>
+        <v>96.27</v>
       </c>
       <c r="K5" s="6">
         <f t="shared" si="4"/>
-        <v>5.58</v>
+        <v>5.99</v>
       </c>
       <c r="L5" s="18">
         <f t="shared" si="5"/>
-        <v>6.55</v>
+        <v>7.32</v>
       </c>
       <c r="M5" s="26">
         <f t="shared" si="6"/>
-        <v>7.56</v>
+        <v>8.41</v>
       </c>
       <c r="N5" s="22">
         <f t="shared" si="7"/>
-        <v>8.99</v>
+        <v>10.11</v>
       </c>
       <c r="O5" s="6">
         <f t="shared" si="8"/>
-        <v>11.29</v>
+        <v>12.14</v>
       </c>
       <c r="P5" s="7">
         <f t="shared" si="9"/>
@@ -2064,26 +2065,26 @@
       </c>
       <c r="R5" s="3">
         <f t="shared" si="10"/>
-        <v>1.3725190839694656</v>
+        <v>1.3811475409836065</v>
       </c>
       <c r="S5" t="s">
         <v>10</v>
       </c>
       <c r="T5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>5.48</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>12.77</v>
+        <v>3.73</v>
       </c>
       <c r="V5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>81.75</v>
+        <v>96.27</v>
       </c>
       <c r="W5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>81.75</v>
+        <v>96.27</v>
       </c>
       <c r="X5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,X$1,FALSE)</f>
@@ -2103,30 +2104,30 @@
       </c>
       <c r="AB5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>5.58</v>
+        <v>5.99</v>
       </c>
       <c r="AC5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>6.55</v>
+        <v>7.32</v>
       </c>
       <c r="AD5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>7.56</v>
+        <v>8.41</v>
       </c>
       <c r="AE5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>8.99</v>
+        <v>10.11</v>
       </c>
       <c r="AF5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>11.29</v>
+        <v>12.14</v>
       </c>
       <c r="AG5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>14.04</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33">
       <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
@@ -2135,15 +2136,15 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="11"/>
-        <v>43.86</v>
+        <v>22.07</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="12"/>
-        <v>50.75</v>
+        <v>69.41</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="13"/>
-        <v>5.39</v>
+        <v>8.52</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="14"/>
@@ -2163,54 +2164,54 @@
       </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
-        <v>5.39</v>
+        <v>8.52</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="4"/>
-        <v>5.24</v>
+        <v>5.28</v>
       </c>
       <c r="L6" s="19">
         <f t="shared" si="5"/>
-        <v>5.87</v>
+        <v>6.12</v>
       </c>
       <c r="M6" s="27">
         <f t="shared" si="6"/>
-        <v>6.54</v>
+        <v>6.96</v>
       </c>
       <c r="N6" s="23">
         <f t="shared" si="7"/>
-        <v>7.36</v>
+        <v>7.8</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="8"/>
-        <v>8.49</v>
+        <v>8.9</v>
       </c>
       <c r="P6" s="9">
         <f t="shared" si="9"/>
-        <v>13.38</v>
+        <v>13.1</v>
       </c>
       <c r="R6" s="3">
         <f t="shared" si="10"/>
-        <v>1.253833049403748</v>
+        <v>1.2745098039215685</v>
       </c>
       <c r="S6" t="s">
         <v>11</v>
       </c>
       <c r="T6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>43.86</v>
+        <v>22.07</v>
       </c>
       <c r="U6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>50.75</v>
+        <v>69.41</v>
       </c>
       <c r="V6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>5.39</v>
+        <v>8.52</v>
       </c>
       <c r="W6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>5.39</v>
+        <v>8.52</v>
       </c>
       <c r="X6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,X$1,FALSE)</f>
@@ -2230,30 +2231,30 @@
       </c>
       <c r="AB6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>5.24</v>
+        <v>5.28</v>
       </c>
       <c r="AC6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>5.87</v>
+        <v>6.12</v>
       </c>
       <c r="AD6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>6.54</v>
+        <v>6.96</v>
       </c>
       <c r="AE6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>7.36</v>
+        <v>7.8</v>
       </c>
       <c r="AF6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>8.49</v>
+        <v>8.9</v>
       </c>
       <c r="AG6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,AG$1,FALSE)</f>
-        <v>13.38</v>
+        <v>13.1</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" ht="15.75" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>35</v>
       </c>
@@ -2262,15 +2263,15 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" si="11"/>
-        <v>7.8</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="12"/>
-        <v>7.2</v>
+        <v>3.83</v>
       </c>
       <c r="E7" s="12">
         <f t="shared" si="13"/>
-        <v>85</v>
+        <v>93.99</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="14"/>
@@ -2290,54 +2291,54 @@
       </c>
       <c r="J7" s="12">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>93.99</v>
       </c>
       <c r="K7" s="12">
         <f t="shared" si="4"/>
-        <v>5.62</v>
+        <v>6.13</v>
       </c>
       <c r="L7" s="20">
         <f t="shared" si="5"/>
-        <v>6.47</v>
+        <v>7.21</v>
       </c>
       <c r="M7" s="28">
         <f t="shared" si="6"/>
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="N7" s="24">
         <f t="shared" si="7"/>
-        <v>7.7</v>
+        <v>8.33</v>
       </c>
       <c r="O7" s="12">
         <f t="shared" si="8"/>
-        <v>8.5399999999999991</v>
+        <v>9.08</v>
       </c>
       <c r="P7" s="13">
         <f t="shared" si="9"/>
-        <v>12.25</v>
+        <v>12.47</v>
       </c>
       <c r="R7" s="3">
         <f t="shared" si="10"/>
-        <v>1.1901081916537868</v>
+        <v>1.1553398058252426</v>
       </c>
       <c r="S7" t="s">
         <v>12</v>
       </c>
       <c r="T7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>7.8</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="U7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>7.2</v>
+        <v>3.83</v>
       </c>
       <c r="V7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>85</v>
+        <v>93.99</v>
       </c>
       <c r="W7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>85</v>
+        <v>93.99</v>
       </c>
       <c r="X7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,X$1,FALSE)</f>
@@ -2357,30 +2358,30 @@
       </c>
       <c r="AB7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>5.62</v>
+        <v>6.13</v>
       </c>
       <c r="AC7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>6.47</v>
+        <v>7.21</v>
       </c>
       <c r="AD7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="AE7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>7.7</v>
+        <v>8.33</v>
       </c>
       <c r="AF7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>8.5399999999999991</v>
+        <v>9.08</v>
       </c>
       <c r="AG7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,AG$1,FALSE)</f>
-        <v>12.25</v>
+        <v>12.47</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" ht="15.75" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>66</v>
       </c>
@@ -2389,23 +2390,23 @@
       </c>
       <c r="C8" s="12">
         <f t="shared" ref="C8" si="18">T8</f>
-        <v>39.619999999999997</v>
+        <v>22.68</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" ref="D8" si="19">U8</f>
-        <v>4.49</v>
+        <v>5.03</v>
       </c>
       <c r="E8" s="12">
         <f t="shared" ref="E8" si="20">W8</f>
-        <v>11.1</v>
+        <v>12.1</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" ref="F8" si="21">X8</f>
-        <v>42.44</v>
+        <v>55.52</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ref="G8" si="22">Y8</f>
-        <v>2.35</v>
+        <v>4.66</v>
       </c>
       <c r="H8" s="12">
         <f t="shared" ref="H8" si="23">Z8</f>
@@ -2417,27 +2418,27 @@
       </c>
       <c r="J8" s="12">
         <f t="shared" si="2"/>
-        <v>55.89</v>
+        <v>72.290000000000006</v>
       </c>
       <c r="K8" s="12">
         <f t="shared" si="4"/>
-        <v>7.5</v>
+        <v>7.94</v>
       </c>
       <c r="L8" s="20">
         <f t="shared" si="5"/>
-        <v>16.93</v>
+        <v>18.48</v>
       </c>
       <c r="M8" s="28">
         <f t="shared" si="6"/>
-        <v>22.49</v>
+        <v>23.62</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" si="7"/>
-        <v>26.17</v>
+        <v>26.97</v>
       </c>
       <c r="O8" s="12">
         <f t="shared" si="8"/>
-        <v>29.71</v>
+        <v>30.39</v>
       </c>
       <c r="P8" s="13">
         <f t="shared" si="9"/>
@@ -2445,34 +2446,34 @@
       </c>
       <c r="R8" s="3">
         <f t="shared" si="10"/>
-        <v>1.5457767277023038</v>
+        <v>1.4594155844155843</v>
       </c>
       <c r="S8" t="s">
         <v>67</v>
       </c>
       <c r="T8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>39.619999999999997</v>
+        <v>22.68</v>
       </c>
       <c r="U8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>4.49</v>
+        <v>5.03</v>
       </c>
       <c r="V8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>55.89</v>
+        <v>72.290000000000006</v>
       </c>
       <c r="W8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>11.1</v>
+        <v>12.1</v>
       </c>
       <c r="X8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>42.44</v>
+        <v>55.52</v>
       </c>
       <c r="Y8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>2.35</v>
+        <v>4.66</v>
       </c>
       <c r="Z8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,Z$1,FALSE)</f>
@@ -2484,30 +2485,30 @@
       </c>
       <c r="AB8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>7.5</v>
+        <v>7.94</v>
       </c>
       <c r="AC8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>16.93</v>
+        <v>18.48</v>
       </c>
       <c r="AD8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>22.49</v>
+        <v>23.62</v>
       </c>
       <c r="AE8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>26.17</v>
+        <v>26.97</v>
       </c>
       <c r="AF8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>29.71</v>
+        <v>30.39</v>
       </c>
       <c r="AG8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>36.28</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2516,23 +2517,23 @@
       </c>
       <c r="C9" s="6">
         <f t="shared" si="11"/>
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="12"/>
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="13"/>
-        <v>0.87</v>
+        <v>0.19</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="14"/>
-        <v>92.86</v>
+        <v>88.13</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="15"/>
-        <v>5.94</v>
+        <v>11.66</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="16"/>
@@ -2544,62 +2545,62 @@
       </c>
       <c r="J9" s="6">
         <f t="shared" si="2"/>
-        <v>99.67</v>
+        <v>99.98</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="4"/>
-        <v>20.52</v>
+        <v>22.6</v>
       </c>
       <c r="L9" s="18">
         <f t="shared" si="5"/>
-        <v>24.19</v>
+        <v>25.87</v>
       </c>
       <c r="M9" s="26">
         <f t="shared" si="6"/>
-        <v>26.26</v>
+        <v>27.45</v>
       </c>
       <c r="N9" s="22">
         <f t="shared" si="7"/>
-        <v>27.74</v>
+        <v>28.78</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="8"/>
-        <v>30.32</v>
+        <v>31.8</v>
       </c>
       <c r="P9" s="7">
         <f t="shared" si="9"/>
-        <v>40.53</v>
+        <v>41.73</v>
       </c>
       <c r="R9" s="3">
         <f t="shared" si="10"/>
-        <v>1.1467548573790822</v>
+        <v>1.1124855044453035</v>
       </c>
       <c r="S9" t="s">
         <v>13</v>
       </c>
       <c r="T9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="V9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>99.67</v>
+        <v>99.98</v>
       </c>
       <c r="W9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>0.87</v>
+        <v>0.19</v>
       </c>
       <c r="X9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>92.86</v>
+        <v>88.13</v>
       </c>
       <c r="Y9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>5.94</v>
+        <v>11.66</v>
       </c>
       <c r="Z9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,Z$1,FALSE)</f>
@@ -2611,30 +2612,30 @@
       </c>
       <c r="AB9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>20.52</v>
+        <v>22.6</v>
       </c>
       <c r="AC9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>24.19</v>
+        <v>25.87</v>
       </c>
       <c r="AD9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>26.26</v>
+        <v>27.45</v>
       </c>
       <c r="AE9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>27.74</v>
+        <v>28.78</v>
       </c>
       <c r="AF9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>30.32</v>
+        <v>31.8</v>
       </c>
       <c r="AG9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,AG$1,FALSE)</f>
-        <v>40.53</v>
+        <v>41.73</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" ht="15.75" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>34</v>
       </c>
@@ -2643,27 +2644,27 @@
       </c>
       <c r="C10" s="12">
         <f t="shared" si="11"/>
-        <v>0.92</v>
+        <v>0.12</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
       <c r="E10" s="12">
         <f t="shared" si="13"/>
-        <v>2.2000000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" si="14"/>
-        <v>44.11</v>
+        <v>28.25</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="15"/>
-        <v>50.88</v>
+        <v>66.81</v>
       </c>
       <c r="H10" s="12">
         <f t="shared" si="16"/>
-        <v>1.48</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I10" s="12">
         <f t="shared" si="17"/>
@@ -2671,27 +2672,27 @@
       </c>
       <c r="J10" s="12">
         <f t="shared" si="2"/>
-        <v>98.68</v>
+        <v>99.68</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="4"/>
-        <v>18.91</v>
+        <v>23.49</v>
       </c>
       <c r="L10" s="20">
         <f t="shared" si="5"/>
-        <v>26.19</v>
+        <v>29.27</v>
       </c>
       <c r="M10" s="28">
         <f t="shared" si="6"/>
-        <v>30.62</v>
+        <v>34.369999999999997</v>
       </c>
       <c r="N10" s="24">
         <f t="shared" si="7"/>
-        <v>36.25</v>
+        <v>39.659999999999997</v>
       </c>
       <c r="O10" s="12">
         <f t="shared" si="8"/>
-        <v>42.57</v>
+        <v>44.61</v>
       </c>
       <c r="P10" s="13">
         <f t="shared" si="9"/>
@@ -2699,38 +2700,38 @@
       </c>
       <c r="R10" s="3">
         <f t="shared" si="10"/>
-        <v>1.3841160748377244</v>
+        <v>1.3549709600273316</v>
       </c>
       <c r="S10" t="s">
         <v>14</v>
       </c>
       <c r="T10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.92</v>
+        <v>0.12</v>
       </c>
       <c r="U10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
       <c r="V10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>98.68</v>
+        <v>99.68</v>
       </c>
       <c r="W10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>2.2000000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="X10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>44.11</v>
+        <v>28.25</v>
       </c>
       <c r="Y10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>50.88</v>
+        <v>66.81</v>
       </c>
       <c r="Z10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,Z$1,FALSE)</f>
-        <v>1.48</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AA10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,AA$1,FALSE)</f>
@@ -2738,30 +2739,30 @@
       </c>
       <c r="AB10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>18.91</v>
+        <v>23.49</v>
       </c>
       <c r="AC10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>26.19</v>
+        <v>29.27</v>
       </c>
       <c r="AD10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>30.62</v>
+        <v>34.369999999999997</v>
       </c>
       <c r="AE10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>36.25</v>
+        <v>39.659999999999997</v>
       </c>
       <c r="AF10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>42.57</v>
+        <v>44.61</v>
       </c>
       <c r="AG10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>50.19</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33">
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
@@ -2770,19 +2771,19 @@
       </c>
       <c r="C11" s="6">
         <f>T11</f>
-        <v>0.38</v>
+        <v>0.18</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" ref="D11" si="25">U11</f>
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" ref="E11" si="26">W11</f>
-        <v>15.16</v>
+        <v>11.34</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" ref="F11" si="27">X11</f>
-        <v>84.38</v>
+        <v>88.43</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" ref="G11" si="28">Y11</f>
@@ -2798,27 +2799,27 @@
       </c>
       <c r="J11" s="6">
         <f t="shared" si="2"/>
-        <v>99.54</v>
+        <v>99.77</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="4"/>
-        <v>11.57</v>
+        <v>12.77</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="5"/>
-        <v>16.18</v>
+        <v>17.18</v>
       </c>
       <c r="M11" s="26">
         <f t="shared" si="6"/>
-        <v>18.2</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="7"/>
-        <v>20.39</v>
+        <v>20.97</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" si="8"/>
-        <v>22.19</v>
+        <v>22.84</v>
       </c>
       <c r="P11" s="7">
         <f t="shared" si="9"/>
@@ -2826,30 +2827,30 @@
       </c>
       <c r="R11" s="3">
         <f t="shared" si="10"/>
-        <v>1.2601977750309024</v>
+        <v>1.2206053550640279</v>
       </c>
       <c r="S11" t="s">
         <v>9</v>
       </c>
       <c r="T11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.38</v>
+        <v>0.18</v>
       </c>
       <c r="U11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="V11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>99.54</v>
+        <v>99.77</v>
       </c>
       <c r="W11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>15.16</v>
+        <v>11.34</v>
       </c>
       <c r="X11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>84.38</v>
+        <v>88.43</v>
       </c>
       <c r="Y11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,Y$1,FALSE)</f>
@@ -2865,30 +2866,30 @@
       </c>
       <c r="AB11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>11.57</v>
+        <v>12.77</v>
       </c>
       <c r="AC11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>16.18</v>
+        <v>17.18</v>
       </c>
       <c r="AD11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>18.2</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="AE11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>20.39</v>
+        <v>20.97</v>
       </c>
       <c r="AF11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>22.19</v>
+        <v>22.84</v>
       </c>
       <c r="AG11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>28.63</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" ht="15.75" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>36</v>
       </c>
@@ -2897,23 +2898,23 @@
       </c>
       <c r="C12" s="12">
         <f>T12</f>
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="D12" s="12">
         <f>U12</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E12" s="12">
         <f t="shared" ref="E12:I12" si="31">W12</f>
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="31"/>
-        <v>84.82</v>
+        <v>77.8</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="31"/>
-        <v>14.56</v>
+        <v>22.04</v>
       </c>
       <c r="H12" s="12">
         <f t="shared" si="31"/>
@@ -2925,27 +2926,27 @@
       </c>
       <c r="J12" s="12">
         <f t="shared" si="2"/>
-        <v>99.62</v>
+        <v>99.93</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" si="4"/>
-        <v>22.31</v>
+        <v>23.84</v>
       </c>
       <c r="L12" s="20">
         <f t="shared" si="5"/>
-        <v>25.81</v>
+        <v>26.67</v>
       </c>
       <c r="M12" s="28">
         <f t="shared" si="6"/>
-        <v>27.26</v>
+        <v>28.22</v>
       </c>
       <c r="N12" s="24">
         <f t="shared" si="7"/>
-        <v>28.87</v>
+        <v>29.73</v>
       </c>
       <c r="O12" s="12">
         <f t="shared" si="8"/>
-        <v>31.07</v>
+        <v>31.7</v>
       </c>
       <c r="P12" s="13">
         <f t="shared" si="9"/>
@@ -2953,34 +2954,34 @@
       </c>
       <c r="R12" s="3">
         <f t="shared" si="10"/>
-        <v>1.1185586981790006</v>
+        <v>1.1147356580427445</v>
       </c>
       <c r="S12" t="s">
         <v>8</v>
       </c>
       <c r="T12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="U12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="V12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>99.62</v>
+        <v>99.93</v>
       </c>
       <c r="W12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="X12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>84.82</v>
+        <v>77.8</v>
       </c>
       <c r="Y12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>14.56</v>
+        <v>22.04</v>
       </c>
       <c r="Z12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,Z$1,FALSE)</f>
@@ -2992,30 +2993,30 @@
       </c>
       <c r="AB12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>22.31</v>
+        <v>23.84</v>
       </c>
       <c r="AC12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>25.81</v>
+        <v>26.67</v>
       </c>
       <c r="AD12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>27.26</v>
+        <v>28.22</v>
       </c>
       <c r="AE12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>28.87</v>
+        <v>29.73</v>
       </c>
       <c r="AF12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>31.07</v>
+        <v>31.7</v>
       </c>
       <c r="AG12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>37.32</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
@@ -3024,19 +3025,19 @@
       </c>
       <c r="C13" s="6">
         <f t="shared" si="11"/>
-        <v>9.2200000000000006</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="12"/>
-        <v>3.48</v>
+        <v>1</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="13"/>
-        <v>18.75</v>
+        <v>11.03</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="14"/>
-        <v>68.55</v>
+        <v>87.47</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="15"/>
@@ -3052,27 +3053,27 @@
       </c>
       <c r="J13" s="6">
         <f t="shared" si="2"/>
-        <v>87.3</v>
+        <v>98.5</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="4"/>
-        <v>9.1199999999999992</v>
+        <v>11.72</v>
       </c>
       <c r="L13" s="18">
         <f t="shared" si="5"/>
-        <v>15.76</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="M13" s="26">
         <f t="shared" si="6"/>
-        <v>18.23</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="N13" s="22">
         <f t="shared" si="7"/>
-        <v>20.53</v>
+        <v>21.66</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="8"/>
-        <v>23.11</v>
+        <v>24.04</v>
       </c>
       <c r="P13" s="7">
         <f t="shared" si="9"/>
@@ -3080,30 +3081,30 @@
       </c>
       <c r="R13" s="3">
         <f t="shared" si="10"/>
-        <v>1.3026649746192895</v>
+        <v>1.2244205765969474</v>
       </c>
       <c r="S13" t="s">
         <v>25</v>
       </c>
       <c r="T13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>9.2200000000000006</v>
+        <v>0.5</v>
       </c>
       <c r="U13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>3.48</v>
+        <v>1</v>
       </c>
       <c r="V13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>87.3</v>
+        <v>98.5</v>
       </c>
       <c r="W13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>18.75</v>
+        <v>11.03</v>
       </c>
       <c r="X13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>68.55</v>
+        <v>87.47</v>
       </c>
       <c r="Y13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,Y$1,FALSE)</f>
@@ -3119,30 +3120,30 @@
       </c>
       <c r="AB13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>9.1199999999999992</v>
+        <v>11.72</v>
       </c>
       <c r="AC13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>15.76</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="AD13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>18.23</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="AE13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>20.53</v>
+        <v>21.66</v>
       </c>
       <c r="AF13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>23.11</v>
+        <v>24.04</v>
       </c>
       <c r="AG13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>27.27</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33">
       <c r="A14" s="8" t="s">
         <v>39</v>
       </c>
@@ -3151,23 +3152,23 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="11"/>
-        <v>6.19</v>
+        <v>0.66</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="12"/>
-        <v>2.82</v>
+        <v>0.82</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="13"/>
-        <v>12.23</v>
+        <v>5.96</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="14"/>
-        <v>78.010000000000005</v>
+        <v>90.85</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="15"/>
-        <v>0.75</v>
+        <v>1.72</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="16"/>
@@ -3179,27 +3180,27 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
-        <v>90.99</v>
+        <v>98.52</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="4"/>
-        <v>10.65</v>
+        <v>14.18</v>
       </c>
       <c r="L14" s="19">
         <f t="shared" si="5"/>
-        <v>17.64</v>
+        <v>20.14</v>
       </c>
       <c r="M14" s="27">
         <f t="shared" si="6"/>
-        <v>21.52</v>
+        <v>23.34</v>
       </c>
       <c r="N14" s="23">
         <f t="shared" si="7"/>
-        <v>24.37</v>
+        <v>26.1</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="8"/>
-        <v>27.67</v>
+        <v>28.75</v>
       </c>
       <c r="P14" s="9">
         <f t="shared" si="9"/>
@@ -3207,34 +3208,34 @@
       </c>
       <c r="R14" s="3">
         <f t="shared" si="10"/>
-        <v>1.3815192743764173</v>
+        <v>1.2959285004965244</v>
       </c>
       <c r="S14" t="s">
         <v>23</v>
       </c>
       <c r="T14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>6.19</v>
+        <v>0.66</v>
       </c>
       <c r="U14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>2.82</v>
+        <v>0.82</v>
       </c>
       <c r="V14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>90.99</v>
+        <v>98.52</v>
       </c>
       <c r="W14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>12.23</v>
+        <v>5.96</v>
       </c>
       <c r="X14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>78.010000000000005</v>
+        <v>90.85</v>
       </c>
       <c r="Y14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>0.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,Z$1,FALSE)</f>
@@ -3246,30 +3247,30 @@
       </c>
       <c r="AB14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>10.65</v>
+        <v>14.18</v>
       </c>
       <c r="AC14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>17.64</v>
+        <v>20.14</v>
       </c>
       <c r="AD14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>21.52</v>
+        <v>23.34</v>
       </c>
       <c r="AE14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>24.37</v>
+        <v>26.1</v>
       </c>
       <c r="AF14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>27.67</v>
+        <v>28.75</v>
       </c>
       <c r="AG14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>36.25</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33">
       <c r="A15" s="8" t="s">
         <v>41</v>
       </c>
@@ -3278,23 +3279,23 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="11"/>
-        <v>9.94</v>
+        <v>0.92</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="12"/>
-        <v>3.18</v>
+        <v>1.17</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="13"/>
-        <v>7.02</v>
+        <v>4.04</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="14"/>
-        <v>48.46</v>
+        <v>44.07</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="15"/>
-        <v>31.4</v>
+        <v>49.81</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="16"/>
@@ -3306,27 +3307,27 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="2"/>
-        <v>86.88</v>
+        <v>97.91</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="4"/>
-        <v>10.96</v>
+        <v>16.55</v>
       </c>
       <c r="L15" s="19">
         <f t="shared" si="5"/>
-        <v>25.21</v>
+        <v>27.5</v>
       </c>
       <c r="M15" s="27">
         <f t="shared" si="6"/>
-        <v>28.55</v>
+        <v>30.1</v>
       </c>
       <c r="N15" s="23">
         <f t="shared" si="7"/>
-        <v>31.05</v>
+        <v>32.08</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="8"/>
-        <v>33.42</v>
+        <v>34.35</v>
       </c>
       <c r="P15" s="9">
         <f t="shared" si="9"/>
@@ -3334,34 +3335,34 @@
       </c>
       <c r="R15" s="3">
         <f t="shared" si="10"/>
-        <v>1.2316541055136849</v>
+        <v>1.1665454545454546</v>
       </c>
       <c r="S15" t="s">
         <v>24</v>
       </c>
       <c r="T15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>9.94</v>
+        <v>0.92</v>
       </c>
       <c r="U15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>3.18</v>
+        <v>1.17</v>
       </c>
       <c r="V15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>86.88</v>
+        <v>97.91</v>
       </c>
       <c r="W15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>7.02</v>
+        <v>4.04</v>
       </c>
       <c r="X15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>48.46</v>
+        <v>44.07</v>
       </c>
       <c r="Y15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>31.4</v>
+        <v>49.81</v>
       </c>
       <c r="Z15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,Z$1,FALSE)</f>
@@ -3373,30 +3374,30 @@
       </c>
       <c r="AB15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>10.96</v>
+        <v>16.55</v>
       </c>
       <c r="AC15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>25.21</v>
+        <v>27.5</v>
       </c>
       <c r="AD15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>28.55</v>
+        <v>30.1</v>
       </c>
       <c r="AE15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>31.05</v>
+        <v>32.08</v>
       </c>
       <c r="AF15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>33.42</v>
+        <v>34.35</v>
       </c>
       <c r="AG15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>40.630000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33">
       <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
@@ -3405,23 +3406,23 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" si="11"/>
-        <v>1.83</v>
+        <v>0.21</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="12"/>
-        <v>1.22</v>
+        <v>0.5</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="13"/>
-        <v>5.81</v>
+        <v>2.79</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="14"/>
-        <v>53.63</v>
+        <v>45.93</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="15"/>
-        <v>37.51</v>
+        <v>50.57</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="16"/>
@@ -3433,27 +3434,27 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" si="2"/>
-        <v>96.95</v>
+        <v>99.29</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="4"/>
-        <v>13.79</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="L16" s="19">
         <f t="shared" si="5"/>
-        <v>23.99</v>
+        <v>26.54</v>
       </c>
       <c r="M16" s="27">
         <f t="shared" si="6"/>
-        <v>28.46</v>
+        <v>30.13</v>
       </c>
       <c r="N16" s="23">
         <f t="shared" si="7"/>
-        <v>31.51</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="8"/>
-        <v>34.53</v>
+        <v>35.35</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="9"/>
@@ -3461,34 +3462,34 @@
       </c>
       <c r="R16" s="3">
         <f t="shared" si="10"/>
-        <v>1.3134639433097126</v>
+        <v>1.2253202712886211</v>
       </c>
       <c r="S16" t="s">
         <v>15</v>
       </c>
       <c r="T16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>1.83</v>
+        <v>0.21</v>
       </c>
       <c r="U16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>1.22</v>
+        <v>0.5</v>
       </c>
       <c r="V16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>96.95</v>
+        <v>99.29</v>
       </c>
       <c r="W16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>5.81</v>
+        <v>2.79</v>
       </c>
       <c r="X16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>53.63</v>
+        <v>45.93</v>
       </c>
       <c r="Y16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>37.51</v>
+        <v>50.57</v>
       </c>
       <c r="Z16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,Z$1,FALSE)</f>
@@ -3500,30 +3501,30 @@
       </c>
       <c r="AB16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>13.79</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="AC16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>23.99</v>
+        <v>26.54</v>
       </c>
       <c r="AD16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>28.46</v>
+        <v>30.13</v>
       </c>
       <c r="AE16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>31.51</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="AF16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>34.53</v>
+        <v>35.35</v>
       </c>
       <c r="AG16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>43.13</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" ht="15.75" thickBot="1">
       <c r="A17" s="10" t="s">
         <v>27</v>
       </c>
@@ -3532,23 +3533,23 @@
       </c>
       <c r="C17" s="12">
         <f t="shared" si="11"/>
-        <v>3.38</v>
+        <v>0.51</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="12"/>
-        <v>1.87</v>
+        <v>0.78</v>
       </c>
       <c r="E17" s="12">
         <f t="shared" si="13"/>
-        <v>5.94</v>
+        <v>3.81</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="14"/>
-        <v>43.7</v>
+        <v>33.9</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="15"/>
-        <v>45.11</v>
+        <v>61</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" si="16"/>
@@ -3560,27 +3561,27 @@
       </c>
       <c r="J17" s="12">
         <f t="shared" si="2"/>
-        <v>94.75</v>
+        <v>98.71</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" si="4"/>
-        <v>12.99</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="L17" s="20">
         <f t="shared" si="5"/>
-        <v>26.52</v>
+        <v>28.39</v>
       </c>
       <c r="M17" s="28">
         <f t="shared" si="6"/>
-        <v>29.65</v>
+        <v>31.07</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="7"/>
-        <v>31.83</v>
+        <v>32.86</v>
       </c>
       <c r="O17" s="12">
         <f t="shared" si="8"/>
-        <v>34.5</v>
+        <v>35.56</v>
       </c>
       <c r="P17" s="13">
         <f t="shared" si="9"/>
@@ -3588,34 +3589,34 @@
       </c>
       <c r="R17" s="3">
         <f t="shared" si="10"/>
-        <v>1.2002262443438914</v>
+        <v>1.1574498062698133</v>
       </c>
       <c r="S17" t="s">
         <v>16</v>
       </c>
       <c r="T17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>3.38</v>
+        <v>0.51</v>
       </c>
       <c r="U17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>1.87</v>
+        <v>0.78</v>
       </c>
       <c r="V17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>94.75</v>
+        <v>98.71</v>
       </c>
       <c r="W17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>5.94</v>
+        <v>3.81</v>
       </c>
       <c r="X17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>43.7</v>
+        <v>33.9</v>
       </c>
       <c r="Y17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>45.11</v>
+        <v>61</v>
       </c>
       <c r="Z17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,Z$1,FALSE)</f>
@@ -3627,30 +3628,30 @@
       </c>
       <c r="AB17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>12.99</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AC17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>26.52</v>
+        <v>28.39</v>
       </c>
       <c r="AD17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>29.65</v>
+        <v>31.07</v>
       </c>
       <c r="AE17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>31.83</v>
+        <v>32.86</v>
       </c>
       <c r="AF17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>34.5</v>
+        <v>35.56</v>
       </c>
       <c r="AG17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>44.89</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33">
       <c r="A18" s="4" t="s">
         <v>82</v>
       </c>
@@ -3659,15 +3660,15 @@
       </c>
       <c r="C18" s="6">
         <f t="shared" ref="C18:C22" si="32">T18</f>
-        <v>27.71</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" ref="D18:D22" si="33">U18</f>
-        <v>58.94</v>
+        <v>55.55</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" ref="E18:E22" si="34">W18</f>
-        <v>13.36</v>
+        <v>24.1</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" ref="F18:F22" si="35">X18</f>
@@ -3687,54 +3688,54 @@
       </c>
       <c r="J18" s="6">
         <f t="shared" ref="J18:J22" si="39">V18</f>
-        <v>13.36</v>
+        <v>24.1</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" ref="K18:K22" si="40">AB18</f>
-        <v>5.09</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L18" s="18">
         <f t="shared" ref="L18:L22" si="41">AC18</f>
-        <v>5.33</v>
+        <v>5.46</v>
       </c>
       <c r="M18" s="26">
         <f t="shared" ref="M18:M22" si="42">AD18</f>
-        <v>5.71</v>
+        <v>5.99</v>
       </c>
       <c r="N18" s="22">
         <f t="shared" ref="N18:N22" si="43">AE18</f>
-        <v>6.5</v>
+        <v>6.87</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" ref="O18:O22" si="44">AF18</f>
-        <v>8.5399999999999991</v>
+        <v>8.89</v>
       </c>
       <c r="P18" s="7">
         <f t="shared" ref="P18:P22" si="45">AG18</f>
-        <v>12.89</v>
+        <v>13.07</v>
       </c>
       <c r="R18" s="3">
         <f t="shared" ref="R18:R22" si="46">N18/L18</f>
-        <v>1.2195121951219512</v>
+        <v>1.2582417582417582</v>
       </c>
       <c r="S18" t="s">
         <v>19</v>
       </c>
       <c r="T18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>27.71</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="U18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>58.94</v>
+        <v>55.55</v>
       </c>
       <c r="V18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>13.36</v>
+        <v>24.1</v>
       </c>
       <c r="W18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>13.36</v>
+        <v>24.1</v>
       </c>
       <c r="X18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,X$1,FALSE)</f>
@@ -3754,30 +3755,30 @@
       </c>
       <c r="AB18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>5.09</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AC18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>5.33</v>
+        <v>5.46</v>
       </c>
       <c r="AD18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>5.71</v>
+        <v>5.99</v>
       </c>
       <c r="AE18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>6.5</v>
+        <v>6.87</v>
       </c>
       <c r="AF18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>8.5399999999999991</v>
+        <v>8.89</v>
       </c>
       <c r="AG18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,AG$1,FALSE)</f>
-        <v>12.89</v>
+        <v>13.07</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33">
       <c r="A19" s="8" t="s">
         <v>82</v>
       </c>
@@ -3786,19 +3787,19 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" si="32"/>
-        <v>0.66</v>
+        <v>0.01</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="33"/>
-        <v>11.89</v>
+        <v>2.58</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="34"/>
-        <v>84.34</v>
+        <v>90.3</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="35"/>
-        <v>3.11</v>
+        <v>7.12</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="36"/>
@@ -3814,58 +3815,58 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="39"/>
-        <v>87.45</v>
+        <v>97.41</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="40"/>
-        <v>5.81</v>
+        <v>6.55</v>
       </c>
       <c r="L19" s="19">
         <f t="shared" si="41"/>
-        <v>7.59</v>
+        <v>8.98</v>
       </c>
       <c r="M19" s="27">
         <f t="shared" si="42"/>
-        <v>9.65</v>
+        <v>11.07</v>
       </c>
       <c r="N19" s="23">
         <f t="shared" si="43"/>
-        <v>11.69</v>
+        <v>12.89</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="44"/>
-        <v>14.38</v>
+        <v>15.58</v>
       </c>
       <c r="P19" s="9">
         <f t="shared" si="45"/>
-        <v>26.23</v>
+        <v>26.74</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="46"/>
-        <v>1.5401844532279314</v>
+        <v>1.4354120267260579</v>
       </c>
       <c r="S19" t="s">
         <v>22</v>
       </c>
       <c r="T19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.66</v>
+        <v>0.01</v>
       </c>
       <c r="U19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>11.89</v>
+        <v>2.58</v>
       </c>
       <c r="V19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>87.45</v>
+        <v>97.41</v>
       </c>
       <c r="W19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>84.34</v>
+        <v>90.3</v>
       </c>
       <c r="X19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>3.11</v>
+        <v>7.12</v>
       </c>
       <c r="Y19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,Y$1,FALSE)</f>
@@ -3881,30 +3882,30 @@
       </c>
       <c r="AB19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>5.81</v>
+        <v>6.55</v>
       </c>
       <c r="AC19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>7.59</v>
+        <v>8.98</v>
       </c>
       <c r="AD19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>9.65</v>
+        <v>11.07</v>
       </c>
       <c r="AE19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>11.69</v>
+        <v>12.89</v>
       </c>
       <c r="AF19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>14.38</v>
+        <v>15.58</v>
       </c>
       <c r="AG19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,AG$1,FALSE)</f>
-        <v>26.23</v>
+        <v>26.74</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33">
       <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
@@ -3913,27 +3914,27 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" si="32"/>
-        <v>0.28000000000000003</v>
+        <v>0.01</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="33"/>
-        <v>1.7</v>
+        <v>0.25</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="34"/>
-        <v>24.42</v>
+        <v>17.43</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="35"/>
-        <v>65.92</v>
+        <v>70.53</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="36"/>
-        <v>7.67</v>
+        <v>11.77</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="38"/>
@@ -3941,27 +3942,27 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="39"/>
-        <v>98.02</v>
+        <v>99.73</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="40"/>
-        <v>8.2100000000000009</v>
+        <v>10.66</v>
       </c>
       <c r="L20" s="19">
         <f t="shared" si="41"/>
-        <v>15.03</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="M20" s="27">
         <f t="shared" si="42"/>
-        <v>20.66</v>
+        <v>22.39</v>
       </c>
       <c r="N20" s="23">
         <f t="shared" si="43"/>
-        <v>25.48</v>
+        <v>26.93</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="44"/>
-        <v>31.32</v>
+        <v>32.630000000000003</v>
       </c>
       <c r="P20" s="9">
         <f t="shared" si="45"/>
@@ -3969,38 +3970,38 @@
       </c>
       <c r="R20" s="3">
         <f t="shared" si="46"/>
-        <v>1.6952761144377912</v>
+        <v>1.5748538011695905</v>
       </c>
       <c r="S20" t="s">
         <v>20</v>
       </c>
       <c r="T20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.28000000000000003</v>
+        <v>0.01</v>
       </c>
       <c r="U20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>1.7</v>
+        <v>0.25</v>
       </c>
       <c r="V20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>98.02</v>
+        <v>99.73</v>
       </c>
       <c r="W20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>24.42</v>
+        <v>17.43</v>
       </c>
       <c r="X20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>65.92</v>
+        <v>70.53</v>
       </c>
       <c r="Y20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>7.67</v>
+        <v>11.77</v>
       </c>
       <c r="Z20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,Z$1,FALSE)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,AA$1,FALSE)</f>
@@ -4008,30 +4009,30 @@
       </c>
       <c r="AB20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>8.2100000000000009</v>
+        <v>10.66</v>
       </c>
       <c r="AC20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>15.03</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="AD20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>20.66</v>
+        <v>22.39</v>
       </c>
       <c r="AE20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>25.48</v>
+        <v>26.93</v>
       </c>
       <c r="AF20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>31.32</v>
+        <v>32.630000000000003</v>
       </c>
       <c r="AG20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>46.91</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33">
       <c r="A21" s="8" t="s">
         <v>82</v>
       </c>
@@ -4040,27 +4041,27 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" si="32"/>
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="33"/>
-        <v>0.39</v>
+        <v>0.08</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="34"/>
-        <v>1.99</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="35"/>
-        <v>38.96</v>
+        <v>25.32</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="36"/>
-        <v>57.82</v>
+        <v>73.12</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="37"/>
-        <v>0.45</v>
+        <v>0.87</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="38"/>
@@ -4068,27 +4069,27 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="39"/>
-        <v>99.21</v>
+        <v>99.88</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="40"/>
-        <v>19.739999999999998</v>
+        <v>24.12</v>
       </c>
       <c r="L21" s="19">
         <f t="shared" si="41"/>
-        <v>27.2</v>
+        <v>29.81</v>
       </c>
       <c r="M21" s="27">
         <f t="shared" si="42"/>
-        <v>31.23</v>
+        <v>33.159999999999997</v>
       </c>
       <c r="N21" s="23">
         <f t="shared" si="43"/>
-        <v>34.19</v>
+        <v>36.03</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="44"/>
-        <v>38.369999999999997</v>
+        <v>39.97</v>
       </c>
       <c r="P21" s="9">
         <f t="shared" si="45"/>
@@ -4096,38 +4097,38 @@
       </c>
       <c r="R21" s="3">
         <f t="shared" si="46"/>
-        <v>1.2569852941176469</v>
+        <v>1.2086548138208655</v>
       </c>
       <c r="S21" t="s">
         <v>21</v>
       </c>
       <c r="T21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="U21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>0.39</v>
+        <v>0.08</v>
       </c>
       <c r="V21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>99.21</v>
+        <v>99.88</v>
       </c>
       <c r="W21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>1.99</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="X21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>38.96</v>
+        <v>25.32</v>
       </c>
       <c r="Y21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>57.82</v>
+        <v>73.12</v>
       </c>
       <c r="Z21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,Z$1,FALSE)</f>
-        <v>0.45</v>
+        <v>0.87</v>
       </c>
       <c r="AA21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,AA$1,FALSE)</f>
@@ -4135,30 +4136,30 @@
       </c>
       <c r="AB21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>19.739999999999998</v>
+        <v>24.12</v>
       </c>
       <c r="AC21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>27.2</v>
+        <v>29.81</v>
       </c>
       <c r="AD21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>31.23</v>
+        <v>33.159999999999997</v>
       </c>
       <c r="AE21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>34.19</v>
+        <v>36.03</v>
       </c>
       <c r="AF21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>38.369999999999997</v>
+        <v>39.97</v>
       </c>
       <c r="AG21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>51.83</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" ht="15.75" thickBot="1">
       <c r="A22" s="10" t="s">
         <v>82</v>
       </c>
@@ -4167,27 +4168,27 @@
       </c>
       <c r="C22" s="12">
         <f t="shared" si="32"/>
-        <v>1.97</v>
+        <v>0.1</v>
       </c>
       <c r="D22" s="12">
         <f t="shared" si="33"/>
-        <v>2.99</v>
+        <v>0.86</v>
       </c>
       <c r="E22" s="12">
         <f t="shared" si="34"/>
-        <v>11.46</v>
+        <v>6.17</v>
       </c>
       <c r="F22" s="12">
         <f t="shared" si="35"/>
-        <v>43.63</v>
+        <v>39.659999999999997</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="36"/>
-        <v>38.76</v>
+        <v>51</v>
       </c>
       <c r="H22" s="12">
         <f t="shared" si="37"/>
-        <v>1.19</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="I22" s="12">
         <f t="shared" si="38"/>
@@ -4195,27 +4196,27 @@
       </c>
       <c r="J22" s="12">
         <f t="shared" si="39"/>
-        <v>95.04</v>
+        <v>99.04</v>
       </c>
       <c r="K22" s="12">
         <f t="shared" si="40"/>
-        <v>9.5500000000000007</v>
+        <v>13.66</v>
       </c>
       <c r="L22" s="20">
         <f t="shared" si="41"/>
-        <v>21.82</v>
+        <v>25.53</v>
       </c>
       <c r="M22" s="28">
         <f t="shared" si="42"/>
-        <v>28.24</v>
+        <v>30.77</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="43"/>
-        <v>33.520000000000003</v>
+        <v>35.53</v>
       </c>
       <c r="O22" s="12">
         <f t="shared" si="44"/>
-        <v>40.770000000000003</v>
+        <v>42.67</v>
       </c>
       <c r="P22" s="13">
         <f t="shared" si="45"/>
@@ -4223,38 +4224,38 @@
       </c>
       <c r="R22" s="3">
         <f t="shared" si="46"/>
-        <v>1.5362053162236482</v>
+        <v>1.3916960438699568</v>
       </c>
       <c r="S22" t="s">
         <v>18</v>
       </c>
       <c r="T22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>1.97</v>
+        <v>0.1</v>
       </c>
       <c r="U22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>2.99</v>
+        <v>0.86</v>
       </c>
       <c r="V22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>95.04</v>
+        <v>99.04</v>
       </c>
       <c r="W22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>11.46</v>
+        <v>6.17</v>
       </c>
       <c r="X22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>43.63</v>
+        <v>39.659999999999997</v>
       </c>
       <c r="Y22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>38.76</v>
+        <v>51</v>
       </c>
       <c r="Z22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,Z$1,FALSE)</f>
-        <v>1.19</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="AA22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,AA$1,FALSE)</f>
@@ -4262,30 +4263,30 @@
       </c>
       <c r="AB22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>9.5500000000000007</v>
+        <v>13.66</v>
       </c>
       <c r="AC22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>21.82</v>
+        <v>25.53</v>
       </c>
       <c r="AD22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>28.24</v>
+        <v>30.77</v>
       </c>
       <c r="AE22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>33.520000000000003</v>
+        <v>35.53</v>
       </c>
       <c r="AF22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>40.770000000000003</v>
+        <v>42.67</v>
       </c>
       <c r="AG22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>55.52</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33">
       <c r="A23" s="4" t="s">
         <v>81</v>
       </c>
@@ -4294,19 +4295,19 @@
       </c>
       <c r="C23" s="6">
         <f t="shared" si="11"/>
-        <v>5.0599999999999996</v>
+        <v>1.67</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="12"/>
-        <v>86.61</v>
+        <v>82.12</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="13"/>
-        <v>7.6</v>
+        <v>14.99</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="14"/>
-        <v>0.74</v>
+        <v>1.23</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="15"/>
@@ -4322,58 +4323,58 @@
       </c>
       <c r="J23" s="6">
         <f t="shared" si="2"/>
-        <v>8.34</v>
+        <v>16.21</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="4"/>
-        <v>5.13</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L23" s="18">
         <f t="shared" si="5"/>
-        <v>5.74</v>
+        <v>5.68</v>
       </c>
       <c r="M23" s="26">
         <f t="shared" si="6"/>
-        <v>7.08</v>
+        <v>6.81</v>
       </c>
       <c r="N23" s="22">
         <f t="shared" si="7"/>
-        <v>10.67</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" si="8"/>
-        <v>17.170000000000002</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="P23" s="7">
         <f t="shared" si="9"/>
-        <v>20.28</v>
+        <v>24.59</v>
       </c>
       <c r="R23" s="3">
         <f t="shared" si="10"/>
-        <v>1.8588850174216027</v>
+        <v>1.6496478873239435</v>
       </c>
       <c r="S23" t="s">
         <v>77</v>
       </c>
       <c r="T23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>5.0599999999999996</v>
+        <v>1.67</v>
       </c>
       <c r="U23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>86.61</v>
+        <v>82.12</v>
       </c>
       <c r="V23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>8.34</v>
+        <v>16.21</v>
       </c>
       <c r="W23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>7.6</v>
+        <v>14.99</v>
       </c>
       <c r="X23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>0.74</v>
+        <v>1.23</v>
       </c>
       <c r="Y23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,Y$1,FALSE)</f>
@@ -4389,30 +4390,30 @@
       </c>
       <c r="AB23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>5.13</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AC23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>5.74</v>
+        <v>5.68</v>
       </c>
       <c r="AD23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>7.08</v>
+        <v>6.81</v>
       </c>
       <c r="AE23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>10.67</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="AF23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>17.170000000000002</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="AG23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,AG$1,FALSE)</f>
-        <v>20.28</v>
+        <v>24.59</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33">
       <c r="A24" s="8" t="s">
         <v>81</v>
       </c>
@@ -4421,19 +4422,19 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" si="11"/>
-        <v>0.54</v>
+        <v>0.02</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="12"/>
-        <v>7.77</v>
+        <v>1.54</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="13"/>
-        <v>89.53</v>
+        <v>93.35</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="14"/>
-        <v>2.17</v>
+        <v>5.09</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="15"/>
@@ -4449,58 +4450,58 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="2"/>
-        <v>91.69</v>
+        <v>98.44</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="4"/>
-        <v>5.72</v>
+        <v>6.47</v>
       </c>
       <c r="L24" s="19">
         <f t="shared" si="5"/>
-        <v>7.16</v>
+        <v>8.52</v>
       </c>
       <c r="M24" s="27">
         <f t="shared" si="6"/>
-        <v>8.7799999999999994</v>
+        <v>10.3</v>
       </c>
       <c r="N24" s="23">
         <f t="shared" si="7"/>
-        <v>10.75</v>
+        <v>11.81</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="8"/>
-        <v>13.53</v>
+        <v>15.07</v>
       </c>
       <c r="P24" s="9">
         <f t="shared" si="9"/>
-        <v>20.260000000000002</v>
+        <v>19.95</v>
       </c>
       <c r="R24" s="3">
         <f t="shared" si="10"/>
-        <v>1.5013966480446927</v>
+        <v>1.3861502347417842</v>
       </c>
       <c r="S24" t="s">
         <v>80</v>
       </c>
       <c r="T24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.54</v>
+        <v>0.02</v>
       </c>
       <c r="U24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>7.77</v>
+        <v>1.54</v>
       </c>
       <c r="V24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>91.69</v>
+        <v>98.44</v>
       </c>
       <c r="W24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>89.53</v>
+        <v>93.35</v>
       </c>
       <c r="X24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>2.17</v>
+        <v>5.09</v>
       </c>
       <c r="Y24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,Y$1,FALSE)</f>
@@ -4516,30 +4517,30 @@
       </c>
       <c r="AB24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>5.72</v>
+        <v>6.47</v>
       </c>
       <c r="AC24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>7.16</v>
+        <v>8.52</v>
       </c>
       <c r="AD24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>8.7799999999999994</v>
+        <v>10.3</v>
       </c>
       <c r="AE24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>10.75</v>
+        <v>11.81</v>
       </c>
       <c r="AF24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>13.53</v>
+        <v>15.07</v>
       </c>
       <c r="AG24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,AG$1,FALSE)</f>
-        <v>20.260000000000002</v>
+        <v>19.95</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33">
       <c r="A25" s="8" t="s">
         <v>81</v>
       </c>
@@ -4548,23 +4549,23 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" si="11"/>
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="13"/>
-        <v>31.47</v>
+        <v>23.76</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="14"/>
-        <v>66.3</v>
+        <v>74.16</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="15"/>
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="16"/>
@@ -4576,27 +4577,27 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" si="2"/>
-        <v>98.81</v>
+        <v>99.83</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="4"/>
-        <v>8.11</v>
+        <v>10.09</v>
       </c>
       <c r="L25" s="19">
         <f t="shared" si="5"/>
-        <v>13.34</v>
+        <v>15.33</v>
       </c>
       <c r="M25" s="27">
         <f t="shared" si="6"/>
-        <v>17.98</v>
+        <v>19.82</v>
       </c>
       <c r="N25" s="23">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>23.44</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="8"/>
-        <v>26.82</v>
+        <v>28.06</v>
       </c>
       <c r="P25" s="9">
         <f t="shared" si="9"/>
@@ -4604,34 +4605,34 @@
       </c>
       <c r="R25" s="3">
         <f t="shared" si="10"/>
-        <v>1.6491754122938531</v>
+        <v>1.5290280495759949</v>
       </c>
       <c r="S25" t="s">
         <v>79</v>
       </c>
       <c r="T25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
       <c r="U25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="V25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>98.81</v>
+        <v>99.83</v>
       </c>
       <c r="W25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>31.47</v>
+        <v>23.76</v>
       </c>
       <c r="X25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>66.3</v>
+        <v>74.16</v>
       </c>
       <c r="Y25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="Z25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,Z$1,FALSE)</f>
@@ -4643,30 +4644,30 @@
       </c>
       <c r="AB25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>8.11</v>
+        <v>10.09</v>
       </c>
       <c r="AC25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>13.34</v>
+        <v>15.33</v>
       </c>
       <c r="AD25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>17.98</v>
+        <v>19.82</v>
       </c>
       <c r="AE25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>22</v>
+        <v>23.44</v>
       </c>
       <c r="AF25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>26.82</v>
+        <v>28.06</v>
       </c>
       <c r="AG25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>38.450000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33">
       <c r="A26" s="8" t="s">
         <v>81</v>
       </c>
@@ -4675,27 +4676,27 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" si="11"/>
-        <v>1.77</v>
+        <v>0.08</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="12"/>
-        <v>5.08</v>
+        <v>1.65</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="13"/>
-        <v>18.27</v>
+        <v>11.22</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="14"/>
-        <v>66.319999999999993</v>
+        <v>72.08</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="15"/>
-        <v>8.56</v>
+        <v>14.97</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="17"/>
@@ -4703,66 +4704,66 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="2"/>
-        <v>93.16</v>
+        <v>98.27</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="4"/>
-        <v>8.01</v>
+        <v>10.79</v>
       </c>
       <c r="L26" s="19">
         <f t="shared" si="5"/>
-        <v>16.62</v>
+        <v>19.54</v>
       </c>
       <c r="M26" s="27">
         <f t="shared" si="6"/>
-        <v>21.91</v>
+        <v>24.16</v>
       </c>
       <c r="N26" s="23">
         <f t="shared" si="7"/>
-        <v>26.17</v>
+        <v>28.01</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="8"/>
-        <v>31.85</v>
+        <v>33.53</v>
       </c>
       <c r="P26" s="9">
         <f t="shared" si="9"/>
-        <v>54.85</v>
+        <v>46.36</v>
       </c>
       <c r="R26" s="3">
         <f t="shared" si="10"/>
-        <v>1.5746089049338148</v>
+        <v>1.433469805527124</v>
       </c>
       <c r="S26" t="s">
         <v>78</v>
       </c>
       <c r="T26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>1.77</v>
+        <v>0.08</v>
       </c>
       <c r="U26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>5.08</v>
+        <v>1.65</v>
       </c>
       <c r="V26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>93.16</v>
+        <v>98.27</v>
       </c>
       <c r="W26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>18.27</v>
+        <v>11.22</v>
       </c>
       <c r="X26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>66.319999999999993</v>
+        <v>72.08</v>
       </c>
       <c r="Y26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>8.56</v>
+        <v>14.97</v>
       </c>
       <c r="Z26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,Z$1,FALSE)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,AA$1,FALSE)</f>
@@ -4770,30 +4771,30 @@
       </c>
       <c r="AB26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>8.01</v>
+        <v>10.79</v>
       </c>
       <c r="AC26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>16.62</v>
+        <v>19.54</v>
       </c>
       <c r="AD26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>21.91</v>
+        <v>24.16</v>
       </c>
       <c r="AE26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>26.17</v>
+        <v>28.01</v>
       </c>
       <c r="AF26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>31.85</v>
+        <v>33.53</v>
       </c>
       <c r="AG26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,AG$1,FALSE)</f>
-        <v>54.85</v>
+        <v>46.36</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" ht="15.75" thickBot="1">
       <c r="A27" s="10" t="s">
         <v>81</v>
       </c>
@@ -4802,27 +4803,27 @@
       </c>
       <c r="C27" s="12">
         <f t="shared" si="11"/>
-        <v>2.4500000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="D27" s="12">
         <f t="shared" si="12"/>
-        <v>4.05</v>
+        <v>1.2</v>
       </c>
       <c r="E27" s="12">
         <f t="shared" si="13"/>
-        <v>12.44</v>
+        <v>6.77</v>
       </c>
       <c r="F27" s="12">
         <f t="shared" si="14"/>
-        <v>51.69</v>
+        <v>49.28</v>
       </c>
       <c r="G27" s="12">
         <f t="shared" si="15"/>
-        <v>29.02</v>
+        <v>41.89</v>
       </c>
       <c r="H27" s="12">
         <f t="shared" si="16"/>
-        <v>0.35</v>
+        <v>0.74</v>
       </c>
       <c r="I27" s="12">
         <f t="shared" si="17"/>
@@ -4830,27 +4831,27 @@
       </c>
       <c r="J27" s="12">
         <f t="shared" si="2"/>
-        <v>93.5</v>
+        <v>98.68</v>
       </c>
       <c r="K27" s="12">
         <f t="shared" si="4"/>
-        <v>9.16</v>
+        <v>13.18</v>
       </c>
       <c r="L27" s="20">
         <f t="shared" si="5"/>
-        <v>20.45</v>
+        <v>23.92</v>
       </c>
       <c r="M27" s="28">
         <f t="shared" si="6"/>
-        <v>26.51</v>
+        <v>28.84</v>
       </c>
       <c r="N27" s="24">
         <f t="shared" si="7"/>
-        <v>31.37</v>
+        <v>33.35</v>
       </c>
       <c r="O27" s="12">
         <f t="shared" si="8"/>
-        <v>37.869999999999997</v>
+        <v>39.72</v>
       </c>
       <c r="P27" s="13">
         <f t="shared" si="9"/>
@@ -4858,38 +4859,38 @@
       </c>
       <c r="R27" s="3">
         <f t="shared" si="10"/>
-        <v>1.5339853300733497</v>
+        <v>1.3942307692307692</v>
       </c>
       <c r="S27" t="s">
         <v>76</v>
       </c>
       <c r="T27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>2.4500000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="U27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>4.05</v>
+        <v>1.2</v>
       </c>
       <c r="V27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>93.5</v>
+        <v>98.68</v>
       </c>
       <c r="W27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>12.44</v>
+        <v>6.77</v>
       </c>
       <c r="X27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>51.69</v>
+        <v>49.28</v>
       </c>
       <c r="Y27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>29.02</v>
+        <v>41.89</v>
       </c>
       <c r="Z27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,Z$1,FALSE)</f>
-        <v>0.35</v>
+        <v>0.74</v>
       </c>
       <c r="AA27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,AA$1,FALSE)</f>
@@ -4897,30 +4898,30 @@
       </c>
       <c r="AB27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>9.16</v>
+        <v>13.18</v>
       </c>
       <c r="AC27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>20.45</v>
+        <v>23.92</v>
       </c>
       <c r="AD27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>26.51</v>
+        <v>28.84</v>
       </c>
       <c r="AE27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>31.37</v>
+        <v>33.35</v>
       </c>
       <c r="AF27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>37.869999999999997</v>
+        <v>39.72</v>
       </c>
       <c r="AG27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>54.13</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -4929,55 +4930,55 @@
       </c>
       <c r="C28" s="6">
         <f t="shared" si="11"/>
-        <v>1.36</v>
+        <v>0.22</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="12"/>
-        <v>1.36</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="13"/>
-        <v>4.6500000000000004</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="14"/>
-        <v>18.03</v>
+        <v>12.73</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="15"/>
-        <v>43.92</v>
+        <v>42.39</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" si="16"/>
-        <v>28.16</v>
+        <v>37.630000000000003</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="17"/>
-        <v>2.52</v>
+        <v>4.22</v>
       </c>
       <c r="J28" s="6">
         <f t="shared" si="2"/>
-        <v>97.28</v>
+        <v>99.23</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="4"/>
-        <v>15.38</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="L28" s="18">
         <f t="shared" si="5"/>
-        <v>30.94</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="M28" s="26">
         <f t="shared" si="6"/>
-        <v>39.47</v>
+        <v>42.94</v>
       </c>
       <c r="N28" s="22">
         <f t="shared" si="7"/>
-        <v>46.99</v>
+        <v>49.61</v>
       </c>
       <c r="O28" s="6">
         <f t="shared" si="8"/>
-        <v>56.81</v>
+        <v>59.2</v>
       </c>
       <c r="P28" s="7">
         <f t="shared" si="9"/>
@@ -4985,69 +4986,69 @@
       </c>
       <c r="R28" s="3">
         <f t="shared" si="10"/>
-        <v>1.5187459599224304</v>
+        <v>1.4109783845278727</v>
       </c>
       <c r="S28" t="s">
         <v>17</v>
       </c>
       <c r="T28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>1.36</v>
+        <v>0.22</v>
       </c>
       <c r="U28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>1.36</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="V28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>97.28</v>
+        <v>99.23</v>
       </c>
       <c r="W28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>4.6500000000000004</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="X28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>18.03</v>
+        <v>12.73</v>
       </c>
       <c r="Y28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>43.92</v>
+        <v>42.39</v>
       </c>
       <c r="Z28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,Z$1,FALSE)</f>
-        <v>28.16</v>
+        <v>37.630000000000003</v>
       </c>
       <c r="AA28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,AA$1,FALSE)</f>
-        <v>2.52</v>
+        <v>4.22</v>
       </c>
       <c r="AB28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>15.38</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="AC28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>30.94</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="AD28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>39.47</v>
+        <v>42.94</v>
       </c>
       <c r="AE28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>46.99</v>
+        <v>49.61</v>
       </c>
       <c r="AF28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>56.81</v>
+        <v>59.2</v>
       </c>
       <c r="AG28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>78.150000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" ht="15.75" thickBot="1">
       <c r="A29" s="10" t="s">
         <v>59</v>
       </c>
@@ -5056,55 +5057,55 @@
       </c>
       <c r="C29" s="12">
         <f t="shared" ref="C29" si="47">T29</f>
-        <v>12.57</v>
+        <v>3.4</v>
       </c>
       <c r="D29" s="12">
         <f t="shared" ref="D29" si="48">U29</f>
-        <v>4.82</v>
+        <v>3.45</v>
       </c>
       <c r="E29" s="12">
         <f t="shared" ref="E29" si="49">W29</f>
-        <v>9.9600000000000009</v>
+        <v>7.81</v>
       </c>
       <c r="F29" s="12">
         <f t="shared" ref="F29" si="50">X29</f>
-        <v>22.78</v>
+        <v>20.43</v>
       </c>
       <c r="G29" s="12">
         <f t="shared" ref="G29" si="51">Y29</f>
-        <v>26.61</v>
+        <v>31.22</v>
       </c>
       <c r="H29" s="12">
         <f t="shared" ref="H29" si="52">Z29</f>
-        <v>13.75</v>
+        <v>19.03</v>
       </c>
       <c r="I29" s="12">
         <f t="shared" ref="I29" si="53">AA29</f>
-        <v>9.51</v>
+        <v>14.65</v>
       </c>
       <c r="J29" s="12">
         <f t="shared" si="2"/>
-        <v>82.61</v>
+        <v>93.15</v>
       </c>
       <c r="K29" s="12">
         <f t="shared" si="4"/>
-        <v>8.93</v>
+        <v>11.03</v>
       </c>
       <c r="L29" s="20">
         <f t="shared" si="5"/>
-        <v>23.37</v>
+        <v>27.44</v>
       </c>
       <c r="M29" s="28">
         <f t="shared" si="6"/>
-        <v>34.24</v>
+        <v>38.61</v>
       </c>
       <c r="N29" s="24">
         <f t="shared" si="7"/>
-        <v>47.33</v>
+        <v>52.23</v>
       </c>
       <c r="O29" s="12">
         <f t="shared" si="8"/>
-        <v>68.239999999999995</v>
+        <v>71.42</v>
       </c>
       <c r="P29" s="13">
         <f t="shared" si="9"/>
@@ -5112,69 +5113,69 @@
       </c>
       <c r="R29" s="3">
         <f t="shared" si="10"/>
-        <v>2.0252460419341034</v>
+        <v>1.9034256559766762</v>
       </c>
       <c r="S29" t="s">
         <v>58</v>
       </c>
       <c r="T29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>12.57</v>
+        <v>3.4</v>
       </c>
       <c r="U29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>4.82</v>
+        <v>3.45</v>
       </c>
       <c r="V29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>82.61</v>
+        <v>93.15</v>
       </c>
       <c r="W29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>9.9600000000000009</v>
+        <v>7.81</v>
       </c>
       <c r="X29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>22.78</v>
+        <v>20.43</v>
       </c>
       <c r="Y29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>26.61</v>
+        <v>31.22</v>
       </c>
       <c r="Z29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,Z$1,FALSE)</f>
-        <v>13.75</v>
+        <v>19.03</v>
       </c>
       <c r="AA29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,AA$1,FALSE)</f>
-        <v>9.51</v>
+        <v>14.65</v>
       </c>
       <c r="AB29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>8.93</v>
+        <v>11.03</v>
       </c>
       <c r="AC29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>23.37</v>
+        <v>27.44</v>
       </c>
       <c r="AD29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>34.24</v>
+        <v>38.61</v>
       </c>
       <c r="AE29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>47.33</v>
+        <v>52.23</v>
       </c>
       <c r="AF29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>68.239999999999995</v>
+        <v>71.42</v>
       </c>
       <c r="AG29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>90.16</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33">
       <c r="A30" s="4" t="s">
         <v>53</v>
       </c>
@@ -5183,27 +5184,27 @@
       </c>
       <c r="C30" s="6">
         <f t="shared" ref="C30:C31" si="54">T30</f>
-        <v>0.45</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" ref="D30:D31" si="55">U30</f>
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" ref="E30:E31" si="56">W30</f>
-        <v>9.91</v>
+        <v>4.43</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" ref="F30:F31" si="57">X30</f>
-        <v>70.930000000000007</v>
+        <v>69.69</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" ref="G30:G31" si="58">Y30</f>
-        <v>17.88</v>
+        <v>25.31</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ref="H30:H31" si="59">Z30</f>
-        <v>0.18</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" ref="I30:I31" si="60">AA30</f>
@@ -5211,66 +5212,66 @@
       </c>
       <c r="J30" s="6">
         <f t="shared" si="2"/>
-        <v>98.9</v>
+        <v>99.72</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="4"/>
-        <v>12.18</v>
+        <v>15.45</v>
       </c>
       <c r="L30" s="18">
         <f t="shared" si="5"/>
-        <v>18.98</v>
+        <v>21.5</v>
       </c>
       <c r="M30" s="26">
         <f t="shared" si="6"/>
-        <v>23.53</v>
+        <v>25.73</v>
       </c>
       <c r="N30" s="22">
         <f t="shared" si="7"/>
-        <v>28.24</v>
+        <v>30.18</v>
       </c>
       <c r="O30" s="6">
         <f t="shared" si="8"/>
-        <v>35.15</v>
+        <v>36.770000000000003</v>
       </c>
       <c r="P30" s="7">
         <f t="shared" si="9"/>
-        <v>53.85</v>
+        <v>53.97</v>
       </c>
       <c r="R30" s="3">
         <f t="shared" si="10"/>
-        <v>1.4878819810326658</v>
+        <v>1.4037209302325582</v>
       </c>
       <c r="S30" t="s">
         <v>52</v>
       </c>
       <c r="T30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.45</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
       <c r="V30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>98.9</v>
+        <v>99.72</v>
       </c>
       <c r="W30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>9.91</v>
+        <v>4.43</v>
       </c>
       <c r="X30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>70.930000000000007</v>
+        <v>69.69</v>
       </c>
       <c r="Y30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>17.88</v>
+        <v>25.31</v>
       </c>
       <c r="Z30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,Z$1,FALSE)</f>
-        <v>0.18</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AA30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,AA$1,FALSE)</f>
@@ -5278,30 +5279,30 @@
       </c>
       <c r="AB30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>12.18</v>
+        <v>15.45</v>
       </c>
       <c r="AC30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>18.98</v>
+        <v>21.5</v>
       </c>
       <c r="AD30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>23.53</v>
+        <v>25.73</v>
       </c>
       <c r="AE30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>28.24</v>
+        <v>30.18</v>
       </c>
       <c r="AF30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>35.15</v>
+        <v>36.770000000000003</v>
       </c>
       <c r="AG30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,AG$1,FALSE)</f>
-        <v>53.85</v>
+        <v>53.97</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" ht="15.75" thickBot="1">
       <c r="A31" s="10" t="s">
         <v>53</v>
       </c>
@@ -5310,142 +5311,142 @@
       </c>
       <c r="C31" s="12">
         <f t="shared" si="54"/>
-        <v>1.62</v>
+        <v>0.5</v>
       </c>
       <c r="D31" s="12">
         <f t="shared" si="55"/>
-        <v>1.93</v>
+        <v>0.99</v>
       </c>
       <c r="E31" s="12">
         <f t="shared" si="56"/>
-        <v>10.42</v>
+        <v>5.86</v>
       </c>
       <c r="F31" s="12">
         <f t="shared" si="57"/>
-        <v>51.75</v>
+        <v>48.04</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="58"/>
-        <v>32.36</v>
+        <v>41.84</v>
       </c>
       <c r="H31" s="12">
         <f t="shared" si="59"/>
-        <v>1.92</v>
+        <v>2.76</v>
       </c>
       <c r="I31" s="12">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J31" s="12">
         <f t="shared" si="2"/>
-        <v>96.45</v>
+        <v>98.51</v>
       </c>
       <c r="K31" s="12">
         <f t="shared" si="4"/>
-        <v>10.76</v>
+        <v>13.99</v>
       </c>
       <c r="L31" s="20">
         <f t="shared" si="5"/>
-        <v>20.76</v>
+        <v>23.46</v>
       </c>
       <c r="M31" s="28">
         <f t="shared" si="6"/>
-        <v>26.82</v>
+        <v>29.06</v>
       </c>
       <c r="N31" s="24">
         <f t="shared" si="7"/>
-        <v>32.44</v>
+        <v>34.36</v>
       </c>
       <c r="O31" s="12">
         <f t="shared" si="8"/>
-        <v>40.92</v>
+        <v>42.54</v>
       </c>
       <c r="P31" s="13">
         <f t="shared" si="9"/>
-        <v>61.1</v>
+        <v>61.67</v>
       </c>
       <c r="R31" s="3">
         <f t="shared" si="10"/>
-        <v>1.5626204238921</v>
+        <v>1.4646206308610399</v>
       </c>
       <c r="S31" t="s">
         <v>51</v>
       </c>
       <c r="T31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>1.62</v>
+        <v>0.5</v>
       </c>
       <c r="U31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>1.93</v>
+        <v>0.99</v>
       </c>
       <c r="V31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>96.45</v>
+        <v>98.51</v>
       </c>
       <c r="W31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>10.42</v>
+        <v>5.86</v>
       </c>
       <c r="X31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>51.75</v>
+        <v>48.04</v>
       </c>
       <c r="Y31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>32.36</v>
+        <v>41.84</v>
       </c>
       <c r="Z31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,Z$1,FALSE)</f>
-        <v>1.92</v>
+        <v>2.76</v>
       </c>
       <c r="AA31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,AA$1,FALSE)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AB31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>10.76</v>
+        <v>13.99</v>
       </c>
       <c r="AC31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>20.76</v>
+        <v>23.46</v>
       </c>
       <c r="AD31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>26.82</v>
+        <v>29.06</v>
       </c>
       <c r="AE31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>32.44</v>
+        <v>34.36</v>
       </c>
       <c r="AF31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>40.92</v>
+        <v>42.54</v>
       </c>
       <c r="AG31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,AG$1,FALSE)</f>
-        <v>61.1</v>
+        <v>61.67</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE4">
+  <sortState ref="A2:AE4">
     <sortCondition ref="AD2:AD4"/>
   </sortState>
   <conditionalFormatting sqref="C2:J7 C9:J17 C23:J29">
     <cfRule type="colorScale" priority="41">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5455,9 +5456,9 @@
   <conditionalFormatting sqref="K9:P17 K2:P7 R2:R17 R23:R31 K23:P29">
     <cfRule type="colorScale" priority="50">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF5A8AC6"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
@@ -5467,9 +5468,9 @@
   <conditionalFormatting sqref="R2:R17 R23:R31">
     <cfRule type="colorScale" priority="38">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5479,9 +5480,9 @@
   <conditionalFormatting sqref="K9:P17 K2:P7 K23:P29">
     <cfRule type="colorScale" priority="37">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -5491,17 +5492,17 @@
   <conditionalFormatting sqref="C30:J30">
     <cfRule type="colorScale" priority="34">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="35">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5511,9 +5512,9 @@
   <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="36">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF5A8AC6"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
@@ -5523,9 +5524,9 @@
   <conditionalFormatting sqref="K30:P30">
     <cfRule type="colorScale" priority="32">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -5535,17 +5536,17 @@
   <conditionalFormatting sqref="C31:J31">
     <cfRule type="colorScale" priority="29">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5555,9 +5556,9 @@
   <conditionalFormatting sqref="K31:P31">
     <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF5A8AC6"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
@@ -5567,9 +5568,9 @@
   <conditionalFormatting sqref="K31:P31">
     <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -5579,9 +5580,9 @@
   <conditionalFormatting sqref="K9:P17 K2:P7 K23:P31">
     <cfRule type="colorScale" priority="26">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -5591,8 +5592,8 @@
   <conditionalFormatting sqref="C2:J7 C9:J17 C23:J31">
     <cfRule type="colorScale" priority="25">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
@@ -5601,17 +5602,17 @@
   <conditionalFormatting sqref="C8:J8">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5621,9 +5622,9 @@
   <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF5A8AC6"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
@@ -5633,9 +5634,9 @@
   <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -5645,9 +5646,9 @@
   <conditionalFormatting sqref="K8:P8">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -5657,8 +5658,8 @@
   <conditionalFormatting sqref="C8:J8">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
@@ -5667,9 +5668,9 @@
   <conditionalFormatting sqref="K2:P17 K23:P31">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF5A8AC6"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
@@ -5679,8 +5680,8 @@
   <conditionalFormatting sqref="C2:I17 C23:I31">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
@@ -5689,9 +5690,9 @@
   <conditionalFormatting sqref="J2:J17 J23:J31">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5701,17 +5702,17 @@
   <conditionalFormatting sqref="C18:J22">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5721,9 +5722,9 @@
   <conditionalFormatting sqref="R18:R22 K18:P22">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF5A8AC6"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
@@ -5733,9 +5734,9 @@
   <conditionalFormatting sqref="R18:R22">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5745,9 +5746,9 @@
   <conditionalFormatting sqref="K18:P22">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -5757,9 +5758,9 @@
   <conditionalFormatting sqref="K18:P22">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -5769,8 +5770,8 @@
   <conditionalFormatting sqref="C18:J22">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
@@ -5779,9 +5780,9 @@
   <conditionalFormatting sqref="K18:P22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF5A8AC6"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
@@ -5791,8 +5792,8 @@
   <conditionalFormatting sqref="C18:I22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
@@ -5801,9 +5802,9 @@
   <conditionalFormatting sqref="J18:J22">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5813,9 +5814,9 @@
   <conditionalFormatting sqref="K2:P31">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -5828,25 +5829,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5893,27 +5894,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="C2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D2">
-        <v>99.62</v>
+        <v>99.93</v>
       </c>
       <c r="E2">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="F2">
-        <v>84.82</v>
+        <v>77.8</v>
       </c>
       <c r="G2">
-        <v>14.56</v>
+        <v>22.04</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -5922,42 +5923,42 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>22.31</v>
+        <v>23.84</v>
       </c>
       <c r="K2">
-        <v>25.81</v>
+        <v>26.67</v>
       </c>
       <c r="L2">
-        <v>27.26</v>
+        <v>28.22</v>
       </c>
       <c r="M2">
-        <v>28.87</v>
+        <v>29.73</v>
       </c>
       <c r="N2">
-        <v>31.07</v>
+        <v>31.7</v>
       </c>
       <c r="O2">
         <v>37.32</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.38</v>
+        <v>0.18</v>
       </c>
       <c r="C3">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="D3">
-        <v>99.54</v>
+        <v>99.77</v>
       </c>
       <c r="E3">
-        <v>15.16</v>
+        <v>11.34</v>
       </c>
       <c r="F3">
-        <v>84.38</v>
+        <v>88.43</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -5969,39 +5970,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.57</v>
+        <v>12.77</v>
       </c>
       <c r="K3">
-        <v>16.18</v>
+        <v>17.18</v>
       </c>
       <c r="L3">
-        <v>18.2</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="M3">
-        <v>20.39</v>
+        <v>20.97</v>
       </c>
       <c r="N3">
-        <v>22.19</v>
+        <v>22.84</v>
       </c>
       <c r="O3">
         <v>28.63</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>5.48</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>12.77</v>
+        <v>3.73</v>
       </c>
       <c r="D4">
-        <v>81.75</v>
+        <v>96.27</v>
       </c>
       <c r="E4">
-        <v>81.75</v>
+        <v>96.27</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6016,39 +6017,39 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.58</v>
+        <v>5.99</v>
       </c>
       <c r="K4">
-        <v>6.55</v>
+        <v>7.32</v>
       </c>
       <c r="L4">
-        <v>7.56</v>
+        <v>8.41</v>
       </c>
       <c r="M4">
-        <v>8.99</v>
+        <v>10.11</v>
       </c>
       <c r="N4">
-        <v>11.29</v>
+        <v>12.14</v>
       </c>
       <c r="O4">
         <v>14.04</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5">
-        <v>43.86</v>
+        <v>22.07</v>
       </c>
       <c r="C5">
-        <v>50.75</v>
+        <v>69.41</v>
       </c>
       <c r="D5">
-        <v>5.39</v>
+        <v>8.52</v>
       </c>
       <c r="E5">
-        <v>5.39</v>
+        <v>8.52</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6063,92 +6064,92 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.24</v>
+        <v>5.28</v>
       </c>
       <c r="K5">
-        <v>5.87</v>
+        <v>6.12</v>
       </c>
       <c r="L5">
-        <v>6.54</v>
+        <v>6.96</v>
       </c>
       <c r="M5">
-        <v>7.36</v>
+        <v>7.8</v>
       </c>
       <c r="N5">
-        <v>8.49</v>
+        <v>8.9</v>
       </c>
       <c r="O5">
-        <v>13.38</v>
+        <v>13.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="C6">
+        <v>3.83</v>
+      </c>
+      <c r="D6">
+        <v>93.99</v>
+      </c>
+      <c r="E6">
+        <v>93.99</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>6.13</v>
+      </c>
+      <c r="K6">
+        <v>7.21</v>
+      </c>
+      <c r="L6">
         <v>7.8</v>
       </c>
-      <c r="C6">
-        <v>7.2</v>
-      </c>
-      <c r="D6">
-        <v>85</v>
-      </c>
-      <c r="E6">
-        <v>85</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>5.62</v>
-      </c>
-      <c r="K6">
-        <v>6.47</v>
-      </c>
-      <c r="L6">
-        <v>7.1</v>
-      </c>
       <c r="M6">
-        <v>7.7</v>
+        <v>8.33</v>
       </c>
       <c r="N6">
-        <v>8.5399999999999991</v>
+        <v>9.08</v>
       </c>
       <c r="O6">
-        <v>12.25</v>
+        <v>12.47</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="D7">
-        <v>99.67</v>
+        <v>99.98</v>
       </c>
       <c r="E7">
-        <v>0.87</v>
+        <v>0.19</v>
       </c>
       <c r="F7">
-        <v>92.86</v>
+        <v>88.13</v>
       </c>
       <c r="G7">
-        <v>5.94</v>
+        <v>11.66</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -6157,92 +6158,92 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>20.52</v>
+        <v>22.6</v>
       </c>
       <c r="K7">
-        <v>24.19</v>
+        <v>25.87</v>
       </c>
       <c r="L7">
-        <v>26.26</v>
+        <v>27.45</v>
       </c>
       <c r="M7">
-        <v>27.74</v>
+        <v>28.78</v>
       </c>
       <c r="N7">
-        <v>30.32</v>
+        <v>31.8</v>
       </c>
       <c r="O7">
-        <v>40.53</v>
+        <v>41.73</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.92</v>
+        <v>0.12</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
       <c r="D8">
-        <v>98.68</v>
+        <v>99.68</v>
       </c>
       <c r="E8">
-        <v>2.2000000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="F8">
-        <v>44.11</v>
+        <v>28.25</v>
       </c>
       <c r="G8">
-        <v>50.88</v>
+        <v>66.81</v>
       </c>
       <c r="H8">
-        <v>1.48</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>18.91</v>
+        <v>23.49</v>
       </c>
       <c r="K8">
-        <v>26.19</v>
+        <v>29.27</v>
       </c>
       <c r="L8">
-        <v>30.62</v>
+        <v>34.369999999999997</v>
       </c>
       <c r="M8">
-        <v>36.25</v>
+        <v>39.659999999999997</v>
       </c>
       <c r="N8">
-        <v>42.57</v>
+        <v>44.61</v>
       </c>
       <c r="O8">
         <v>50.19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>1.83</v>
+        <v>0.21</v>
       </c>
       <c r="C9">
-        <v>1.22</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>96.95</v>
+        <v>99.29</v>
       </c>
       <c r="E9">
-        <v>5.81</v>
+        <v>2.79</v>
       </c>
       <c r="F9">
-        <v>53.63</v>
+        <v>45.93</v>
       </c>
       <c r="G9">
-        <v>37.51</v>
+        <v>50.57</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -6251,45 +6252,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>13.79</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="K9">
-        <v>23.99</v>
+        <v>26.54</v>
       </c>
       <c r="L9">
-        <v>28.46</v>
+        <v>30.13</v>
       </c>
       <c r="M9">
-        <v>31.51</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="N9">
-        <v>34.53</v>
+        <v>35.35</v>
       </c>
       <c r="O9">
         <v>43.13</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10">
-        <v>3.38</v>
+        <v>0.51</v>
       </c>
       <c r="C10">
-        <v>1.87</v>
+        <v>0.78</v>
       </c>
       <c r="D10">
-        <v>94.75</v>
+        <v>98.71</v>
       </c>
       <c r="E10">
-        <v>5.94</v>
+        <v>3.81</v>
       </c>
       <c r="F10">
-        <v>43.7</v>
+        <v>33.9</v>
       </c>
       <c r="G10">
-        <v>45.11</v>
+        <v>61</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -6298,133 +6299,133 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.99</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K10">
-        <v>26.52</v>
+        <v>28.39</v>
       </c>
       <c r="L10">
-        <v>29.65</v>
+        <v>31.07</v>
       </c>
       <c r="M10">
-        <v>31.83</v>
+        <v>32.86</v>
       </c>
       <c r="N10">
-        <v>34.5</v>
+        <v>35.56</v>
       </c>
       <c r="O10">
         <v>44.89</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11">
-        <v>1.36</v>
+        <v>0.22</v>
       </c>
       <c r="C11">
-        <v>1.36</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D11">
-        <v>97.28</v>
+        <v>99.23</v>
       </c>
       <c r="E11">
-        <v>4.6500000000000004</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F11">
-        <v>18.03</v>
+        <v>12.73</v>
       </c>
       <c r="G11">
-        <v>43.92</v>
+        <v>42.39</v>
       </c>
       <c r="H11">
-        <v>28.16</v>
+        <v>37.630000000000003</v>
       </c>
       <c r="I11">
-        <v>2.52</v>
+        <v>4.22</v>
       </c>
       <c r="J11">
-        <v>15.38</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="K11">
-        <v>30.94</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="L11">
-        <v>39.47</v>
+        <v>42.94</v>
       </c>
       <c r="M11">
-        <v>46.99</v>
+        <v>49.61</v>
       </c>
       <c r="N11">
-        <v>56.81</v>
+        <v>59.2</v>
       </c>
       <c r="O11">
         <v>78.150000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12">
-        <v>1.97</v>
+        <v>0.1</v>
       </c>
       <c r="C12">
-        <v>2.99</v>
+        <v>0.86</v>
       </c>
       <c r="D12">
-        <v>95.04</v>
+        <v>99.04</v>
       </c>
       <c r="E12">
-        <v>11.46</v>
+        <v>6.17</v>
       </c>
       <c r="F12">
-        <v>43.63</v>
+        <v>39.659999999999997</v>
       </c>
       <c r="G12">
-        <v>38.76</v>
+        <v>51</v>
       </c>
       <c r="H12">
-        <v>1.19</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.5500000000000007</v>
+        <v>13.66</v>
       </c>
       <c r="K12">
-        <v>21.82</v>
+        <v>25.53</v>
       </c>
       <c r="L12">
-        <v>28.24</v>
+        <v>30.77</v>
       </c>
       <c r="M12">
-        <v>33.520000000000003</v>
+        <v>35.53</v>
       </c>
       <c r="N12">
-        <v>40.770000000000003</v>
+        <v>42.67</v>
       </c>
       <c r="O12">
         <v>55.52</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13">
-        <v>27.71</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="C13">
-        <v>58.94</v>
+        <v>55.55</v>
       </c>
       <c r="D13">
-        <v>13.36</v>
+        <v>24.1</v>
       </c>
       <c r="E13">
-        <v>13.36</v>
+        <v>24.1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -6439,136 +6440,136 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.09</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K13">
-        <v>5.33</v>
+        <v>5.46</v>
       </c>
       <c r="L13">
-        <v>5.71</v>
+        <v>5.99</v>
       </c>
       <c r="M13">
-        <v>6.5</v>
+        <v>6.87</v>
       </c>
       <c r="N13">
-        <v>8.5399999999999991</v>
+        <v>8.89</v>
       </c>
       <c r="O13">
-        <v>12.89</v>
+        <v>13.07</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.28000000000000003</v>
+        <v>0.01</v>
       </c>
       <c r="C14">
-        <v>1.7</v>
+        <v>0.25</v>
       </c>
       <c r="D14">
-        <v>98.02</v>
+        <v>99.73</v>
       </c>
       <c r="E14">
-        <v>24.42</v>
+        <v>17.43</v>
       </c>
       <c r="F14">
-        <v>65.92</v>
+        <v>70.53</v>
       </c>
       <c r="G14">
-        <v>7.67</v>
+        <v>11.77</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.2100000000000009</v>
+        <v>10.66</v>
       </c>
       <c r="K14">
-        <v>15.03</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="L14">
-        <v>20.66</v>
+        <v>22.39</v>
       </c>
       <c r="M14">
-        <v>25.48</v>
+        <v>26.93</v>
       </c>
       <c r="N14">
-        <v>31.32</v>
+        <v>32.630000000000003</v>
       </c>
       <c r="O14">
         <v>46.91</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="C15">
-        <v>0.39</v>
+        <v>0.08</v>
       </c>
       <c r="D15">
-        <v>99.21</v>
+        <v>99.88</v>
       </c>
       <c r="E15">
-        <v>1.99</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F15">
-        <v>38.96</v>
+        <v>25.32</v>
       </c>
       <c r="G15">
-        <v>57.82</v>
+        <v>73.12</v>
       </c>
       <c r="H15">
-        <v>0.45</v>
+        <v>0.87</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>19.739999999999998</v>
+        <v>24.12</v>
       </c>
       <c r="K15">
-        <v>27.2</v>
+        <v>29.81</v>
       </c>
       <c r="L15">
-        <v>31.23</v>
+        <v>33.159999999999997</v>
       </c>
       <c r="M15">
-        <v>34.19</v>
+        <v>36.03</v>
       </c>
       <c r="N15">
-        <v>38.369999999999997</v>
+        <v>39.97</v>
       </c>
       <c r="O15">
         <v>51.83</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.66</v>
+        <v>0.01</v>
       </c>
       <c r="C16">
-        <v>11.89</v>
+        <v>2.58</v>
       </c>
       <c r="D16">
-        <v>87.45</v>
+        <v>97.41</v>
       </c>
       <c r="E16">
-        <v>84.34</v>
+        <v>90.3</v>
       </c>
       <c r="F16">
-        <v>3.11</v>
+        <v>7.12</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -6580,45 +6581,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.81</v>
+        <v>6.55</v>
       </c>
       <c r="K16">
-        <v>7.59</v>
+        <v>8.98</v>
       </c>
       <c r="L16">
-        <v>9.65</v>
+        <v>11.07</v>
       </c>
       <c r="M16">
-        <v>11.69</v>
+        <v>12.89</v>
       </c>
       <c r="N16">
-        <v>14.38</v>
+        <v>15.58</v>
       </c>
       <c r="O16">
-        <v>26.23</v>
+        <v>26.74</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17">
-        <v>6.19</v>
+        <v>0.66</v>
       </c>
       <c r="C17">
-        <v>2.82</v>
+        <v>0.82</v>
       </c>
       <c r="D17">
-        <v>90.99</v>
+        <v>98.52</v>
       </c>
       <c r="E17">
-        <v>12.23</v>
+        <v>5.96</v>
       </c>
       <c r="F17">
-        <v>78.010000000000005</v>
+        <v>90.85</v>
       </c>
       <c r="G17">
-        <v>0.75</v>
+        <v>1.72</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -6627,45 +6628,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.65</v>
+        <v>14.18</v>
       </c>
       <c r="K17">
-        <v>17.64</v>
+        <v>20.14</v>
       </c>
       <c r="L17">
-        <v>21.52</v>
+        <v>23.34</v>
       </c>
       <c r="M17">
-        <v>24.37</v>
+        <v>26.1</v>
       </c>
       <c r="N17">
-        <v>27.67</v>
+        <v>28.75</v>
       </c>
       <c r="O17">
         <v>36.25</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18">
-        <v>9.94</v>
+        <v>0.92</v>
       </c>
       <c r="C18">
-        <v>3.18</v>
+        <v>1.17</v>
       </c>
       <c r="D18">
-        <v>86.88</v>
+        <v>97.91</v>
       </c>
       <c r="E18">
-        <v>7.02</v>
+        <v>4.04</v>
       </c>
       <c r="F18">
-        <v>48.46</v>
+        <v>44.07</v>
       </c>
       <c r="G18">
-        <v>31.4</v>
+        <v>49.81</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -6674,42 +6675,42 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.96</v>
+        <v>16.55</v>
       </c>
       <c r="K18">
-        <v>25.21</v>
+        <v>27.5</v>
       </c>
       <c r="L18">
-        <v>28.55</v>
+        <v>30.1</v>
       </c>
       <c r="M18">
-        <v>31.05</v>
+        <v>32.08</v>
       </c>
       <c r="N18">
-        <v>33.42</v>
+        <v>34.35</v>
       </c>
       <c r="O18">
         <v>40.630000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19">
-        <v>9.2200000000000006</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>3.48</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>87.3</v>
+        <v>98.5</v>
       </c>
       <c r="E19">
-        <v>18.75</v>
+        <v>11.03</v>
       </c>
       <c r="F19">
-        <v>68.55</v>
+        <v>87.47</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -6721,139 +6722,139 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.1199999999999992</v>
+        <v>11.72</v>
       </c>
       <c r="K19">
-        <v>15.76</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="L19">
-        <v>18.23</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="M19">
-        <v>20.53</v>
+        <v>21.66</v>
       </c>
       <c r="N19">
-        <v>23.11</v>
+        <v>24.04</v>
       </c>
       <c r="O19">
         <v>27.27</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>51</v>
       </c>
       <c r="B20">
-        <v>1.62</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>1.93</v>
+        <v>0.99</v>
       </c>
       <c r="D20">
-        <v>96.45</v>
+        <v>98.51</v>
       </c>
       <c r="E20">
-        <v>10.42</v>
+        <v>5.86</v>
       </c>
       <c r="F20">
-        <v>51.75</v>
+        <v>48.04</v>
       </c>
       <c r="G20">
-        <v>32.36</v>
+        <v>41.84</v>
       </c>
       <c r="H20">
-        <v>1.92</v>
+        <v>2.76</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J20">
-        <v>10.76</v>
+        <v>13.99</v>
       </c>
       <c r="K20">
-        <v>20.76</v>
+        <v>23.46</v>
       </c>
       <c r="L20">
-        <v>26.82</v>
+        <v>29.06</v>
       </c>
       <c r="M20">
-        <v>32.44</v>
+        <v>34.36</v>
       </c>
       <c r="N20">
-        <v>40.92</v>
+        <v>42.54</v>
       </c>
       <c r="O20">
-        <v>61.1</v>
+        <v>61.67</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>52</v>
       </c>
       <c r="B21">
-        <v>0.45</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C21">
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
       <c r="D21">
-        <v>98.9</v>
+        <v>99.72</v>
       </c>
       <c r="E21">
-        <v>9.91</v>
+        <v>4.43</v>
       </c>
       <c r="F21">
-        <v>70.930000000000007</v>
+        <v>69.69</v>
       </c>
       <c r="G21">
-        <v>17.88</v>
+        <v>25.31</v>
       </c>
       <c r="H21">
-        <v>0.18</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.18</v>
+        <v>15.45</v>
       </c>
       <c r="K21">
-        <v>18.98</v>
+        <v>21.5</v>
       </c>
       <c r="L21">
-        <v>23.53</v>
+        <v>25.73</v>
       </c>
       <c r="M21">
-        <v>28.24</v>
+        <v>30.18</v>
       </c>
       <c r="N21">
-        <v>35.15</v>
+        <v>36.770000000000003</v>
       </c>
       <c r="O21">
-        <v>53.85</v>
+        <v>53.97</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>56</v>
       </c>
       <c r="B22">
-        <v>4.8499999999999996</v>
+        <v>0.31</v>
       </c>
       <c r="C22">
-        <v>7.51</v>
+        <v>2.5</v>
       </c>
       <c r="D22">
-        <v>87.64</v>
+        <v>97.19</v>
       </c>
       <c r="E22">
-        <v>22.42</v>
+        <v>12.98</v>
       </c>
       <c r="F22">
-        <v>65.14</v>
+        <v>83.86</v>
       </c>
       <c r="G22">
-        <v>0.08</v>
+        <v>0.34</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -6862,42 +6863,42 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.08</v>
+        <v>9.68</v>
       </c>
       <c r="K22">
-        <v>14.84</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="L22">
-        <v>18.350000000000001</v>
+        <v>20.48</v>
       </c>
       <c r="M22">
-        <v>21.21</v>
+        <v>22.64</v>
       </c>
       <c r="N22">
-        <v>24.34</v>
+        <v>25.71</v>
       </c>
       <c r="O22">
         <v>36.24</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>57</v>
       </c>
       <c r="B23">
-        <v>26.81</v>
+        <v>1.45</v>
       </c>
       <c r="C23">
-        <v>33.119999999999997</v>
+        <v>26.3</v>
       </c>
       <c r="D23">
-        <v>40.07</v>
+        <v>72.25</v>
       </c>
       <c r="E23">
-        <v>40.07</v>
+        <v>72.22</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -6909,42 +6910,42 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.24</v>
+        <v>5.31</v>
       </c>
       <c r="K23">
-        <v>5.76</v>
+        <v>6.09</v>
       </c>
       <c r="L23">
-        <v>6.4</v>
+        <v>6.93</v>
       </c>
       <c r="M23">
-        <v>7.38</v>
+        <v>8.06</v>
       </c>
       <c r="N23">
-        <v>9.68</v>
+        <v>10.66</v>
       </c>
       <c r="O23">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>65</v>
       </c>
       <c r="B24">
-        <v>13.05</v>
+        <v>0.44</v>
       </c>
       <c r="C24">
-        <v>17.010000000000002</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="D24">
-        <v>69.930000000000007</v>
+        <v>94.45</v>
       </c>
       <c r="E24">
-        <v>69.930000000000007</v>
+        <v>94.44</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -6956,92 +6957,92 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.41</v>
+        <v>5.89</v>
       </c>
       <c r="K24">
-        <v>6.14</v>
+        <v>6.97</v>
       </c>
       <c r="L24">
-        <v>6.93</v>
+        <v>7.96</v>
       </c>
       <c r="M24">
-        <v>8.02</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="N24">
-        <v>10.28</v>
+        <v>11.47</v>
       </c>
       <c r="O24">
         <v>15.49</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>58</v>
       </c>
       <c r="B25">
-        <v>12.57</v>
+        <v>3.4</v>
       </c>
       <c r="C25">
-        <v>4.82</v>
+        <v>3.45</v>
       </c>
       <c r="D25">
-        <v>82.61</v>
+        <v>93.15</v>
       </c>
       <c r="E25">
-        <v>9.9600000000000009</v>
+        <v>7.81</v>
       </c>
       <c r="F25">
-        <v>22.78</v>
+        <v>20.43</v>
       </c>
       <c r="G25">
-        <v>26.61</v>
+        <v>31.22</v>
       </c>
       <c r="H25">
-        <v>13.75</v>
+        <v>19.03</v>
       </c>
       <c r="I25">
-        <v>9.51</v>
+        <v>14.65</v>
       </c>
       <c r="J25">
-        <v>8.93</v>
+        <v>11.03</v>
       </c>
       <c r="K25">
-        <v>23.37</v>
+        <v>27.44</v>
       </c>
       <c r="L25">
-        <v>34.24</v>
+        <v>38.61</v>
       </c>
       <c r="M25">
-        <v>47.33</v>
+        <v>52.23</v>
       </c>
       <c r="N25">
-        <v>68.239999999999995</v>
+        <v>71.42</v>
       </c>
       <c r="O25">
         <v>90.16</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>67</v>
       </c>
       <c r="B26">
-        <v>39.619999999999997</v>
+        <v>22.68</v>
       </c>
       <c r="C26">
-        <v>4.49</v>
+        <v>5.03</v>
       </c>
       <c r="D26">
-        <v>55.89</v>
+        <v>72.290000000000006</v>
       </c>
       <c r="E26">
-        <v>11.1</v>
+        <v>12.1</v>
       </c>
       <c r="F26">
-        <v>42.44</v>
+        <v>55.52</v>
       </c>
       <c r="G26">
-        <v>2.35</v>
+        <v>4.66</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -7050,39 +7051,39 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>7.5</v>
+        <v>7.94</v>
       </c>
       <c r="K26">
-        <v>16.93</v>
+        <v>18.48</v>
       </c>
       <c r="L26">
-        <v>22.49</v>
+        <v>23.62</v>
       </c>
       <c r="M26">
-        <v>26.17</v>
+        <v>26.97</v>
       </c>
       <c r="N26">
-        <v>29.71</v>
+        <v>30.39</v>
       </c>
       <c r="O26">
         <v>36.28</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>73</v>
       </c>
       <c r="B27">
-        <v>88.16</v>
+        <v>74.760000000000005</v>
       </c>
       <c r="C27">
-        <v>11.37</v>
+        <v>23.58</v>
       </c>
       <c r="D27">
-        <v>0.47</v>
+        <v>1.66</v>
       </c>
       <c r="E27">
-        <v>0.47</v>
+        <v>1.66</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -7100,42 +7101,42 @@
         <v>5.08</v>
       </c>
       <c r="K27">
-        <v>5.32</v>
+        <v>5.39</v>
       </c>
       <c r="L27">
-        <v>5.64</v>
+        <v>5.71</v>
       </c>
       <c r="M27">
-        <v>6.22</v>
+        <v>6.43</v>
       </c>
       <c r="N27">
-        <v>6.94</v>
+        <v>7.21</v>
       </c>
       <c r="O27">
         <v>7.55</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>74</v>
       </c>
       <c r="B28">
-        <v>19.920000000000002</v>
+        <v>2.75</v>
       </c>
       <c r="C28">
-        <v>8.32</v>
+        <v>3.79</v>
       </c>
       <c r="D28">
-        <v>71.75</v>
+        <v>93.46</v>
       </c>
       <c r="E28">
-        <v>52.54</v>
+        <v>50.31</v>
       </c>
       <c r="F28">
-        <v>19.12</v>
+        <v>42.87</v>
       </c>
       <c r="G28">
-        <v>0.1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -7144,42 +7145,42 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>6.41</v>
+        <v>7.71</v>
       </c>
       <c r="K28">
-        <v>9.86</v>
+        <v>12.09</v>
       </c>
       <c r="L28">
-        <v>12.56</v>
+        <v>14.62</v>
       </c>
       <c r="M28">
-        <v>15.28</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="N28">
-        <v>19.420000000000002</v>
+        <v>21.6</v>
       </c>
       <c r="O28">
         <v>36.36</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>75</v>
       </c>
       <c r="B29">
-        <v>26.65</v>
+        <v>5.43</v>
       </c>
       <c r="C29">
-        <v>12.18</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="D29">
-        <v>61.16</v>
+        <v>86.35</v>
       </c>
       <c r="E29">
-        <v>55.88</v>
+        <v>70.48</v>
       </c>
       <c r="F29">
-        <v>5.28</v>
+        <v>15.87</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -7191,89 +7192,89 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>5.77</v>
+        <v>6.25</v>
       </c>
       <c r="K29">
-        <v>7.86</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="L29">
-        <v>10.52</v>
+        <v>12.03</v>
       </c>
       <c r="M29">
-        <v>12.55</v>
+        <v>14.21</v>
       </c>
       <c r="N29">
-        <v>16.309999999999999</v>
+        <v>18.21</v>
       </c>
       <c r="O29">
         <v>29.4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>76</v>
       </c>
       <c r="B30">
-        <v>2.4500000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="C30">
-        <v>4.05</v>
+        <v>1.2</v>
       </c>
       <c r="D30">
-        <v>93.5</v>
+        <v>98.68</v>
       </c>
       <c r="E30">
-        <v>12.44</v>
+        <v>6.77</v>
       </c>
       <c r="F30">
-        <v>51.69</v>
+        <v>49.28</v>
       </c>
       <c r="G30">
-        <v>29.02</v>
+        <v>41.89</v>
       </c>
       <c r="H30">
-        <v>0.35</v>
+        <v>0.74</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>9.16</v>
+        <v>13.18</v>
       </c>
       <c r="K30">
-        <v>20.45</v>
+        <v>23.92</v>
       </c>
       <c r="L30">
-        <v>26.51</v>
+        <v>28.84</v>
       </c>
       <c r="M30">
-        <v>31.37</v>
+        <v>33.35</v>
       </c>
       <c r="N30">
-        <v>37.869999999999997</v>
+        <v>39.72</v>
       </c>
       <c r="O30">
         <v>54.13</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>77</v>
       </c>
       <c r="B31">
-        <v>5.0599999999999996</v>
+        <v>1.67</v>
       </c>
       <c r="C31">
-        <v>86.61</v>
+        <v>82.12</v>
       </c>
       <c r="D31">
-        <v>8.34</v>
+        <v>16.21</v>
       </c>
       <c r="E31">
-        <v>7.6</v>
+        <v>14.99</v>
       </c>
       <c r="F31">
-        <v>0.74</v>
+        <v>1.23</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -7285,92 +7286,92 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>5.13</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K31">
-        <v>5.74</v>
+        <v>5.68</v>
       </c>
       <c r="L31">
-        <v>7.08</v>
+        <v>6.81</v>
       </c>
       <c r="M31">
-        <v>10.67</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="N31">
-        <v>17.170000000000002</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="O31">
-        <v>20.28</v>
+        <v>24.59</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>78</v>
       </c>
       <c r="B32">
-        <v>1.77</v>
+        <v>0.08</v>
       </c>
       <c r="C32">
-        <v>5.08</v>
+        <v>1.65</v>
       </c>
       <c r="D32">
-        <v>93.16</v>
+        <v>98.27</v>
       </c>
       <c r="E32">
-        <v>18.27</v>
+        <v>11.22</v>
       </c>
       <c r="F32">
-        <v>66.319999999999993</v>
+        <v>72.08</v>
       </c>
       <c r="G32">
-        <v>8.56</v>
+        <v>14.97</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>8.01</v>
+        <v>10.79</v>
       </c>
       <c r="K32">
-        <v>16.62</v>
+        <v>19.54</v>
       </c>
       <c r="L32">
-        <v>21.91</v>
+        <v>24.16</v>
       </c>
       <c r="M32">
-        <v>26.17</v>
+        <v>28.01</v>
       </c>
       <c r="N32">
-        <v>31.85</v>
+        <v>33.53</v>
       </c>
       <c r="O32">
-        <v>54.85</v>
+        <v>46.36</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>79</v>
       </c>
       <c r="B33">
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="D33">
-        <v>98.81</v>
+        <v>99.83</v>
       </c>
       <c r="E33">
-        <v>31.47</v>
+        <v>23.76</v>
       </c>
       <c r="F33">
-        <v>66.3</v>
+        <v>74.16</v>
       </c>
       <c r="G33">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -7379,68 +7380,3217 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>8.11</v>
+        <v>10.09</v>
       </c>
       <c r="K33">
-        <v>13.34</v>
+        <v>15.33</v>
       </c>
       <c r="L33">
-        <v>17.98</v>
+        <v>19.82</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>23.44</v>
       </c>
       <c r="N33">
-        <v>26.82</v>
+        <v>28.06</v>
       </c>
       <c r="O33">
         <v>38.450000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>80</v>
       </c>
       <c r="B34">
+        <v>0.02</v>
+      </c>
+      <c r="C34">
+        <v>1.54</v>
+      </c>
+      <c r="D34">
+        <v>98.44</v>
+      </c>
+      <c r="E34">
+        <v>93.35</v>
+      </c>
+      <c r="F34">
+        <v>5.09</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>6.47</v>
+      </c>
+      <c r="K34">
+        <v>8.52</v>
+      </c>
+      <c r="L34">
+        <v>10.3</v>
+      </c>
+      <c r="M34">
+        <v>11.81</v>
+      </c>
+      <c r="N34">
+        <v>15.07</v>
+      </c>
+      <c r="O34">
+        <v>19.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:P34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:32">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0.03</v>
+      </c>
+      <c r="D2">
+        <v>0.04</v>
+      </c>
+      <c r="E2">
+        <v>99.93</v>
+      </c>
+      <c r="F2">
+        <v>0.09</v>
+      </c>
+      <c r="G2">
+        <v>77.8</v>
+      </c>
+      <c r="H2">
+        <v>22.04</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>23.84</v>
+      </c>
+      <c r="L2">
+        <v>26.67</v>
+      </c>
+      <c r="M2">
+        <v>28.22</v>
+      </c>
+      <c r="N2">
+        <v>29.73</v>
+      </c>
+      <c r="O2">
+        <v>31.7</v>
+      </c>
+      <c r="P2">
+        <v>37.32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2">
+        <v>0.3</v>
+      </c>
+      <c r="T2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U2">
+        <v>99.62</v>
+      </c>
+      <c r="V2">
+        <v>0.25</v>
+      </c>
+      <c r="W2">
+        <v>84.82</v>
+      </c>
+      <c r="X2">
+        <v>14.56</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>22.31</v>
+      </c>
+      <c r="AB2">
+        <v>25.81</v>
+      </c>
+      <c r="AC2">
+        <v>27.26</v>
+      </c>
+      <c r="AD2">
+        <v>28.87</v>
+      </c>
+      <c r="AE2">
+        <v>31.07</v>
+      </c>
+      <c r="AF2">
+        <v>37.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0.18</v>
+      </c>
+      <c r="D3">
+        <v>0.04</v>
+      </c>
+      <c r="E3">
+        <v>99.77</v>
+      </c>
+      <c r="F3">
+        <v>11.34</v>
+      </c>
+      <c r="G3">
+        <v>88.43</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>12.77</v>
+      </c>
+      <c r="L3">
+        <v>17.18</v>
+      </c>
+      <c r="M3">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="N3">
+        <v>20.97</v>
+      </c>
+      <c r="O3">
+        <v>22.84</v>
+      </c>
+      <c r="P3">
+        <v>28.63</v>
+      </c>
+      <c r="R3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3">
+        <v>0.38</v>
+      </c>
+      <c r="T3">
+        <v>0.08</v>
+      </c>
+      <c r="U3">
+        <v>99.54</v>
+      </c>
+      <c r="V3">
+        <v>15.16</v>
+      </c>
+      <c r="W3">
+        <v>84.38</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>11.57</v>
+      </c>
+      <c r="AB3">
+        <v>16.18</v>
+      </c>
+      <c r="AC3">
+        <v>18.2</v>
+      </c>
+      <c r="AD3">
+        <v>20.39</v>
+      </c>
+      <c r="AE3">
+        <v>22.19</v>
+      </c>
+      <c r="AF3">
+        <v>28.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3.73</v>
+      </c>
+      <c r="E4">
+        <v>96.27</v>
+      </c>
+      <c r="F4">
+        <v>96.27</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>5.99</v>
+      </c>
+      <c r="L4">
+        <v>7.32</v>
+      </c>
+      <c r="M4">
+        <v>8.41</v>
+      </c>
+      <c r="N4">
+        <v>10.11</v>
+      </c>
+      <c r="O4">
+        <v>12.14</v>
+      </c>
+      <c r="P4">
+        <v>14.04</v>
+      </c>
+      <c r="R4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>5.48</v>
+      </c>
+      <c r="T4">
+        <v>12.77</v>
+      </c>
+      <c r="U4">
+        <v>81.75</v>
+      </c>
+      <c r="V4">
+        <v>81.75</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>5.58</v>
+      </c>
+      <c r="AB4">
+        <v>6.55</v>
+      </c>
+      <c r="AC4">
+        <v>7.56</v>
+      </c>
+      <c r="AD4">
+        <v>8.99</v>
+      </c>
+      <c r="AE4">
+        <v>11.29</v>
+      </c>
+      <c r="AF4">
+        <v>14.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>22.07</v>
+      </c>
+      <c r="D5">
+        <v>69.41</v>
+      </c>
+      <c r="E5">
+        <v>8.52</v>
+      </c>
+      <c r="F5">
+        <v>8.52</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>5.28</v>
+      </c>
+      <c r="L5">
+        <v>6.12</v>
+      </c>
+      <c r="M5">
+        <v>6.96</v>
+      </c>
+      <c r="N5">
+        <v>7.8</v>
+      </c>
+      <c r="O5">
+        <v>8.9</v>
+      </c>
+      <c r="P5">
+        <v>13.1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5">
+        <v>43.86</v>
+      </c>
+      <c r="T5">
+        <v>50.75</v>
+      </c>
+      <c r="U5">
+        <v>5.39</v>
+      </c>
+      <c r="V5">
+        <v>5.39</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>5.24</v>
+      </c>
+      <c r="AB5">
+        <v>5.87</v>
+      </c>
+      <c r="AC5">
+        <v>6.54</v>
+      </c>
+      <c r="AD5">
+        <v>7.36</v>
+      </c>
+      <c r="AE5">
+        <v>8.49</v>
+      </c>
+      <c r="AF5">
+        <v>13.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D6">
+        <v>3.83</v>
+      </c>
+      <c r="E6">
+        <v>93.99</v>
+      </c>
+      <c r="F6">
+        <v>93.99</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>6.13</v>
+      </c>
+      <c r="L6">
+        <v>7.21</v>
+      </c>
+      <c r="M6">
+        <v>7.8</v>
+      </c>
+      <c r="N6">
+        <v>8.33</v>
+      </c>
+      <c r="O6">
+        <v>9.08</v>
+      </c>
+      <c r="P6">
+        <v>12.47</v>
+      </c>
+      <c r="R6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6">
+        <v>7.8</v>
+      </c>
+      <c r="T6">
+        <v>7.2</v>
+      </c>
+      <c r="U6">
+        <v>85</v>
+      </c>
+      <c r="V6">
+        <v>85</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>5.62</v>
+      </c>
+      <c r="AB6">
+        <v>6.47</v>
+      </c>
+      <c r="AC6">
+        <v>7.1</v>
+      </c>
+      <c r="AD6">
+        <v>7.7</v>
+      </c>
+      <c r="AE6">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="AF6">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.02</v>
+      </c>
+      <c r="E7">
+        <v>99.98</v>
+      </c>
+      <c r="F7">
+        <v>0.19</v>
+      </c>
+      <c r="G7">
+        <v>88.13</v>
+      </c>
+      <c r="H7">
+        <v>11.66</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>22.6</v>
+      </c>
+      <c r="L7">
+        <v>25.87</v>
+      </c>
+      <c r="M7">
+        <v>27.45</v>
+      </c>
+      <c r="N7">
+        <v>28.78</v>
+      </c>
+      <c r="O7">
+        <v>31.8</v>
+      </c>
+      <c r="P7">
+        <v>41.73</v>
+      </c>
+      <c r="R7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7">
+        <v>0.23</v>
+      </c>
+      <c r="T7">
+        <v>0.1</v>
+      </c>
+      <c r="U7">
+        <v>99.67</v>
+      </c>
+      <c r="V7">
+        <v>0.87</v>
+      </c>
+      <c r="W7">
+        <v>92.86</v>
+      </c>
+      <c r="X7">
+        <v>5.94</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>20.52</v>
+      </c>
+      <c r="AB7">
+        <v>24.19</v>
+      </c>
+      <c r="AC7">
+        <v>26.26</v>
+      </c>
+      <c r="AD7">
+        <v>27.74</v>
+      </c>
+      <c r="AE7">
+        <v>30.32</v>
+      </c>
+      <c r="AF7">
+        <v>40.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>0.12</v>
+      </c>
+      <c r="D8">
+        <v>0.19</v>
+      </c>
+      <c r="E8">
+        <v>99.68</v>
+      </c>
+      <c r="F8">
+        <v>0.52</v>
+      </c>
+      <c r="G8">
+        <v>28.25</v>
+      </c>
+      <c r="H8">
+        <v>66.81</v>
+      </c>
+      <c r="I8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>23.49</v>
+      </c>
+      <c r="L8">
+        <v>29.27</v>
+      </c>
+      <c r="M8">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="N8">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="O8">
+        <v>44.61</v>
+      </c>
+      <c r="P8">
+        <v>50.19</v>
+      </c>
+      <c r="R8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8">
+        <v>0.92</v>
+      </c>
+      <c r="T8">
+        <v>0.4</v>
+      </c>
+      <c r="U8">
+        <v>98.68</v>
+      </c>
+      <c r="V8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W8">
+        <v>44.11</v>
+      </c>
+      <c r="X8">
+        <v>50.88</v>
+      </c>
+      <c r="Y8">
+        <v>1.48</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>18.91</v>
+      </c>
+      <c r="AB8">
+        <v>26.19</v>
+      </c>
+      <c r="AC8">
+        <v>30.62</v>
+      </c>
+      <c r="AD8">
+        <v>36.25</v>
+      </c>
+      <c r="AE8">
+        <v>42.57</v>
+      </c>
+      <c r="AF8">
+        <v>50.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>0.21</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>99.29</v>
+      </c>
+      <c r="F9">
+        <v>2.79</v>
+      </c>
+      <c r="G9">
+        <v>45.93</v>
+      </c>
+      <c r="H9">
+        <v>50.57</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="L9">
+        <v>26.54</v>
+      </c>
+      <c r="M9">
+        <v>30.13</v>
+      </c>
+      <c r="N9">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="O9">
+        <v>35.35</v>
+      </c>
+      <c r="P9">
+        <v>43.13</v>
+      </c>
+      <c r="R9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9">
+        <v>1.83</v>
+      </c>
+      <c r="T9">
+        <v>1.22</v>
+      </c>
+      <c r="U9">
+        <v>96.95</v>
+      </c>
+      <c r="V9">
+        <v>5.81</v>
+      </c>
+      <c r="W9">
+        <v>53.63</v>
+      </c>
+      <c r="X9">
+        <v>37.51</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>13.79</v>
+      </c>
+      <c r="AB9">
+        <v>23.99</v>
+      </c>
+      <c r="AC9">
+        <v>28.46</v>
+      </c>
+      <c r="AD9">
+        <v>31.51</v>
+      </c>
+      <c r="AE9">
+        <v>34.53</v>
+      </c>
+      <c r="AF9">
+        <v>43.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0.51</v>
+      </c>
+      <c r="D10">
+        <v>0.78</v>
+      </c>
+      <c r="E10">
+        <v>98.71</v>
+      </c>
+      <c r="F10">
+        <v>3.81</v>
+      </c>
+      <c r="G10">
+        <v>33.9</v>
+      </c>
+      <c r="H10">
+        <v>61</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="L10">
+        <v>28.39</v>
+      </c>
+      <c r="M10">
+        <v>31.07</v>
+      </c>
+      <c r="N10">
+        <v>32.86</v>
+      </c>
+      <c r="O10">
+        <v>35.56</v>
+      </c>
+      <c r="P10">
+        <v>44.89</v>
+      </c>
+      <c r="R10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10">
+        <v>3.38</v>
+      </c>
+      <c r="T10">
+        <v>1.87</v>
+      </c>
+      <c r="U10">
+        <v>94.75</v>
+      </c>
+      <c r="V10">
+        <v>5.94</v>
+      </c>
+      <c r="W10">
+        <v>43.7</v>
+      </c>
+      <c r="X10">
+        <v>45.11</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>12.99</v>
+      </c>
+      <c r="AB10">
+        <v>26.52</v>
+      </c>
+      <c r="AC10">
+        <v>29.65</v>
+      </c>
+      <c r="AD10">
+        <v>31.83</v>
+      </c>
+      <c r="AE10">
+        <v>34.5</v>
+      </c>
+      <c r="AF10">
+        <v>44.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>0.22</v>
+      </c>
+      <c r="D11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E11">
+        <v>99.23</v>
+      </c>
+      <c r="F11">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G11">
+        <v>12.73</v>
+      </c>
+      <c r="H11">
+        <v>42.39</v>
+      </c>
+      <c r="I11">
+        <v>37.630000000000003</v>
+      </c>
+      <c r="J11">
+        <v>4.22</v>
+      </c>
+      <c r="K11">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="L11">
+        <v>35.159999999999997</v>
+      </c>
+      <c r="M11">
+        <v>42.94</v>
+      </c>
+      <c r="N11">
+        <v>49.61</v>
+      </c>
+      <c r="O11">
+        <v>59.2</v>
+      </c>
+      <c r="P11">
+        <v>78.150000000000006</v>
+      </c>
+      <c r="R11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11">
+        <v>1.36</v>
+      </c>
+      <c r="T11">
+        <v>1.36</v>
+      </c>
+      <c r="U11">
+        <v>97.28</v>
+      </c>
+      <c r="V11">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="W11">
+        <v>18.03</v>
+      </c>
+      <c r="X11">
+        <v>43.92</v>
+      </c>
+      <c r="Y11">
+        <v>28.16</v>
+      </c>
+      <c r="Z11">
+        <v>2.52</v>
+      </c>
+      <c r="AA11">
+        <v>15.38</v>
+      </c>
+      <c r="AB11">
+        <v>30.94</v>
+      </c>
+      <c r="AC11">
+        <v>39.47</v>
+      </c>
+      <c r="AD11">
+        <v>46.99</v>
+      </c>
+      <c r="AE11">
+        <v>56.81</v>
+      </c>
+      <c r="AF11">
+        <v>78.150000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <v>0.86</v>
+      </c>
+      <c r="E12">
+        <v>99.04</v>
+      </c>
+      <c r="F12">
+        <v>6.17</v>
+      </c>
+      <c r="G12">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="H12">
+        <v>51</v>
+      </c>
+      <c r="I12">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>13.66</v>
+      </c>
+      <c r="L12">
+        <v>25.53</v>
+      </c>
+      <c r="M12">
+        <v>30.77</v>
+      </c>
+      <c r="N12">
+        <v>35.53</v>
+      </c>
+      <c r="O12">
+        <v>42.67</v>
+      </c>
+      <c r="P12">
+        <v>55.52</v>
+      </c>
+      <c r="R12" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12">
+        <v>1.97</v>
+      </c>
+      <c r="T12">
+        <v>2.99</v>
+      </c>
+      <c r="U12">
+        <v>95.04</v>
+      </c>
+      <c r="V12">
+        <v>11.46</v>
+      </c>
+      <c r="W12">
+        <v>43.63</v>
+      </c>
+      <c r="X12">
+        <v>38.76</v>
+      </c>
+      <c r="Y12">
+        <v>1.19</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="AB12">
+        <v>21.82</v>
+      </c>
+      <c r="AC12">
+        <v>28.24</v>
+      </c>
+      <c r="AD12">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="AE12">
+        <v>40.770000000000003</v>
+      </c>
+      <c r="AF12">
+        <v>55.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="D13">
+        <v>55.55</v>
+      </c>
+      <c r="E13">
+        <v>24.1</v>
+      </c>
+      <c r="F13">
+        <v>24.1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L13">
+        <v>5.46</v>
+      </c>
+      <c r="M13">
+        <v>5.99</v>
+      </c>
+      <c r="N13">
+        <v>6.87</v>
+      </c>
+      <c r="O13">
+        <v>8.89</v>
+      </c>
+      <c r="P13">
+        <v>13.07</v>
+      </c>
+      <c r="R13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13">
+        <v>27.71</v>
+      </c>
+      <c r="T13">
+        <v>58.94</v>
+      </c>
+      <c r="U13">
+        <v>13.36</v>
+      </c>
+      <c r="V13">
+        <v>13.36</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>5.09</v>
+      </c>
+      <c r="AB13">
+        <v>5.33</v>
+      </c>
+      <c r="AC13">
+        <v>5.71</v>
+      </c>
+      <c r="AD13">
+        <v>6.5</v>
+      </c>
+      <c r="AE13">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="AF13">
+        <v>12.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>0.01</v>
+      </c>
+      <c r="D14">
+        <v>0.25</v>
+      </c>
+      <c r="E14">
+        <v>99.73</v>
+      </c>
+      <c r="F14">
+        <v>17.43</v>
+      </c>
+      <c r="G14">
+        <v>70.53</v>
+      </c>
+      <c r="H14">
+        <v>11.77</v>
+      </c>
+      <c r="I14">
+        <v>0.01</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>10.66</v>
+      </c>
+      <c r="L14">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M14">
+        <v>22.39</v>
+      </c>
+      <c r="N14">
+        <v>26.93</v>
+      </c>
+      <c r="O14">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="P14">
+        <v>46.91</v>
+      </c>
+      <c r="R14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="T14">
+        <v>1.7</v>
+      </c>
+      <c r="U14">
+        <v>98.02</v>
+      </c>
+      <c r="V14">
+        <v>24.42</v>
+      </c>
+      <c r="W14">
+        <v>65.92</v>
+      </c>
+      <c r="X14">
+        <v>7.67</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="AB14">
+        <v>15.03</v>
+      </c>
+      <c r="AC14">
+        <v>20.66</v>
+      </c>
+      <c r="AD14">
+        <v>25.48</v>
+      </c>
+      <c r="AE14">
+        <v>31.32</v>
+      </c>
+      <c r="AF14">
+        <v>46.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>0.04</v>
+      </c>
+      <c r="D15">
+        <v>0.08</v>
+      </c>
+      <c r="E15">
+        <v>99.88</v>
+      </c>
+      <c r="F15">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G15">
+        <v>25.32</v>
+      </c>
+      <c r="H15">
+        <v>73.12</v>
+      </c>
+      <c r="I15">
+        <v>0.87</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>24.12</v>
+      </c>
+      <c r="L15">
+        <v>29.81</v>
+      </c>
+      <c r="M15">
+        <v>33.159999999999997</v>
+      </c>
+      <c r="N15">
+        <v>36.03</v>
+      </c>
+      <c r="O15">
+        <v>39.97</v>
+      </c>
+      <c r="P15">
+        <v>51.83</v>
+      </c>
+      <c r="R15" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15">
+        <v>0.39</v>
+      </c>
+      <c r="T15">
+        <v>0.39</v>
+      </c>
+      <c r="U15">
+        <v>99.21</v>
+      </c>
+      <c r="V15">
+        <v>1.99</v>
+      </c>
+      <c r="W15">
+        <v>38.96</v>
+      </c>
+      <c r="X15">
+        <v>57.82</v>
+      </c>
+      <c r="Y15">
+        <v>0.45</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="AB15">
+        <v>27.2</v>
+      </c>
+      <c r="AC15">
+        <v>31.23</v>
+      </c>
+      <c r="AD15">
+        <v>34.19</v>
+      </c>
+      <c r="AE15">
+        <v>38.369999999999997</v>
+      </c>
+      <c r="AF15">
+        <v>51.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>0.01</v>
+      </c>
+      <c r="D16">
+        <v>2.58</v>
+      </c>
+      <c r="E16">
+        <v>97.41</v>
+      </c>
+      <c r="F16">
+        <v>90.3</v>
+      </c>
+      <c r="G16">
+        <v>7.12</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>6.55</v>
+      </c>
+      <c r="L16">
+        <v>8.98</v>
+      </c>
+      <c r="M16">
+        <v>11.07</v>
+      </c>
+      <c r="N16">
+        <v>12.89</v>
+      </c>
+      <c r="O16">
+        <v>15.58</v>
+      </c>
+      <c r="P16">
+        <v>26.74</v>
+      </c>
+      <c r="R16" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16">
+        <v>0.66</v>
+      </c>
+      <c r="T16">
+        <v>11.89</v>
+      </c>
+      <c r="U16">
+        <v>87.45</v>
+      </c>
+      <c r="V16">
+        <v>84.34</v>
+      </c>
+      <c r="W16">
+        <v>3.11</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>5.81</v>
+      </c>
+      <c r="AB16">
+        <v>7.59</v>
+      </c>
+      <c r="AC16">
+        <v>9.65</v>
+      </c>
+      <c r="AD16">
+        <v>11.69</v>
+      </c>
+      <c r="AE16">
+        <v>14.38</v>
+      </c>
+      <c r="AF16">
+        <v>26.23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>0.66</v>
+      </c>
+      <c r="D17">
+        <v>0.82</v>
+      </c>
+      <c r="E17">
+        <v>98.52</v>
+      </c>
+      <c r="F17">
+        <v>5.96</v>
+      </c>
+      <c r="G17">
+        <v>90.85</v>
+      </c>
+      <c r="H17">
+        <v>1.72</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>14.18</v>
+      </c>
+      <c r="L17">
+        <v>20.14</v>
+      </c>
+      <c r="M17">
+        <v>23.34</v>
+      </c>
+      <c r="N17">
+        <v>26.1</v>
+      </c>
+      <c r="O17">
+        <v>28.75</v>
+      </c>
+      <c r="P17">
+        <v>36.25</v>
+      </c>
+      <c r="R17" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17">
+        <v>6.19</v>
+      </c>
+      <c r="T17">
+        <v>2.82</v>
+      </c>
+      <c r="U17">
+        <v>90.99</v>
+      </c>
+      <c r="V17">
+        <v>12.23</v>
+      </c>
+      <c r="W17">
+        <v>78.010000000000005</v>
+      </c>
+      <c r="X17">
+        <v>0.75</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>10.65</v>
+      </c>
+      <c r="AB17">
+        <v>17.64</v>
+      </c>
+      <c r="AC17">
+        <v>21.52</v>
+      </c>
+      <c r="AD17">
+        <v>24.37</v>
+      </c>
+      <c r="AE17">
+        <v>27.67</v>
+      </c>
+      <c r="AF17">
+        <v>36.25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>0.92</v>
+      </c>
+      <c r="D18">
+        <v>1.17</v>
+      </c>
+      <c r="E18">
+        <v>97.91</v>
+      </c>
+      <c r="F18">
+        <v>4.04</v>
+      </c>
+      <c r="G18">
+        <v>44.07</v>
+      </c>
+      <c r="H18">
+        <v>49.81</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>16.55</v>
+      </c>
+      <c r="L18">
+        <v>27.5</v>
+      </c>
+      <c r="M18">
+        <v>30.1</v>
+      </c>
+      <c r="N18">
+        <v>32.08</v>
+      </c>
+      <c r="O18">
+        <v>34.35</v>
+      </c>
+      <c r="P18">
+        <v>40.630000000000003</v>
+      </c>
+      <c r="R18" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18">
+        <v>9.94</v>
+      </c>
+      <c r="T18">
+        <v>3.18</v>
+      </c>
+      <c r="U18">
+        <v>86.88</v>
+      </c>
+      <c r="V18">
+        <v>7.02</v>
+      </c>
+      <c r="W18">
+        <v>48.46</v>
+      </c>
+      <c r="X18">
+        <v>31.4</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>10.96</v>
+      </c>
+      <c r="AB18">
+        <v>25.21</v>
+      </c>
+      <c r="AC18">
+        <v>28.55</v>
+      </c>
+      <c r="AD18">
+        <v>31.05</v>
+      </c>
+      <c r="AE18">
+        <v>33.42</v>
+      </c>
+      <c r="AF18">
+        <v>40.630000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>98.5</v>
+      </c>
+      <c r="F19">
+        <v>11.03</v>
+      </c>
+      <c r="G19">
+        <v>87.47</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>11.72</v>
+      </c>
+      <c r="L19">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="M19">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="N19">
+        <v>21.66</v>
+      </c>
+      <c r="O19">
+        <v>24.04</v>
+      </c>
+      <c r="P19">
+        <v>27.27</v>
+      </c>
+      <c r="R19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="T19">
+        <v>3.48</v>
+      </c>
+      <c r="U19">
+        <v>87.3</v>
+      </c>
+      <c r="V19">
+        <v>18.75</v>
+      </c>
+      <c r="W19">
+        <v>68.55</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="AB19">
+        <v>15.76</v>
+      </c>
+      <c r="AC19">
+        <v>18.23</v>
+      </c>
+      <c r="AD19">
+        <v>20.53</v>
+      </c>
+      <c r="AE19">
+        <v>23.11</v>
+      </c>
+      <c r="AF19">
+        <v>27.27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+      <c r="D20">
+        <v>0.99</v>
+      </c>
+      <c r="E20">
+        <v>98.51</v>
+      </c>
+      <c r="F20">
+        <v>5.86</v>
+      </c>
+      <c r="G20">
+        <v>48.04</v>
+      </c>
+      <c r="H20">
+        <v>41.84</v>
+      </c>
+      <c r="I20">
+        <v>2.76</v>
+      </c>
+      <c r="J20">
+        <v>0.01</v>
+      </c>
+      <c r="K20">
+        <v>13.99</v>
+      </c>
+      <c r="L20">
+        <v>23.46</v>
+      </c>
+      <c r="M20">
+        <v>29.06</v>
+      </c>
+      <c r="N20">
+        <v>34.36</v>
+      </c>
+      <c r="O20">
+        <v>42.54</v>
+      </c>
+      <c r="P20">
+        <v>61.67</v>
+      </c>
+      <c r="R20" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20">
+        <v>1.62</v>
+      </c>
+      <c r="T20">
+        <v>1.92</v>
+      </c>
+      <c r="U20">
+        <v>96.46</v>
+      </c>
+      <c r="V20">
+        <v>10.38</v>
+      </c>
+      <c r="W20">
+        <v>51.7</v>
+      </c>
+      <c r="X20">
+        <v>32.44</v>
+      </c>
+      <c r="Y20">
+        <v>1.93</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>10.77</v>
+      </c>
+      <c r="AB20">
+        <v>20.77</v>
+      </c>
+      <c r="AC20">
+        <v>26.84</v>
+      </c>
+      <c r="AD20">
+        <v>32.47</v>
+      </c>
+      <c r="AE20">
+        <v>40.97</v>
+      </c>
+      <c r="AF20">
+        <v>61.67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32">
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.22</v>
+      </c>
+      <c r="E21">
+        <v>99.72</v>
+      </c>
+      <c r="F21">
+        <v>4.43</v>
+      </c>
+      <c r="G21">
+        <v>69.69</v>
+      </c>
+      <c r="H21">
+        <v>25.31</v>
+      </c>
+      <c r="I21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>15.45</v>
+      </c>
+      <c r="L21">
+        <v>21.5</v>
+      </c>
+      <c r="M21">
+        <v>25.73</v>
+      </c>
+      <c r="N21">
+        <v>30.18</v>
+      </c>
+      <c r="O21">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="P21">
+        <v>53.97</v>
+      </c>
+      <c r="R21" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21">
+        <v>0.44</v>
+      </c>
+      <c r="T21">
+        <v>0.65</v>
+      </c>
+      <c r="U21">
+        <v>98.91</v>
+      </c>
+      <c r="V21">
+        <v>9.93</v>
+      </c>
+      <c r="W21">
+        <v>70.84</v>
+      </c>
+      <c r="X21">
+        <v>17.95</v>
+      </c>
+      <c r="Y21">
+        <v>0.19</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>12.18</v>
+      </c>
+      <c r="AB21">
+        <v>18.97</v>
+      </c>
+      <c r="AC21">
+        <v>23.53</v>
+      </c>
+      <c r="AD21">
+        <v>28.25</v>
+      </c>
+      <c r="AE21">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="AF21">
+        <v>53.97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32">
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22">
+        <v>0.31</v>
+      </c>
+      <c r="D22">
+        <v>2.5</v>
+      </c>
+      <c r="E22">
+        <v>97.19</v>
+      </c>
+      <c r="F22">
+        <v>12.98</v>
+      </c>
+      <c r="G22">
+        <v>83.86</v>
+      </c>
+      <c r="H22">
+        <v>0.34</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>9.68</v>
+      </c>
+      <c r="L22">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="M22">
+        <v>20.48</v>
+      </c>
+      <c r="N22">
+        <v>22.64</v>
+      </c>
+      <c r="O22">
+        <v>25.71</v>
+      </c>
+      <c r="P22">
+        <v>36.24</v>
+      </c>
+      <c r="R22" t="s">
+        <v>56</v>
+      </c>
+      <c r="S22">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="T22">
+        <v>7.51</v>
+      </c>
+      <c r="U22">
+        <v>87.64</v>
+      </c>
+      <c r="V22">
+        <v>22.42</v>
+      </c>
+      <c r="W22">
+        <v>65.14</v>
+      </c>
+      <c r="X22">
+        <v>0.08</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>7.08</v>
+      </c>
+      <c r="AB22">
+        <v>14.84</v>
+      </c>
+      <c r="AC22">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="AD22">
+        <v>21.21</v>
+      </c>
+      <c r="AE22">
+        <v>24.34</v>
+      </c>
+      <c r="AF22">
+        <v>36.24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32">
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23">
+        <v>1.45</v>
+      </c>
+      <c r="D23">
+        <v>26.3</v>
+      </c>
+      <c r="E23">
+        <v>72.25</v>
+      </c>
+      <c r="F23">
+        <v>72.22</v>
+      </c>
+      <c r="G23">
+        <v>0.03</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>5.31</v>
+      </c>
+      <c r="L23">
+        <v>6.09</v>
+      </c>
+      <c r="M23">
+        <v>6.93</v>
+      </c>
+      <c r="N23">
+        <v>8.06</v>
+      </c>
+      <c r="O23">
+        <v>10.66</v>
+      </c>
+      <c r="P23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="R23" t="s">
+        <v>57</v>
+      </c>
+      <c r="S23">
+        <v>26.81</v>
+      </c>
+      <c r="T23">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="U23">
+        <v>40.07</v>
+      </c>
+      <c r="V23">
+        <v>40.07</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>5.24</v>
+      </c>
+      <c r="AB23">
+        <v>5.76</v>
+      </c>
+      <c r="AC23">
+        <v>6.4</v>
+      </c>
+      <c r="AD23">
+        <v>7.38</v>
+      </c>
+      <c r="AE23">
+        <v>9.68</v>
+      </c>
+      <c r="AF23">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32">
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <v>0.44</v>
+      </c>
+      <c r="D24">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E24">
+        <v>94.45</v>
+      </c>
+      <c r="F24">
+        <v>94.44</v>
+      </c>
+      <c r="G24">
+        <v>0.01</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>5.89</v>
+      </c>
+      <c r="L24">
+        <v>6.97</v>
+      </c>
+      <c r="M24">
+        <v>7.96</v>
+      </c>
+      <c r="N24">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="O24">
+        <v>11.47</v>
+      </c>
+      <c r="P24">
+        <v>15.49</v>
+      </c>
+      <c r="R24" t="s">
+        <v>65</v>
+      </c>
+      <c r="S24">
+        <v>13.05</v>
+      </c>
+      <c r="T24">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="U24">
+        <v>69.930000000000007</v>
+      </c>
+      <c r="V24">
+        <v>69.930000000000007</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>5.41</v>
+      </c>
+      <c r="AB24">
+        <v>6.14</v>
+      </c>
+      <c r="AC24">
+        <v>6.93</v>
+      </c>
+      <c r="AD24">
+        <v>8.02</v>
+      </c>
+      <c r="AE24">
+        <v>10.28</v>
+      </c>
+      <c r="AF24">
+        <v>15.49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32">
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25">
+        <v>3.4</v>
+      </c>
+      <c r="D25">
+        <v>3.45</v>
+      </c>
+      <c r="E25">
+        <v>93.15</v>
+      </c>
+      <c r="F25">
+        <v>7.81</v>
+      </c>
+      <c r="G25">
+        <v>20.43</v>
+      </c>
+      <c r="H25">
+        <v>31.22</v>
+      </c>
+      <c r="I25">
+        <v>19.03</v>
+      </c>
+      <c r="J25">
+        <v>14.65</v>
+      </c>
+      <c r="K25">
+        <v>11.03</v>
+      </c>
+      <c r="L25">
+        <v>27.44</v>
+      </c>
+      <c r="M25">
+        <v>38.61</v>
+      </c>
+      <c r="N25">
+        <v>52.23</v>
+      </c>
+      <c r="O25">
+        <v>71.42</v>
+      </c>
+      <c r="P25">
+        <v>90.16</v>
+      </c>
+      <c r="R25" t="s">
+        <v>58</v>
+      </c>
+      <c r="S25">
+        <v>12.57</v>
+      </c>
+      <c r="T25">
+        <v>4.82</v>
+      </c>
+      <c r="U25">
+        <v>82.61</v>
+      </c>
+      <c r="V25">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="W25">
+        <v>22.78</v>
+      </c>
+      <c r="X25">
+        <v>26.61</v>
+      </c>
+      <c r="Y25">
+        <v>13.75</v>
+      </c>
+      <c r="Z25">
+        <v>9.51</v>
+      </c>
+      <c r="AA25">
+        <v>8.93</v>
+      </c>
+      <c r="AB25">
+        <v>23.37</v>
+      </c>
+      <c r="AC25">
+        <v>34.24</v>
+      </c>
+      <c r="AD25">
+        <v>47.33</v>
+      </c>
+      <c r="AE25">
+        <v>68.239999999999995</v>
+      </c>
+      <c r="AF25">
+        <v>90.16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32">
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26">
+        <v>22.68</v>
+      </c>
+      <c r="D26">
+        <v>5.03</v>
+      </c>
+      <c r="E26">
+        <v>72.290000000000006</v>
+      </c>
+      <c r="F26">
+        <v>12.1</v>
+      </c>
+      <c r="G26">
+        <v>55.52</v>
+      </c>
+      <c r="H26">
+        <v>4.66</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>7.94</v>
+      </c>
+      <c r="L26">
+        <v>18.48</v>
+      </c>
+      <c r="M26">
+        <v>23.62</v>
+      </c>
+      <c r="N26">
+        <v>26.97</v>
+      </c>
+      <c r="O26">
+        <v>30.39</v>
+      </c>
+      <c r="P26">
+        <v>36.28</v>
+      </c>
+      <c r="R26" t="s">
+        <v>67</v>
+      </c>
+      <c r="S26">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="T26">
+        <v>4.49</v>
+      </c>
+      <c r="U26">
+        <v>55.89</v>
+      </c>
+      <c r="V26">
+        <v>11.1</v>
+      </c>
+      <c r="W26">
+        <v>42.44</v>
+      </c>
+      <c r="X26">
+        <v>2.35</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>7.5</v>
+      </c>
+      <c r="AB26">
+        <v>16.93</v>
+      </c>
+      <c r="AC26">
+        <v>22.49</v>
+      </c>
+      <c r="AD26">
+        <v>26.17</v>
+      </c>
+      <c r="AE26">
+        <v>29.71</v>
+      </c>
+      <c r="AF26">
+        <v>36.28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32">
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27">
+        <v>74.760000000000005</v>
+      </c>
+      <c r="D27">
+        <v>23.58</v>
+      </c>
+      <c r="E27">
+        <v>1.66</v>
+      </c>
+      <c r="F27">
+        <v>1.66</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>5.08</v>
+      </c>
+      <c r="L27">
+        <v>5.39</v>
+      </c>
+      <c r="M27">
+        <v>5.71</v>
+      </c>
+      <c r="N27">
+        <v>6.43</v>
+      </c>
+      <c r="O27">
+        <v>7.21</v>
+      </c>
+      <c r="P27">
+        <v>7.55</v>
+      </c>
+      <c r="R27" t="s">
+        <v>73</v>
+      </c>
+      <c r="S27">
+        <v>88.16</v>
+      </c>
+      <c r="T27">
+        <v>11.37</v>
+      </c>
+      <c r="U27">
+        <v>0.47</v>
+      </c>
+      <c r="V27">
+        <v>0.47</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>5.08</v>
+      </c>
+      <c r="AB27">
+        <v>5.32</v>
+      </c>
+      <c r="AC27">
+        <v>5.64</v>
+      </c>
+      <c r="AD27">
+        <v>6.22</v>
+      </c>
+      <c r="AE27">
+        <v>6.94</v>
+      </c>
+      <c r="AF27">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32">
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28">
+        <v>2.75</v>
+      </c>
+      <c r="D28">
+        <v>3.79</v>
+      </c>
+      <c r="E28">
+        <v>93.46</v>
+      </c>
+      <c r="F28">
+        <v>50.31</v>
+      </c>
+      <c r="G28">
+        <v>42.87</v>
+      </c>
+      <c r="H28">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>7.71</v>
+      </c>
+      <c r="L28">
+        <v>12.09</v>
+      </c>
+      <c r="M28">
+        <v>14.62</v>
+      </c>
+      <c r="N28">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="O28">
+        <v>21.6</v>
+      </c>
+      <c r="P28">
+        <v>36.36</v>
+      </c>
+      <c r="R28" t="s">
+        <v>74</v>
+      </c>
+      <c r="S28">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="T28">
+        <v>8.32</v>
+      </c>
+      <c r="U28">
+        <v>71.75</v>
+      </c>
+      <c r="V28">
+        <v>52.54</v>
+      </c>
+      <c r="W28">
+        <v>19.12</v>
+      </c>
+      <c r="X28">
+        <v>0.1</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>6.41</v>
+      </c>
+      <c r="AB28">
+        <v>9.86</v>
+      </c>
+      <c r="AC28">
+        <v>12.56</v>
+      </c>
+      <c r="AD28">
+        <v>15.28</v>
+      </c>
+      <c r="AE28">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="AF28">
+        <v>36.36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32">
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29">
+        <v>5.43</v>
+      </c>
+      <c r="D29">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="E29">
+        <v>86.35</v>
+      </c>
+      <c r="F29">
+        <v>70.48</v>
+      </c>
+      <c r="G29">
+        <v>15.87</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>6.25</v>
+      </c>
+      <c r="L29">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="M29">
+        <v>12.03</v>
+      </c>
+      <c r="N29">
+        <v>14.21</v>
+      </c>
+      <c r="O29">
+        <v>18.21</v>
+      </c>
+      <c r="P29">
+        <v>29.4</v>
+      </c>
+      <c r="R29" t="s">
+        <v>75</v>
+      </c>
+      <c r="S29">
+        <v>26.65</v>
+      </c>
+      <c r="T29">
+        <v>12.18</v>
+      </c>
+      <c r="U29">
+        <v>61.16</v>
+      </c>
+      <c r="V29">
+        <v>55.88</v>
+      </c>
+      <c r="W29">
+        <v>5.28</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>5.77</v>
+      </c>
+      <c r="AB29">
+        <v>7.86</v>
+      </c>
+      <c r="AC29">
+        <v>10.52</v>
+      </c>
+      <c r="AD29">
+        <v>12.55</v>
+      </c>
+      <c r="AE29">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="AF29">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32">
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30">
+        <v>0.12</v>
+      </c>
+      <c r="D30">
+        <v>1.2</v>
+      </c>
+      <c r="E30">
+        <v>98.68</v>
+      </c>
+      <c r="F30">
+        <v>6.77</v>
+      </c>
+      <c r="G30">
+        <v>49.28</v>
+      </c>
+      <c r="H30">
+        <v>41.89</v>
+      </c>
+      <c r="I30">
+        <v>0.74</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>13.18</v>
+      </c>
+      <c r="L30">
+        <v>23.92</v>
+      </c>
+      <c r="M30">
+        <v>28.84</v>
+      </c>
+      <c r="N30">
+        <v>33.35</v>
+      </c>
+      <c r="O30">
+        <v>39.72</v>
+      </c>
+      <c r="P30">
+        <v>54.13</v>
+      </c>
+      <c r="R30" t="s">
+        <v>76</v>
+      </c>
+      <c r="S30">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="T30">
+        <v>4.05</v>
+      </c>
+      <c r="U30">
+        <v>93.5</v>
+      </c>
+      <c r="V30">
+        <v>12.44</v>
+      </c>
+      <c r="W30">
+        <v>51.69</v>
+      </c>
+      <c r="X30">
+        <v>29.02</v>
+      </c>
+      <c r="Y30">
+        <v>0.35</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>9.16</v>
+      </c>
+      <c r="AB30">
+        <v>20.45</v>
+      </c>
+      <c r="AC30">
+        <v>26.51</v>
+      </c>
+      <c r="AD30">
+        <v>31.37</v>
+      </c>
+      <c r="AE30">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="AF30">
+        <v>54.13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32">
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31">
+        <v>1.67</v>
+      </c>
+      <c r="D31">
+        <v>82.12</v>
+      </c>
+      <c r="E31">
+        <v>16.21</v>
+      </c>
+      <c r="F31">
+        <v>14.99</v>
+      </c>
+      <c r="G31">
+        <v>1.23</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L31">
+        <v>5.68</v>
+      </c>
+      <c r="M31">
+        <v>6.81</v>
+      </c>
+      <c r="N31">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="O31">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="P31">
+        <v>24.59</v>
+      </c>
+      <c r="R31" t="s">
+        <v>77</v>
+      </c>
+      <c r="S31">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="T31">
+        <v>86.61</v>
+      </c>
+      <c r="U31">
+        <v>8.34</v>
+      </c>
+      <c r="V31">
+        <v>7.6</v>
+      </c>
+      <c r="W31">
+        <v>0.74</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>5.13</v>
+      </c>
+      <c r="AB31">
+        <v>5.74</v>
+      </c>
+      <c r="AC31">
+        <v>7.08</v>
+      </c>
+      <c r="AD31">
+        <v>10.67</v>
+      </c>
+      <c r="AE31">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="AF31">
+        <v>20.28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32">
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32">
+        <v>0.08</v>
+      </c>
+      <c r="D32">
+        <v>1.65</v>
+      </c>
+      <c r="E32">
+        <v>98.27</v>
+      </c>
+      <c r="F32">
+        <v>11.22</v>
+      </c>
+      <c r="G32">
+        <v>72.08</v>
+      </c>
+      <c r="H32">
+        <v>14.97</v>
+      </c>
+      <c r="I32">
+        <v>0.01</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>10.79</v>
+      </c>
+      <c r="L32">
+        <v>19.54</v>
+      </c>
+      <c r="M32">
+        <v>24.16</v>
+      </c>
+      <c r="N32">
+        <v>28.01</v>
+      </c>
+      <c r="O32">
+        <v>33.53</v>
+      </c>
+      <c r="P32">
+        <v>46.36</v>
+      </c>
+      <c r="R32" t="s">
+        <v>78</v>
+      </c>
+      <c r="S32">
+        <v>1.77</v>
+      </c>
+      <c r="T32">
+        <v>5.08</v>
+      </c>
+      <c r="U32">
+        <v>93.16</v>
+      </c>
+      <c r="V32">
+        <v>18.27</v>
+      </c>
+      <c r="W32">
+        <v>66.319999999999993</v>
+      </c>
+      <c r="X32">
+        <v>8.56</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>8.01</v>
+      </c>
+      <c r="AB32">
+        <v>16.62</v>
+      </c>
+      <c r="AC32">
+        <v>21.91</v>
+      </c>
+      <c r="AD32">
+        <v>26.17</v>
+      </c>
+      <c r="AE32">
+        <v>31.85</v>
+      </c>
+      <c r="AF32">
+        <v>54.85</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32">
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33">
+        <v>0.01</v>
+      </c>
+      <c r="D33">
+        <v>0.17</v>
+      </c>
+      <c r="E33">
+        <v>99.83</v>
+      </c>
+      <c r="F33">
+        <v>23.76</v>
+      </c>
+      <c r="G33">
+        <v>74.16</v>
+      </c>
+      <c r="H33">
+        <v>1.91</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>10.09</v>
+      </c>
+      <c r="L33">
+        <v>15.33</v>
+      </c>
+      <c r="M33">
+        <v>19.82</v>
+      </c>
+      <c r="N33">
+        <v>23.44</v>
+      </c>
+      <c r="O33">
+        <v>28.06</v>
+      </c>
+      <c r="P33">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="R33" t="s">
+        <v>79</v>
+      </c>
+      <c r="S33">
+        <v>0.19</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>98.81</v>
+      </c>
+      <c r="V33">
+        <v>31.47</v>
+      </c>
+      <c r="W33">
+        <v>66.3</v>
+      </c>
+      <c r="X33">
+        <v>1.04</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>8.11</v>
+      </c>
+      <c r="AB33">
+        <v>13.34</v>
+      </c>
+      <c r="AC33">
+        <v>17.98</v>
+      </c>
+      <c r="AD33">
+        <v>22</v>
+      </c>
+      <c r="AE33">
+        <v>26.82</v>
+      </c>
+      <c r="AF33">
+        <v>38.450000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32">
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34">
+        <v>0.02</v>
+      </c>
+      <c r="D34">
+        <v>1.54</v>
+      </c>
+      <c r="E34">
+        <v>98.44</v>
+      </c>
+      <c r="F34">
+        <v>93.35</v>
+      </c>
+      <c r="G34">
+        <v>5.09</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>6.47</v>
+      </c>
+      <c r="L34">
+        <v>8.52</v>
+      </c>
+      <c r="M34">
+        <v>10.3</v>
+      </c>
+      <c r="N34">
+        <v>11.81</v>
+      </c>
+      <c r="O34">
+        <v>15.07</v>
+      </c>
+      <c r="P34">
+        <v>19.95</v>
+      </c>
+      <c r="R34" t="s">
+        <v>80</v>
+      </c>
+      <c r="S34">
         <v>0.54</v>
       </c>
-      <c r="C34">
+      <c r="T34">
         <v>7.77</v>
       </c>
-      <c r="D34">
+      <c r="U34">
         <v>91.69</v>
       </c>
-      <c r="E34">
+      <c r="V34">
         <v>89.53</v>
       </c>
-      <c r="F34">
+      <c r="W34">
         <v>2.17</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
         <v>5.72</v>
       </c>
-      <c r="K34">
+      <c r="AB34">
         <v>7.16</v>
       </c>
-      <c r="L34">
+      <c r="AC34">
         <v>8.7799999999999994</v>
       </c>
-      <c r="M34">
+      <c r="AD34">
         <v>10.75</v>
       </c>
-      <c r="N34">
+      <c r="AE34">
         <v>13.53</v>
       </c>
-      <c r="O34">
+      <c r="AF34">
         <v>20.260000000000002</v>
       </c>
     </row>

--- a/output/vhtsum.xlsx
+++ b/output/vhtsum.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\lidar\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBB5B57-688F-4B79-9730-20D5CD7EB648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vhtsum" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="94">
   <si>
     <t>site</t>
   </si>
@@ -282,15 +288,42 @@
   <si>
     <t>3m</t>
   </si>
+  <si>
+    <t>yunque 2015 high</t>
+  </si>
+  <si>
+    <t>yunque 2015 low</t>
+  </si>
+  <si>
+    <t>yunque 2018 high</t>
+  </si>
+  <si>
+    <t>yunque 2018 low</t>
+  </si>
+  <si>
+    <t>El Yunque, Puerto Rico</t>
+  </si>
+  <si>
+    <t>Upper Slopes Rainforest 2015 (pre Maria)</t>
+  </si>
+  <si>
+    <t>Lower Slopes Rainforest 2015 (pre Maria)</t>
+  </si>
+  <si>
+    <t>Lower Slopes Rainforest 2018 (post Maria)</t>
+  </si>
+  <si>
+    <t>Upper Slopes Rainforest 2018 (post Maria)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1503,28 +1536,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" thickBot="1">
+    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
@@ -1628,19 +1661,19 @@
       </c>
       <c r="C2" s="6">
         <f t="shared" ref="C2:D4" si="0">T2</f>
-        <v>1.45</v>
+        <v>26.81</v>
       </c>
       <c r="D2" s="6">
         <f t="shared" si="0"/>
-        <v>26.3</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="E2" s="6">
         <f t="shared" ref="E2:I4" si="1">W2</f>
-        <v>72.22</v>
+        <v>40.07</v>
       </c>
       <c r="F2" s="6">
         <f t="shared" si="1"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G2" s="6">
         <f t="shared" si="1"/>
@@ -1656,27 +1689,27 @@
       </c>
       <c r="J2" s="6">
         <f t="shared" ref="J2:J31" si="2">V2</f>
-        <v>72.25</v>
+        <v>40.07</v>
       </c>
       <c r="K2" s="6">
         <f>AB2</f>
-        <v>5.31</v>
+        <v>5.24</v>
       </c>
       <c r="L2" s="18">
         <f t="shared" ref="L2:P2" si="3">AC2</f>
-        <v>6.09</v>
+        <v>5.76</v>
       </c>
       <c r="M2" s="26">
         <f t="shared" si="3"/>
-        <v>6.93</v>
+        <v>6.4</v>
       </c>
       <c r="N2" s="22">
         <f t="shared" si="3"/>
-        <v>8.06</v>
+        <v>7.38</v>
       </c>
       <c r="O2" s="6">
         <f t="shared" si="3"/>
-        <v>10.66</v>
+        <v>9.68</v>
       </c>
       <c r="P2" s="6">
         <f t="shared" si="3"/>
@@ -1684,30 +1717,30 @@
       </c>
       <c r="R2" s="3">
         <f>N2/L2</f>
-        <v>1.323481116584565</v>
+        <v>1.28125</v>
       </c>
       <c r="S2" t="s">
         <v>57</v>
       </c>
       <c r="T2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>1.45</v>
+        <v>26.81</v>
       </c>
       <c r="U2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>26.3</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="V2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>72.25</v>
+        <v>40.07</v>
       </c>
       <c r="W2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>72.22</v>
+        <v>40.07</v>
       </c>
       <c r="X2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,Y$1,FALSE)</f>
@@ -1723,30 +1756,30 @@
       </c>
       <c r="AB2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>5.31</v>
+        <v>5.24</v>
       </c>
       <c r="AC2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>6.09</v>
+        <v>5.76</v>
       </c>
       <c r="AD2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>6.93</v>
+        <v>6.4</v>
       </c>
       <c r="AE2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>8.06</v>
+        <v>7.38</v>
       </c>
       <c r="AF2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>10.66</v>
+        <v>9.68</v>
       </c>
       <c r="AG2">
         <f>VLOOKUP($S2,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>61</v>
       </c>
@@ -1755,19 +1788,19 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" si="0"/>
-        <v>0.44</v>
+        <v>13.05</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>5.1100000000000003</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>94.44</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
@@ -1783,27 +1816,27 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" si="2"/>
-        <v>94.45</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:K31" si="4">AB3</f>
-        <v>5.89</v>
+        <v>5.41</v>
       </c>
       <c r="L3" s="19">
         <f t="shared" ref="L3:L31" si="5">AC3</f>
-        <v>6.97</v>
+        <v>6.14</v>
       </c>
       <c r="M3" s="27">
         <f t="shared" ref="M3:M31" si="6">AD3</f>
-        <v>7.96</v>
+        <v>6.93</v>
       </c>
       <c r="N3" s="23">
         <f t="shared" ref="N3:N31" si="7">AE3</f>
-        <v>9.2899999999999991</v>
+        <v>8.02</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" ref="O3:O31" si="8">AF3</f>
-        <v>11.47</v>
+        <v>10.28</v>
       </c>
       <c r="P3" s="9">
         <f t="shared" ref="P3:P31" si="9">AG3</f>
@@ -1811,30 +1844,30 @@
       </c>
       <c r="R3" s="3">
         <f t="shared" ref="R3:R31" si="10">N3/L3</f>
-        <v>1.3328550932568148</v>
+        <v>1.3061889250814331</v>
       </c>
       <c r="S3" t="s">
         <v>65</v>
       </c>
       <c r="T3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.44</v>
+        <v>13.05</v>
       </c>
       <c r="U3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>5.1100000000000003</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="V3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>94.45</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="W3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>94.44</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="X3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,Y$1,FALSE)</f>
@@ -1850,30 +1883,30 @@
       </c>
       <c r="AB3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>5.89</v>
+        <v>5.41</v>
       </c>
       <c r="AC3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>6.97</v>
+        <v>6.14</v>
       </c>
       <c r="AD3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>7.96</v>
+        <v>6.93</v>
       </c>
       <c r="AE3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>9.2899999999999991</v>
+        <v>8.02</v>
       </c>
       <c r="AF3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>11.47</v>
+        <v>10.28</v>
       </c>
       <c r="AG3">
         <f>VLOOKUP($S3,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>15.49</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15.75" thickBot="1">
+    <row r="4" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>61</v>
       </c>
@@ -1882,23 +1915,23 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>0.31</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>7.51</v>
       </c>
       <c r="E4" s="12">
         <f t="shared" si="1"/>
-        <v>12.98</v>
+        <v>22.42</v>
       </c>
       <c r="F4" s="12">
         <f t="shared" si="1"/>
-        <v>83.86</v>
+        <v>65.14</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="1"/>
-        <v>0.34</v>
+        <v>0.08</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="1"/>
@@ -1910,27 +1943,27 @@
       </c>
       <c r="J4" s="12">
         <f t="shared" si="2"/>
-        <v>97.19</v>
+        <v>87.64</v>
       </c>
       <c r="K4" s="12">
         <f t="shared" si="4"/>
-        <v>9.68</v>
+        <v>7.08</v>
       </c>
       <c r="L4" s="20">
         <f t="shared" si="5"/>
-        <v>17.760000000000002</v>
+        <v>14.84</v>
       </c>
       <c r="M4" s="28">
         <f t="shared" si="6"/>
-        <v>20.48</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="N4" s="24">
         <f t="shared" si="7"/>
-        <v>22.64</v>
+        <v>21.21</v>
       </c>
       <c r="O4" s="12">
         <f t="shared" si="8"/>
-        <v>25.71</v>
+        <v>24.34</v>
       </c>
       <c r="P4" s="13">
         <f t="shared" si="9"/>
@@ -1938,34 +1971,34 @@
       </c>
       <c r="R4" s="3">
         <f t="shared" si="10"/>
-        <v>1.2747747747747746</v>
+        <v>1.429245283018868</v>
       </c>
       <c r="S4" t="s">
         <v>56</v>
       </c>
       <c r="T4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.31</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="U4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>2.5</v>
+        <v>7.51</v>
       </c>
       <c r="V4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>97.19</v>
+        <v>87.64</v>
       </c>
       <c r="W4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>12.98</v>
+        <v>22.42</v>
       </c>
       <c r="X4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>83.86</v>
+        <v>65.14</v>
       </c>
       <c r="Y4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>0.34</v>
+        <v>0.08</v>
       </c>
       <c r="Z4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,Z$1,FALSE)</f>
@@ -1977,30 +2010,30 @@
       </c>
       <c r="AB4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>9.68</v>
+        <v>7.08</v>
       </c>
       <c r="AC4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>17.760000000000002</v>
+        <v>14.84</v>
       </c>
       <c r="AD4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>20.48</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="AE4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>22.64</v>
+        <v>21.21</v>
       </c>
       <c r="AF4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>25.71</v>
+        <v>24.34</v>
       </c>
       <c r="AG4">
         <f>VLOOKUP($S4,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>36.24</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -2009,15 +2042,15 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" ref="C5:C28" si="11">T5</f>
-        <v>0</v>
+        <v>5.48</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D28" si="12">U5</f>
-        <v>3.73</v>
+        <v>12.77</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" ref="E5:E28" si="13">W5</f>
-        <v>96.27</v>
+        <v>81.75</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" ref="F5:F28" si="14">X5</f>
@@ -2037,27 +2070,27 @@
       </c>
       <c r="J5" s="6">
         <f t="shared" si="2"/>
-        <v>96.27</v>
+        <v>81.75</v>
       </c>
       <c r="K5" s="6">
         <f t="shared" si="4"/>
-        <v>5.99</v>
+        <v>5.58</v>
       </c>
       <c r="L5" s="18">
         <f t="shared" si="5"/>
-        <v>7.32</v>
+        <v>6.55</v>
       </c>
       <c r="M5" s="26">
         <f t="shared" si="6"/>
-        <v>8.41</v>
+        <v>7.56</v>
       </c>
       <c r="N5" s="22">
         <f t="shared" si="7"/>
-        <v>10.11</v>
+        <v>8.99</v>
       </c>
       <c r="O5" s="6">
         <f t="shared" si="8"/>
-        <v>12.14</v>
+        <v>11.29</v>
       </c>
       <c r="P5" s="7">
         <f t="shared" si="9"/>
@@ -2065,26 +2098,26 @@
       </c>
       <c r="R5" s="3">
         <f t="shared" si="10"/>
-        <v>1.3811475409836065</v>
+        <v>1.3725190839694656</v>
       </c>
       <c r="S5" t="s">
         <v>10</v>
       </c>
       <c r="T5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0</v>
+        <v>5.48</v>
       </c>
       <c r="U5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>3.73</v>
+        <v>12.77</v>
       </c>
       <c r="V5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>96.27</v>
+        <v>81.75</v>
       </c>
       <c r="W5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>96.27</v>
+        <v>81.75</v>
       </c>
       <c r="X5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,X$1,FALSE)</f>
@@ -2104,30 +2137,30 @@
       </c>
       <c r="AB5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>5.99</v>
+        <v>5.58</v>
       </c>
       <c r="AC5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>7.32</v>
+        <v>6.55</v>
       </c>
       <c r="AD5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>8.41</v>
+        <v>7.56</v>
       </c>
       <c r="AE5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>10.11</v>
+        <v>8.99</v>
       </c>
       <c r="AF5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>12.14</v>
+        <v>11.29</v>
       </c>
       <c r="AG5">
         <f>VLOOKUP($S5,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>14.04</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
@@ -2136,15 +2169,15 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="11"/>
-        <v>22.07</v>
+        <v>43.86</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="12"/>
-        <v>69.41</v>
+        <v>50.75</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="13"/>
-        <v>8.52</v>
+        <v>5.39</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="14"/>
@@ -2164,54 +2197,54 @@
       </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
-        <v>8.52</v>
+        <v>5.39</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="4"/>
-        <v>5.28</v>
+        <v>5.24</v>
       </c>
       <c r="L6" s="19">
         <f t="shared" si="5"/>
-        <v>6.12</v>
+        <v>5.87</v>
       </c>
       <c r="M6" s="27">
         <f t="shared" si="6"/>
-        <v>6.96</v>
+        <v>6.54</v>
       </c>
       <c r="N6" s="23">
         <f t="shared" si="7"/>
-        <v>7.8</v>
+        <v>7.36</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="8"/>
-        <v>8.9</v>
+        <v>8.49</v>
       </c>
       <c r="P6" s="9">
         <f t="shared" si="9"/>
-        <v>13.1</v>
+        <v>13.38</v>
       </c>
       <c r="R6" s="3">
         <f t="shared" si="10"/>
-        <v>1.2745098039215685</v>
+        <v>1.253833049403748</v>
       </c>
       <c r="S6" t="s">
         <v>11</v>
       </c>
       <c r="T6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>22.07</v>
+        <v>43.86</v>
       </c>
       <c r="U6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>69.41</v>
+        <v>50.75</v>
       </c>
       <c r="V6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>8.52</v>
+        <v>5.39</v>
       </c>
       <c r="W6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>8.52</v>
+        <v>5.39</v>
       </c>
       <c r="X6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,X$1,FALSE)</f>
@@ -2231,30 +2264,30 @@
       </c>
       <c r="AB6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>5.28</v>
+        <v>5.24</v>
       </c>
       <c r="AC6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>6.12</v>
+        <v>5.87</v>
       </c>
       <c r="AD6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>6.96</v>
+        <v>6.54</v>
       </c>
       <c r="AE6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>7.8</v>
+        <v>7.36</v>
       </c>
       <c r="AF6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>8.9</v>
+        <v>8.49</v>
       </c>
       <c r="AG6">
         <f>VLOOKUP($S6,Sheet1!$A:$O,AG$1,FALSE)</f>
-        <v>13.1</v>
+        <v>13.38</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15.75" thickBot="1">
+    <row r="7" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>35</v>
       </c>
@@ -2263,15 +2296,15 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" si="11"/>
-        <v>2.1800000000000002</v>
+        <v>7.8</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="12"/>
-        <v>3.83</v>
+        <v>7.2</v>
       </c>
       <c r="E7" s="12">
         <f t="shared" si="13"/>
-        <v>93.99</v>
+        <v>85</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="14"/>
@@ -2291,54 +2324,54 @@
       </c>
       <c r="J7" s="12">
         <f t="shared" si="2"/>
-        <v>93.99</v>
+        <v>85</v>
       </c>
       <c r="K7" s="12">
         <f t="shared" si="4"/>
-        <v>6.13</v>
+        <v>5.62</v>
       </c>
       <c r="L7" s="20">
         <f t="shared" si="5"/>
-        <v>7.21</v>
+        <v>6.47</v>
       </c>
       <c r="M7" s="28">
         <f t="shared" si="6"/>
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="N7" s="24">
         <f t="shared" si="7"/>
-        <v>8.33</v>
+        <v>7.7</v>
       </c>
       <c r="O7" s="12">
         <f t="shared" si="8"/>
-        <v>9.08</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="P7" s="13">
         <f t="shared" si="9"/>
-        <v>12.47</v>
+        <v>12.25</v>
       </c>
       <c r="R7" s="3">
         <f t="shared" si="10"/>
-        <v>1.1553398058252426</v>
+        <v>1.1901081916537868</v>
       </c>
       <c r="S7" t="s">
         <v>12</v>
       </c>
       <c r="T7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>2.1800000000000002</v>
+        <v>7.8</v>
       </c>
       <c r="U7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>3.83</v>
+        <v>7.2</v>
       </c>
       <c r="V7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>93.99</v>
+        <v>85</v>
       </c>
       <c r="W7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>93.99</v>
+        <v>85</v>
       </c>
       <c r="X7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,X$1,FALSE)</f>
@@ -2358,30 +2391,30 @@
       </c>
       <c r="AB7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>6.13</v>
+        <v>5.62</v>
       </c>
       <c r="AC7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>7.21</v>
+        <v>6.47</v>
       </c>
       <c r="AD7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="AE7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>8.33</v>
+        <v>7.7</v>
       </c>
       <c r="AF7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>9.08</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="AG7">
         <f>VLOOKUP($S7,Sheet1!$A:$O,AG$1,FALSE)</f>
-        <v>12.47</v>
+        <v>12.25</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15.75" thickBot="1">
+    <row r="8" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>66</v>
       </c>
@@ -2390,23 +2423,23 @@
       </c>
       <c r="C8" s="12">
         <f t="shared" ref="C8" si="18">T8</f>
-        <v>22.68</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" ref="D8" si="19">U8</f>
-        <v>5.03</v>
+        <v>4.49</v>
       </c>
       <c r="E8" s="12">
         <f t="shared" ref="E8" si="20">W8</f>
-        <v>12.1</v>
+        <v>11.1</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" ref="F8" si="21">X8</f>
-        <v>55.52</v>
+        <v>42.44</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ref="G8" si="22">Y8</f>
-        <v>4.66</v>
+        <v>2.35</v>
       </c>
       <c r="H8" s="12">
         <f t="shared" ref="H8" si="23">Z8</f>
@@ -2418,27 +2451,27 @@
       </c>
       <c r="J8" s="12">
         <f t="shared" si="2"/>
-        <v>72.290000000000006</v>
+        <v>55.89</v>
       </c>
       <c r="K8" s="12">
         <f t="shared" si="4"/>
-        <v>7.94</v>
+        <v>7.5</v>
       </c>
       <c r="L8" s="20">
         <f t="shared" si="5"/>
-        <v>18.48</v>
+        <v>16.93</v>
       </c>
       <c r="M8" s="28">
         <f t="shared" si="6"/>
-        <v>23.62</v>
+        <v>22.49</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" si="7"/>
-        <v>26.97</v>
+        <v>26.17</v>
       </c>
       <c r="O8" s="12">
         <f t="shared" si="8"/>
-        <v>30.39</v>
+        <v>29.71</v>
       </c>
       <c r="P8" s="13">
         <f t="shared" si="9"/>
@@ -2446,34 +2479,34 @@
       </c>
       <c r="R8" s="3">
         <f t="shared" si="10"/>
-        <v>1.4594155844155843</v>
+        <v>1.5457767277023038</v>
       </c>
       <c r="S8" t="s">
         <v>67</v>
       </c>
       <c r="T8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>22.68</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="U8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>5.03</v>
+        <v>4.49</v>
       </c>
       <c r="V8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>72.290000000000006</v>
+        <v>55.89</v>
       </c>
       <c r="W8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>12.1</v>
+        <v>11.1</v>
       </c>
       <c r="X8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>55.52</v>
+        <v>42.44</v>
       </c>
       <c r="Y8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>4.66</v>
+        <v>2.35</v>
       </c>
       <c r="Z8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,Z$1,FALSE)</f>
@@ -2485,30 +2518,30 @@
       </c>
       <c r="AB8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>7.94</v>
+        <v>7.5</v>
       </c>
       <c r="AC8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>18.48</v>
+        <v>16.93</v>
       </c>
       <c r="AD8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>23.62</v>
+        <v>22.49</v>
       </c>
       <c r="AE8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>26.97</v>
+        <v>26.17</v>
       </c>
       <c r="AF8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>30.39</v>
+        <v>29.71</v>
       </c>
       <c r="AG8">
         <f>VLOOKUP($S8,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>36.28</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2517,23 +2550,23 @@
       </c>
       <c r="C9" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="13"/>
-        <v>0.19</v>
+        <v>0.87</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="14"/>
-        <v>88.13</v>
+        <v>92.86</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="15"/>
-        <v>11.66</v>
+        <v>5.94</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="16"/>
@@ -2545,62 +2578,62 @@
       </c>
       <c r="J9" s="6">
         <f t="shared" si="2"/>
-        <v>99.98</v>
+        <v>99.67</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="4"/>
-        <v>22.6</v>
+        <v>20.52</v>
       </c>
       <c r="L9" s="18">
         <f t="shared" si="5"/>
-        <v>25.87</v>
+        <v>24.19</v>
       </c>
       <c r="M9" s="26">
         <f t="shared" si="6"/>
-        <v>27.45</v>
+        <v>26.26</v>
       </c>
       <c r="N9" s="22">
         <f t="shared" si="7"/>
-        <v>28.78</v>
+        <v>27.74</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="8"/>
-        <v>31.8</v>
+        <v>30.32</v>
       </c>
       <c r="P9" s="7">
         <f t="shared" si="9"/>
-        <v>41.73</v>
+        <v>40.53</v>
       </c>
       <c r="R9" s="3">
         <f t="shared" si="10"/>
-        <v>1.1124855044453035</v>
+        <v>1.1467548573790822</v>
       </c>
       <c r="S9" t="s">
         <v>13</v>
       </c>
       <c r="T9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="U9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="V9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>99.98</v>
+        <v>99.67</v>
       </c>
       <c r="W9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>0.19</v>
+        <v>0.87</v>
       </c>
       <c r="X9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>88.13</v>
+        <v>92.86</v>
       </c>
       <c r="Y9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>11.66</v>
+        <v>5.94</v>
       </c>
       <c r="Z9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,Z$1,FALSE)</f>
@@ -2612,30 +2645,30 @@
       </c>
       <c r="AB9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>22.6</v>
+        <v>20.52</v>
       </c>
       <c r="AC9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>25.87</v>
+        <v>24.19</v>
       </c>
       <c r="AD9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>27.45</v>
+        <v>26.26</v>
       </c>
       <c r="AE9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>28.78</v>
+        <v>27.74</v>
       </c>
       <c r="AF9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>31.8</v>
+        <v>30.32</v>
       </c>
       <c r="AG9">
         <f>VLOOKUP($S9,Sheet1!$A:$O,AG$1,FALSE)</f>
-        <v>41.73</v>
+        <v>40.53</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="15.75" thickBot="1">
+    <row r="10" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>34</v>
       </c>
@@ -2644,27 +2677,27 @@
       </c>
       <c r="C10" s="12">
         <f t="shared" si="11"/>
-        <v>0.12</v>
+        <v>0.92</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="12"/>
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="E10" s="12">
         <f t="shared" si="13"/>
-        <v>0.52</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" si="14"/>
-        <v>28.25</v>
+        <v>44.11</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="15"/>
-        <v>66.81</v>
+        <v>50.88</v>
       </c>
       <c r="H10" s="12">
         <f t="shared" si="16"/>
-        <v>4.0999999999999996</v>
+        <v>1.48</v>
       </c>
       <c r="I10" s="12">
         <f t="shared" si="17"/>
@@ -2672,27 +2705,27 @@
       </c>
       <c r="J10" s="12">
         <f t="shared" si="2"/>
-        <v>99.68</v>
+        <v>98.68</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="4"/>
-        <v>23.49</v>
+        <v>18.91</v>
       </c>
       <c r="L10" s="20">
         <f t="shared" si="5"/>
-        <v>29.27</v>
+        <v>26.19</v>
       </c>
       <c r="M10" s="28">
         <f t="shared" si="6"/>
-        <v>34.369999999999997</v>
+        <v>30.62</v>
       </c>
       <c r="N10" s="24">
         <f t="shared" si="7"/>
-        <v>39.659999999999997</v>
+        <v>36.25</v>
       </c>
       <c r="O10" s="12">
         <f t="shared" si="8"/>
-        <v>44.61</v>
+        <v>42.57</v>
       </c>
       <c r="P10" s="13">
         <f t="shared" si="9"/>
@@ -2700,38 +2733,38 @@
       </c>
       <c r="R10" s="3">
         <f t="shared" si="10"/>
-        <v>1.3549709600273316</v>
+        <v>1.3841160748377244</v>
       </c>
       <c r="S10" t="s">
         <v>14</v>
       </c>
       <c r="T10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.12</v>
+        <v>0.92</v>
       </c>
       <c r="U10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="V10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>99.68</v>
+        <v>98.68</v>
       </c>
       <c r="W10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>0.52</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="X10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>28.25</v>
+        <v>44.11</v>
       </c>
       <c r="Y10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>66.81</v>
+        <v>50.88</v>
       </c>
       <c r="Z10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,Z$1,FALSE)</f>
-        <v>4.0999999999999996</v>
+        <v>1.48</v>
       </c>
       <c r="AA10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,AA$1,FALSE)</f>
@@ -2739,30 +2772,30 @@
       </c>
       <c r="AB10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>23.49</v>
+        <v>18.91</v>
       </c>
       <c r="AC10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>29.27</v>
+        <v>26.19</v>
       </c>
       <c r="AD10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>34.369999999999997</v>
+        <v>30.62</v>
       </c>
       <c r="AE10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>39.659999999999997</v>
+        <v>36.25</v>
       </c>
       <c r="AF10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>44.61</v>
+        <v>42.57</v>
       </c>
       <c r="AG10">
         <f>VLOOKUP($S10,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>50.19</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
@@ -2771,19 +2804,19 @@
       </c>
       <c r="C11" s="6">
         <f>T11</f>
-        <v>0.18</v>
+        <v>0.38</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" ref="D11" si="25">U11</f>
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" ref="E11" si="26">W11</f>
-        <v>11.34</v>
+        <v>15.16</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" ref="F11" si="27">X11</f>
-        <v>88.43</v>
+        <v>84.38</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" ref="G11" si="28">Y11</f>
@@ -2799,27 +2832,27 @@
       </c>
       <c r="J11" s="6">
         <f t="shared" si="2"/>
-        <v>99.77</v>
+        <v>99.54</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="4"/>
-        <v>12.77</v>
+        <v>11.57</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="5"/>
-        <v>17.18</v>
+        <v>16.18</v>
       </c>
       <c r="M11" s="26">
         <f t="shared" si="6"/>
-        <v>19.170000000000002</v>
+        <v>18.2</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="7"/>
-        <v>20.97</v>
+        <v>20.39</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" si="8"/>
-        <v>22.84</v>
+        <v>22.19</v>
       </c>
       <c r="P11" s="7">
         <f t="shared" si="9"/>
@@ -2827,30 +2860,30 @@
       </c>
       <c r="R11" s="3">
         <f t="shared" si="10"/>
-        <v>1.2206053550640279</v>
+        <v>1.2601977750309024</v>
       </c>
       <c r="S11" t="s">
         <v>9</v>
       </c>
       <c r="T11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.18</v>
+        <v>0.38</v>
       </c>
       <c r="U11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="V11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>99.77</v>
+        <v>99.54</v>
       </c>
       <c r="W11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>11.34</v>
+        <v>15.16</v>
       </c>
       <c r="X11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>88.43</v>
+        <v>84.38</v>
       </c>
       <c r="Y11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,Y$1,FALSE)</f>
@@ -2866,30 +2899,30 @@
       </c>
       <c r="AB11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>12.77</v>
+        <v>11.57</v>
       </c>
       <c r="AC11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>17.18</v>
+        <v>16.18</v>
       </c>
       <c r="AD11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>19.170000000000002</v>
+        <v>18.2</v>
       </c>
       <c r="AE11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>20.97</v>
+        <v>20.39</v>
       </c>
       <c r="AF11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>22.84</v>
+        <v>22.19</v>
       </c>
       <c r="AG11">
         <f>VLOOKUP($S11,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>28.63</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15.75" thickBot="1">
+    <row r="12" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>36</v>
       </c>
@@ -2898,23 +2931,23 @@
       </c>
       <c r="C12" s="12">
         <f>T12</f>
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="D12" s="12">
         <f>U12</f>
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E12" s="12">
         <f t="shared" ref="E12:I12" si="31">W12</f>
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="31"/>
-        <v>77.8</v>
+        <v>84.82</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="31"/>
-        <v>22.04</v>
+        <v>14.56</v>
       </c>
       <c r="H12" s="12">
         <f t="shared" si="31"/>
@@ -2926,27 +2959,27 @@
       </c>
       <c r="J12" s="12">
         <f t="shared" si="2"/>
-        <v>99.93</v>
+        <v>99.62</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" si="4"/>
-        <v>23.84</v>
+        <v>22.31</v>
       </c>
       <c r="L12" s="20">
         <f t="shared" si="5"/>
-        <v>26.67</v>
+        <v>25.81</v>
       </c>
       <c r="M12" s="28">
         <f t="shared" si="6"/>
-        <v>28.22</v>
+        <v>27.26</v>
       </c>
       <c r="N12" s="24">
         <f t="shared" si="7"/>
-        <v>29.73</v>
+        <v>28.87</v>
       </c>
       <c r="O12" s="12">
         <f t="shared" si="8"/>
-        <v>31.7</v>
+        <v>31.07</v>
       </c>
       <c r="P12" s="13">
         <f t="shared" si="9"/>
@@ -2954,34 +2987,34 @@
       </c>
       <c r="R12" s="3">
         <f t="shared" si="10"/>
-        <v>1.1147356580427445</v>
+        <v>1.1185586981790006</v>
       </c>
       <c r="S12" t="s">
         <v>8</v>
       </c>
       <c r="T12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="U12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="V12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>99.93</v>
+        <v>99.62</v>
       </c>
       <c r="W12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="X12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>77.8</v>
+        <v>84.82</v>
       </c>
       <c r="Y12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>22.04</v>
+        <v>14.56</v>
       </c>
       <c r="Z12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,Z$1,FALSE)</f>
@@ -2993,30 +3026,30 @@
       </c>
       <c r="AB12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>23.84</v>
+        <v>22.31</v>
       </c>
       <c r="AC12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>26.67</v>
+        <v>25.81</v>
       </c>
       <c r="AD12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>28.22</v>
+        <v>27.26</v>
       </c>
       <c r="AE12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>29.73</v>
+        <v>28.87</v>
       </c>
       <c r="AF12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>31.7</v>
+        <v>31.07</v>
       </c>
       <c r="AG12">
         <f>VLOOKUP($S12,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>37.32</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
@@ -3025,19 +3058,19 @@
       </c>
       <c r="C13" s="6">
         <f t="shared" si="11"/>
-        <v>0.5</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>3.48</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="13"/>
-        <v>11.03</v>
+        <v>18.75</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="14"/>
-        <v>87.47</v>
+        <v>68.55</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="15"/>
@@ -3053,27 +3086,27 @@
       </c>
       <c r="J13" s="6">
         <f t="shared" si="2"/>
-        <v>98.5</v>
+        <v>87.3</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="4"/>
-        <v>11.72</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="L13" s="18">
         <f t="shared" si="5"/>
-        <v>17.690000000000001</v>
+        <v>15.76</v>
       </c>
       <c r="M13" s="26">
         <f t="shared" si="6"/>
-        <v>19.850000000000001</v>
+        <v>18.23</v>
       </c>
       <c r="N13" s="22">
         <f t="shared" si="7"/>
-        <v>21.66</v>
+        <v>20.53</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="8"/>
-        <v>24.04</v>
+        <v>23.11</v>
       </c>
       <c r="P13" s="7">
         <f t="shared" si="9"/>
@@ -3081,30 +3114,30 @@
       </c>
       <c r="R13" s="3">
         <f t="shared" si="10"/>
-        <v>1.2244205765969474</v>
+        <v>1.3026649746192895</v>
       </c>
       <c r="S13" t="s">
         <v>25</v>
       </c>
       <c r="T13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.5</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="U13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>1</v>
+        <v>3.48</v>
       </c>
       <c r="V13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>98.5</v>
+        <v>87.3</v>
       </c>
       <c r="W13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>11.03</v>
+        <v>18.75</v>
       </c>
       <c r="X13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>87.47</v>
+        <v>68.55</v>
       </c>
       <c r="Y13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,Y$1,FALSE)</f>
@@ -3120,30 +3153,30 @@
       </c>
       <c r="AB13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>11.72</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="AC13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>17.690000000000001</v>
+        <v>15.76</v>
       </c>
       <c r="AD13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>19.850000000000001</v>
+        <v>18.23</v>
       </c>
       <c r="AE13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>21.66</v>
+        <v>20.53</v>
       </c>
       <c r="AF13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>24.04</v>
+        <v>23.11</v>
       </c>
       <c r="AG13">
         <f>VLOOKUP($S13,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>27.27</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>39</v>
       </c>
@@ -3152,23 +3185,23 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="11"/>
-        <v>0.66</v>
+        <v>6.19</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="12"/>
-        <v>0.82</v>
+        <v>2.82</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="13"/>
-        <v>5.96</v>
+        <v>12.23</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="14"/>
-        <v>90.85</v>
+        <v>78.010000000000005</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="15"/>
-        <v>1.72</v>
+        <v>0.75</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="16"/>
@@ -3180,27 +3213,27 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
-        <v>98.52</v>
+        <v>90.99</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="4"/>
-        <v>14.18</v>
+        <v>10.65</v>
       </c>
       <c r="L14" s="19">
         <f t="shared" si="5"/>
-        <v>20.14</v>
+        <v>17.64</v>
       </c>
       <c r="M14" s="27">
         <f t="shared" si="6"/>
-        <v>23.34</v>
+        <v>21.52</v>
       </c>
       <c r="N14" s="23">
         <f t="shared" si="7"/>
-        <v>26.1</v>
+        <v>24.37</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="8"/>
-        <v>28.75</v>
+        <v>27.67</v>
       </c>
       <c r="P14" s="9">
         <f t="shared" si="9"/>
@@ -3208,34 +3241,34 @@
       </c>
       <c r="R14" s="3">
         <f t="shared" si="10"/>
-        <v>1.2959285004965244</v>
+        <v>1.3815192743764173</v>
       </c>
       <c r="S14" t="s">
         <v>23</v>
       </c>
       <c r="T14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.66</v>
+        <v>6.19</v>
       </c>
       <c r="U14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>0.82</v>
+        <v>2.82</v>
       </c>
       <c r="V14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>98.52</v>
+        <v>90.99</v>
       </c>
       <c r="W14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>5.96</v>
+        <v>12.23</v>
       </c>
       <c r="X14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>90.85</v>
+        <v>78.010000000000005</v>
       </c>
       <c r="Y14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>1.72</v>
+        <v>0.75</v>
       </c>
       <c r="Z14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,Z$1,FALSE)</f>
@@ -3247,30 +3280,30 @@
       </c>
       <c r="AB14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>14.18</v>
+        <v>10.65</v>
       </c>
       <c r="AC14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>20.14</v>
+        <v>17.64</v>
       </c>
       <c r="AD14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>23.34</v>
+        <v>21.52</v>
       </c>
       <c r="AE14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>26.1</v>
+        <v>24.37</v>
       </c>
       <c r="AF14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>28.75</v>
+        <v>27.67</v>
       </c>
       <c r="AG14">
         <f>VLOOKUP($S14,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>36.25</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>41</v>
       </c>
@@ -3279,23 +3312,23 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="11"/>
-        <v>0.92</v>
+        <v>9.94</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="12"/>
-        <v>1.17</v>
+        <v>3.18</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="13"/>
-        <v>4.04</v>
+        <v>7.02</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="14"/>
-        <v>44.07</v>
+        <v>48.46</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="15"/>
-        <v>49.81</v>
+        <v>31.4</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="16"/>
@@ -3307,27 +3340,27 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="2"/>
-        <v>97.91</v>
+        <v>86.88</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="4"/>
-        <v>16.55</v>
+        <v>10.96</v>
       </c>
       <c r="L15" s="19">
         <f t="shared" si="5"/>
-        <v>27.5</v>
+        <v>25.21</v>
       </c>
       <c r="M15" s="27">
         <f t="shared" si="6"/>
-        <v>30.1</v>
+        <v>28.55</v>
       </c>
       <c r="N15" s="23">
         <f t="shared" si="7"/>
-        <v>32.08</v>
+        <v>31.05</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="8"/>
-        <v>34.35</v>
+        <v>33.42</v>
       </c>
       <c r="P15" s="9">
         <f t="shared" si="9"/>
@@ -3335,34 +3368,34 @@
       </c>
       <c r="R15" s="3">
         <f t="shared" si="10"/>
-        <v>1.1665454545454546</v>
+        <v>1.2316541055136849</v>
       </c>
       <c r="S15" t="s">
         <v>24</v>
       </c>
       <c r="T15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.92</v>
+        <v>9.94</v>
       </c>
       <c r="U15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>1.17</v>
+        <v>3.18</v>
       </c>
       <c r="V15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>97.91</v>
+        <v>86.88</v>
       </c>
       <c r="W15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>4.04</v>
+        <v>7.02</v>
       </c>
       <c r="X15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>44.07</v>
+        <v>48.46</v>
       </c>
       <c r="Y15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>49.81</v>
+        <v>31.4</v>
       </c>
       <c r="Z15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,Z$1,FALSE)</f>
@@ -3374,30 +3407,30 @@
       </c>
       <c r="AB15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>16.55</v>
+        <v>10.96</v>
       </c>
       <c r="AC15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>27.5</v>
+        <v>25.21</v>
       </c>
       <c r="AD15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>30.1</v>
+        <v>28.55</v>
       </c>
       <c r="AE15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>32.08</v>
+        <v>31.05</v>
       </c>
       <c r="AF15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>34.35</v>
+        <v>33.42</v>
       </c>
       <c r="AG15">
         <f>VLOOKUP($S15,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>40.630000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
@@ -3406,23 +3439,23 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" si="11"/>
-        <v>0.21</v>
+        <v>1.83</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>1.22</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="13"/>
-        <v>2.79</v>
+        <v>5.81</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="14"/>
-        <v>45.93</v>
+        <v>53.63</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="15"/>
-        <v>50.57</v>
+        <v>37.51</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="16"/>
@@ -3434,27 +3467,27 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" si="2"/>
-        <v>99.29</v>
+        <v>96.95</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="4"/>
-        <v>18.079999999999998</v>
+        <v>13.79</v>
       </c>
       <c r="L16" s="19">
         <f t="shared" si="5"/>
-        <v>26.54</v>
+        <v>23.99</v>
       </c>
       <c r="M16" s="27">
         <f t="shared" si="6"/>
-        <v>30.13</v>
+        <v>28.46</v>
       </c>
       <c r="N16" s="23">
         <f t="shared" si="7"/>
-        <v>32.520000000000003</v>
+        <v>31.51</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="8"/>
-        <v>35.35</v>
+        <v>34.53</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="9"/>
@@ -3462,34 +3495,34 @@
       </c>
       <c r="R16" s="3">
         <f t="shared" si="10"/>
-        <v>1.2253202712886211</v>
+        <v>1.3134639433097126</v>
       </c>
       <c r="S16" t="s">
         <v>15</v>
       </c>
       <c r="T16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.21</v>
+        <v>1.83</v>
       </c>
       <c r="U16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>0.5</v>
+        <v>1.22</v>
       </c>
       <c r="V16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>99.29</v>
+        <v>96.95</v>
       </c>
       <c r="W16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>2.79</v>
+        <v>5.81</v>
       </c>
       <c r="X16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>45.93</v>
+        <v>53.63</v>
       </c>
       <c r="Y16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>50.57</v>
+        <v>37.51</v>
       </c>
       <c r="Z16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,Z$1,FALSE)</f>
@@ -3501,30 +3534,30 @@
       </c>
       <c r="AB16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>18.079999999999998</v>
+        <v>13.79</v>
       </c>
       <c r="AC16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>26.54</v>
+        <v>23.99</v>
       </c>
       <c r="AD16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>30.13</v>
+        <v>28.46</v>
       </c>
       <c r="AE16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>32.520000000000003</v>
+        <v>31.51</v>
       </c>
       <c r="AF16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>35.35</v>
+        <v>34.53</v>
       </c>
       <c r="AG16">
         <f>VLOOKUP($S16,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>43.13</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15.75" thickBot="1">
+    <row r="17" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>27</v>
       </c>
@@ -3533,23 +3566,23 @@
       </c>
       <c r="C17" s="12">
         <f t="shared" si="11"/>
-        <v>0.51</v>
+        <v>3.38</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="12"/>
-        <v>0.78</v>
+        <v>1.87</v>
       </c>
       <c r="E17" s="12">
         <f t="shared" si="13"/>
-        <v>3.81</v>
+        <v>5.94</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="14"/>
-        <v>33.9</v>
+        <v>43.7</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="15"/>
-        <v>61</v>
+        <v>45.11</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" si="16"/>
@@ -3561,27 +3594,27 @@
       </c>
       <c r="J17" s="12">
         <f t="shared" si="2"/>
-        <v>98.71</v>
+        <v>94.75</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" si="4"/>
-        <v>17.399999999999999</v>
+        <v>12.99</v>
       </c>
       <c r="L17" s="20">
         <f t="shared" si="5"/>
-        <v>28.39</v>
+        <v>26.52</v>
       </c>
       <c r="M17" s="28">
         <f t="shared" si="6"/>
-        <v>31.07</v>
+        <v>29.65</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="7"/>
-        <v>32.86</v>
+        <v>31.83</v>
       </c>
       <c r="O17" s="12">
         <f t="shared" si="8"/>
-        <v>35.56</v>
+        <v>34.5</v>
       </c>
       <c r="P17" s="13">
         <f t="shared" si="9"/>
@@ -3589,34 +3622,34 @@
       </c>
       <c r="R17" s="3">
         <f t="shared" si="10"/>
-        <v>1.1574498062698133</v>
+        <v>1.2002262443438914</v>
       </c>
       <c r="S17" t="s">
         <v>16</v>
       </c>
       <c r="T17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.51</v>
+        <v>3.38</v>
       </c>
       <c r="U17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>0.78</v>
+        <v>1.87</v>
       </c>
       <c r="V17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>98.71</v>
+        <v>94.75</v>
       </c>
       <c r="W17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>3.81</v>
+        <v>5.94</v>
       </c>
       <c r="X17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>33.9</v>
+        <v>43.7</v>
       </c>
       <c r="Y17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>61</v>
+        <v>45.11</v>
       </c>
       <c r="Z17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,Z$1,FALSE)</f>
@@ -3628,30 +3661,30 @@
       </c>
       <c r="AB17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>17.399999999999999</v>
+        <v>12.99</v>
       </c>
       <c r="AC17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>28.39</v>
+        <v>26.52</v>
       </c>
       <c r="AD17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>31.07</v>
+        <v>29.65</v>
       </c>
       <c r="AE17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>32.86</v>
+        <v>31.83</v>
       </c>
       <c r="AF17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>35.56</v>
+        <v>34.5</v>
       </c>
       <c r="AG17">
         <f>VLOOKUP($S17,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>44.89</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>82</v>
       </c>
@@ -3660,15 +3693,15 @@
       </c>
       <c r="C18" s="6">
         <f t="shared" ref="C18:C22" si="32">T18</f>
-        <v>20.350000000000001</v>
+        <v>27.71</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" ref="D18:D22" si="33">U18</f>
-        <v>55.55</v>
+        <v>58.94</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" ref="E18:E22" si="34">W18</f>
-        <v>24.1</v>
+        <v>13.36</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" ref="F18:F22" si="35">X18</f>
@@ -3688,54 +3721,54 @@
       </c>
       <c r="J18" s="6">
         <f t="shared" ref="J18:J22" si="39">V18</f>
-        <v>24.1</v>
+        <v>13.36</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" ref="K18:K22" si="40">AB18</f>
-        <v>5.0999999999999996</v>
+        <v>5.09</v>
       </c>
       <c r="L18" s="18">
         <f t="shared" ref="L18:L22" si="41">AC18</f>
-        <v>5.46</v>
+        <v>5.33</v>
       </c>
       <c r="M18" s="26">
         <f t="shared" ref="M18:M22" si="42">AD18</f>
-        <v>5.99</v>
+        <v>5.71</v>
       </c>
       <c r="N18" s="22">
         <f t="shared" ref="N18:N22" si="43">AE18</f>
-        <v>6.87</v>
+        <v>6.5</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" ref="O18:O22" si="44">AF18</f>
-        <v>8.89</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="P18" s="7">
         <f t="shared" ref="P18:P22" si="45">AG18</f>
-        <v>13.07</v>
+        <v>12.89</v>
       </c>
       <c r="R18" s="3">
         <f t="shared" ref="R18:R22" si="46">N18/L18</f>
-        <v>1.2582417582417582</v>
+        <v>1.2195121951219512</v>
       </c>
       <c r="S18" t="s">
         <v>19</v>
       </c>
       <c r="T18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>20.350000000000001</v>
+        <v>27.71</v>
       </c>
       <c r="U18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>55.55</v>
+        <v>58.94</v>
       </c>
       <c r="V18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>24.1</v>
+        <v>13.36</v>
       </c>
       <c r="W18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>24.1</v>
+        <v>13.36</v>
       </c>
       <c r="X18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,X$1,FALSE)</f>
@@ -3755,30 +3788,30 @@
       </c>
       <c r="AB18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>5.0999999999999996</v>
+        <v>5.09</v>
       </c>
       <c r="AC18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>5.46</v>
+        <v>5.33</v>
       </c>
       <c r="AD18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>5.99</v>
+        <v>5.71</v>
       </c>
       <c r="AE18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>6.87</v>
+        <v>6.5</v>
       </c>
       <c r="AF18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>8.89</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="AG18">
         <f>VLOOKUP($S18,Sheet1!$A:$O,AG$1,FALSE)</f>
-        <v>13.07</v>
+        <v>12.89</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>82</v>
       </c>
@@ -3787,19 +3820,19 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" si="32"/>
-        <v>0.01</v>
+        <v>0.66</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="33"/>
-        <v>2.58</v>
+        <v>11.89</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="34"/>
-        <v>90.3</v>
+        <v>84.34</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="35"/>
-        <v>7.12</v>
+        <v>3.11</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="36"/>
@@ -3815,58 +3848,58 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="39"/>
-        <v>97.41</v>
+        <v>87.45</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="40"/>
-        <v>6.55</v>
+        <v>5.81</v>
       </c>
       <c r="L19" s="19">
         <f t="shared" si="41"/>
-        <v>8.98</v>
+        <v>7.59</v>
       </c>
       <c r="M19" s="27">
         <f t="shared" si="42"/>
-        <v>11.07</v>
+        <v>9.65</v>
       </c>
       <c r="N19" s="23">
         <f t="shared" si="43"/>
-        <v>12.89</v>
+        <v>11.69</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="44"/>
-        <v>15.58</v>
+        <v>14.38</v>
       </c>
       <c r="P19" s="9">
         <f t="shared" si="45"/>
-        <v>26.74</v>
+        <v>26.23</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="46"/>
-        <v>1.4354120267260579</v>
+        <v>1.5401844532279314</v>
       </c>
       <c r="S19" t="s">
         <v>22</v>
       </c>
       <c r="T19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.01</v>
+        <v>0.66</v>
       </c>
       <c r="U19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>2.58</v>
+        <v>11.89</v>
       </c>
       <c r="V19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>97.41</v>
+        <v>87.45</v>
       </c>
       <c r="W19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>90.3</v>
+        <v>84.34</v>
       </c>
       <c r="X19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>7.12</v>
+        <v>3.11</v>
       </c>
       <c r="Y19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,Y$1,FALSE)</f>
@@ -3882,30 +3915,30 @@
       </c>
       <c r="AB19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>6.55</v>
+        <v>5.81</v>
       </c>
       <c r="AC19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>8.98</v>
+        <v>7.59</v>
       </c>
       <c r="AD19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>11.07</v>
+        <v>9.65</v>
       </c>
       <c r="AE19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>12.89</v>
+        <v>11.69</v>
       </c>
       <c r="AF19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>15.58</v>
+        <v>14.38</v>
       </c>
       <c r="AG19">
         <f>VLOOKUP($S19,Sheet1!$A:$O,AG$1,FALSE)</f>
-        <v>26.74</v>
+        <v>26.23</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
@@ -3914,27 +3947,27 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" si="32"/>
-        <v>0.01</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="33"/>
-        <v>0.25</v>
+        <v>1.7</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="34"/>
-        <v>17.43</v>
+        <v>24.42</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="35"/>
-        <v>70.53</v>
+        <v>65.92</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="36"/>
-        <v>11.77</v>
+        <v>7.67</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="37"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="38"/>
@@ -3942,27 +3975,27 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="39"/>
-        <v>99.73</v>
+        <v>98.02</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="40"/>
-        <v>10.66</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="L20" s="19">
         <f t="shared" si="41"/>
-        <v>17.100000000000001</v>
+        <v>15.03</v>
       </c>
       <c r="M20" s="27">
         <f t="shared" si="42"/>
-        <v>22.39</v>
+        <v>20.66</v>
       </c>
       <c r="N20" s="23">
         <f t="shared" si="43"/>
-        <v>26.93</v>
+        <v>25.48</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="44"/>
-        <v>32.630000000000003</v>
+        <v>31.32</v>
       </c>
       <c r="P20" s="9">
         <f t="shared" si="45"/>
@@ -3970,38 +4003,38 @@
       </c>
       <c r="R20" s="3">
         <f t="shared" si="46"/>
-        <v>1.5748538011695905</v>
+        <v>1.6952761144377912</v>
       </c>
       <c r="S20" t="s">
         <v>20</v>
       </c>
       <c r="T20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.01</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="U20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>0.25</v>
+        <v>1.7</v>
       </c>
       <c r="V20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>99.73</v>
+        <v>98.02</v>
       </c>
       <c r="W20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>17.43</v>
+        <v>24.42</v>
       </c>
       <c r="X20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>70.53</v>
+        <v>65.92</v>
       </c>
       <c r="Y20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>11.77</v>
+        <v>7.67</v>
       </c>
       <c r="Z20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,Z$1,FALSE)</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,AA$1,FALSE)</f>
@@ -4009,30 +4042,30 @@
       </c>
       <c r="AB20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>10.66</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="AC20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>17.100000000000001</v>
+        <v>15.03</v>
       </c>
       <c r="AD20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>22.39</v>
+        <v>20.66</v>
       </c>
       <c r="AE20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>26.93</v>
+        <v>25.48</v>
       </c>
       <c r="AF20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>32.630000000000003</v>
+        <v>31.32</v>
       </c>
       <c r="AG20">
         <f>VLOOKUP($S20,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>46.91</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>82</v>
       </c>
@@ -4041,27 +4074,27 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" si="32"/>
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="33"/>
-        <v>0.08</v>
+        <v>0.39</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="34"/>
-        <v>0.56999999999999995</v>
+        <v>1.99</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="35"/>
-        <v>25.32</v>
+        <v>38.96</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="36"/>
-        <v>73.12</v>
+        <v>57.82</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="37"/>
-        <v>0.87</v>
+        <v>0.45</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="38"/>
@@ -4069,27 +4102,27 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="39"/>
-        <v>99.88</v>
+        <v>99.21</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="40"/>
-        <v>24.12</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="L21" s="19">
         <f t="shared" si="41"/>
-        <v>29.81</v>
+        <v>27.2</v>
       </c>
       <c r="M21" s="27">
         <f t="shared" si="42"/>
-        <v>33.159999999999997</v>
+        <v>31.23</v>
       </c>
       <c r="N21" s="23">
         <f t="shared" si="43"/>
-        <v>36.03</v>
+        <v>34.19</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="44"/>
-        <v>39.97</v>
+        <v>38.369999999999997</v>
       </c>
       <c r="P21" s="9">
         <f t="shared" si="45"/>
@@ -4097,38 +4130,38 @@
       </c>
       <c r="R21" s="3">
         <f t="shared" si="46"/>
-        <v>1.2086548138208655</v>
+        <v>1.2569852941176469</v>
       </c>
       <c r="S21" t="s">
         <v>21</v>
       </c>
       <c r="T21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="U21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>0.08</v>
+        <v>0.39</v>
       </c>
       <c r="V21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>99.88</v>
+        <v>99.21</v>
       </c>
       <c r="W21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>0.56999999999999995</v>
+        <v>1.99</v>
       </c>
       <c r="X21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>25.32</v>
+        <v>38.96</v>
       </c>
       <c r="Y21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>73.12</v>
+        <v>57.82</v>
       </c>
       <c r="Z21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,Z$1,FALSE)</f>
-        <v>0.87</v>
+        <v>0.45</v>
       </c>
       <c r="AA21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,AA$1,FALSE)</f>
@@ -4136,30 +4169,30 @@
       </c>
       <c r="AB21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>24.12</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="AC21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>29.81</v>
+        <v>27.2</v>
       </c>
       <c r="AD21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>33.159999999999997</v>
+        <v>31.23</v>
       </c>
       <c r="AE21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>36.03</v>
+        <v>34.19</v>
       </c>
       <c r="AF21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>39.97</v>
+        <v>38.369999999999997</v>
       </c>
       <c r="AG21">
         <f>VLOOKUP($S21,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>51.83</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15.75" thickBot="1">
+    <row r="22" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>82</v>
       </c>
@@ -4168,27 +4201,27 @@
       </c>
       <c r="C22" s="12">
         <f t="shared" si="32"/>
-        <v>0.1</v>
+        <v>1.97</v>
       </c>
       <c r="D22" s="12">
         <f t="shared" si="33"/>
-        <v>0.86</v>
+        <v>2.99</v>
       </c>
       <c r="E22" s="12">
         <f t="shared" si="34"/>
-        <v>6.17</v>
+        <v>11.46</v>
       </c>
       <c r="F22" s="12">
         <f t="shared" si="35"/>
-        <v>39.659999999999997</v>
+        <v>43.63</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="36"/>
-        <v>51</v>
+        <v>38.76</v>
       </c>
       <c r="H22" s="12">
         <f t="shared" si="37"/>
-        <v>2.2200000000000002</v>
+        <v>1.19</v>
       </c>
       <c r="I22" s="12">
         <f t="shared" si="38"/>
@@ -4196,27 +4229,27 @@
       </c>
       <c r="J22" s="12">
         <f t="shared" si="39"/>
-        <v>99.04</v>
+        <v>95.04</v>
       </c>
       <c r="K22" s="12">
         <f t="shared" si="40"/>
-        <v>13.66</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="L22" s="20">
         <f t="shared" si="41"/>
-        <v>25.53</v>
+        <v>21.82</v>
       </c>
       <c r="M22" s="28">
         <f t="shared" si="42"/>
-        <v>30.77</v>
+        <v>28.24</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="43"/>
-        <v>35.53</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="O22" s="12">
         <f t="shared" si="44"/>
-        <v>42.67</v>
+        <v>40.770000000000003</v>
       </c>
       <c r="P22" s="13">
         <f t="shared" si="45"/>
@@ -4224,38 +4257,38 @@
       </c>
       <c r="R22" s="3">
         <f t="shared" si="46"/>
-        <v>1.3916960438699568</v>
+        <v>1.5362053162236482</v>
       </c>
       <c r="S22" t="s">
         <v>18</v>
       </c>
       <c r="T22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.1</v>
+        <v>1.97</v>
       </c>
       <c r="U22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>0.86</v>
+        <v>2.99</v>
       </c>
       <c r="V22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>99.04</v>
+        <v>95.04</v>
       </c>
       <c r="W22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>6.17</v>
+        <v>11.46</v>
       </c>
       <c r="X22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>39.659999999999997</v>
+        <v>43.63</v>
       </c>
       <c r="Y22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>51</v>
+        <v>38.76</v>
       </c>
       <c r="Z22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,Z$1,FALSE)</f>
-        <v>2.2200000000000002</v>
+        <v>1.19</v>
       </c>
       <c r="AA22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,AA$1,FALSE)</f>
@@ -4263,30 +4296,30 @@
       </c>
       <c r="AB22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>13.66</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="AC22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>25.53</v>
+        <v>21.82</v>
       </c>
       <c r="AD22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>30.77</v>
+        <v>28.24</v>
       </c>
       <c r="AE22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>35.53</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="AF22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>42.67</v>
+        <v>40.770000000000003</v>
       </c>
       <c r="AG22">
         <f>VLOOKUP($S22,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>55.52</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>81</v>
       </c>
@@ -4295,19 +4328,19 @@
       </c>
       <c r="C23" s="6">
         <f t="shared" si="11"/>
-        <v>1.67</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="12"/>
-        <v>82.12</v>
+        <v>86.61</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="13"/>
-        <v>14.99</v>
+        <v>7.6</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="14"/>
-        <v>1.23</v>
+        <v>0.74</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="15"/>
@@ -4323,58 +4356,58 @@
       </c>
       <c r="J23" s="6">
         <f t="shared" si="2"/>
-        <v>16.21</v>
+        <v>8.34</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="4"/>
-        <v>5.0999999999999996</v>
+        <v>5.13</v>
       </c>
       <c r="L23" s="18">
         <f t="shared" si="5"/>
-        <v>5.68</v>
+        <v>5.74</v>
       </c>
       <c r="M23" s="26">
         <f t="shared" si="6"/>
-        <v>6.81</v>
+        <v>7.08</v>
       </c>
       <c r="N23" s="22">
         <f t="shared" si="7"/>
-        <v>9.3699999999999992</v>
+        <v>10.67</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" si="8"/>
-        <v>16.690000000000001</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="P23" s="7">
         <f t="shared" si="9"/>
-        <v>24.59</v>
+        <v>20.28</v>
       </c>
       <c r="R23" s="3">
         <f t="shared" si="10"/>
-        <v>1.6496478873239435</v>
+        <v>1.8588850174216027</v>
       </c>
       <c r="S23" t="s">
         <v>77</v>
       </c>
       <c r="T23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>1.67</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="U23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>82.12</v>
+        <v>86.61</v>
       </c>
       <c r="V23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>16.21</v>
+        <v>8.34</v>
       </c>
       <c r="W23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>14.99</v>
+        <v>7.6</v>
       </c>
       <c r="X23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>1.23</v>
+        <v>0.74</v>
       </c>
       <c r="Y23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,Y$1,FALSE)</f>
@@ -4390,30 +4423,30 @@
       </c>
       <c r="AB23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>5.0999999999999996</v>
+        <v>5.13</v>
       </c>
       <c r="AC23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>5.68</v>
+        <v>5.74</v>
       </c>
       <c r="AD23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>6.81</v>
+        <v>7.08</v>
       </c>
       <c r="AE23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>9.3699999999999992</v>
+        <v>10.67</v>
       </c>
       <c r="AF23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>16.690000000000001</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="AG23">
         <f>VLOOKUP($S23,Sheet1!$A:$O,AG$1,FALSE)</f>
-        <v>24.59</v>
+        <v>20.28</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>81</v>
       </c>
@@ -4422,19 +4455,19 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" si="11"/>
-        <v>0.02</v>
+        <v>0.54</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="12"/>
-        <v>1.54</v>
+        <v>7.77</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="13"/>
-        <v>93.35</v>
+        <v>89.53</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="14"/>
-        <v>5.09</v>
+        <v>2.17</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="15"/>
@@ -4450,58 +4483,58 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="2"/>
-        <v>98.44</v>
+        <v>91.69</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="4"/>
-        <v>6.47</v>
+        <v>5.72</v>
       </c>
       <c r="L24" s="19">
         <f t="shared" si="5"/>
-        <v>8.52</v>
+        <v>7.16</v>
       </c>
       <c r="M24" s="27">
         <f t="shared" si="6"/>
-        <v>10.3</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="N24" s="23">
         <f t="shared" si="7"/>
-        <v>11.81</v>
+        <v>10.75</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="8"/>
-        <v>15.07</v>
+        <v>13.53</v>
       </c>
       <c r="P24" s="9">
         <f t="shared" si="9"/>
-        <v>19.95</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="R24" s="3">
         <f t="shared" si="10"/>
-        <v>1.3861502347417842</v>
+        <v>1.5013966480446927</v>
       </c>
       <c r="S24" t="s">
         <v>80</v>
       </c>
       <c r="T24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.02</v>
+        <v>0.54</v>
       </c>
       <c r="U24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>1.54</v>
+        <v>7.77</v>
       </c>
       <c r="V24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>98.44</v>
+        <v>91.69</v>
       </c>
       <c r="W24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>93.35</v>
+        <v>89.53</v>
       </c>
       <c r="X24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>5.09</v>
+        <v>2.17</v>
       </c>
       <c r="Y24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,Y$1,FALSE)</f>
@@ -4517,30 +4550,30 @@
       </c>
       <c r="AB24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>6.47</v>
+        <v>5.72</v>
       </c>
       <c r="AC24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>8.52</v>
+        <v>7.16</v>
       </c>
       <c r="AD24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>10.3</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="AE24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>11.81</v>
+        <v>10.75</v>
       </c>
       <c r="AF24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>15.07</v>
+        <v>13.53</v>
       </c>
       <c r="AG24">
         <f>VLOOKUP($S24,Sheet1!$A:$O,AG$1,FALSE)</f>
-        <v>19.95</v>
+        <v>20.260000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>81</v>
       </c>
@@ -4549,23 +4582,23 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" si="11"/>
-        <v>0.01</v>
+        <v>0.19</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="12"/>
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="13"/>
-        <v>23.76</v>
+        <v>31.47</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="14"/>
-        <v>74.16</v>
+        <v>66.3</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="15"/>
-        <v>1.91</v>
+        <v>1.04</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="16"/>
@@ -4577,27 +4610,27 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" si="2"/>
-        <v>99.83</v>
+        <v>98.81</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="4"/>
-        <v>10.09</v>
+        <v>8.11</v>
       </c>
       <c r="L25" s="19">
         <f t="shared" si="5"/>
-        <v>15.33</v>
+        <v>13.34</v>
       </c>
       <c r="M25" s="27">
         <f t="shared" si="6"/>
-        <v>19.82</v>
+        <v>17.98</v>
       </c>
       <c r="N25" s="23">
         <f t="shared" si="7"/>
-        <v>23.44</v>
+        <v>22</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="8"/>
-        <v>28.06</v>
+        <v>26.82</v>
       </c>
       <c r="P25" s="9">
         <f t="shared" si="9"/>
@@ -4605,34 +4638,34 @@
       </c>
       <c r="R25" s="3">
         <f t="shared" si="10"/>
-        <v>1.5290280495759949</v>
+        <v>1.6491754122938531</v>
       </c>
       <c r="S25" t="s">
         <v>79</v>
       </c>
       <c r="T25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.01</v>
+        <v>0.19</v>
       </c>
       <c r="U25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="V25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>99.83</v>
+        <v>98.81</v>
       </c>
       <c r="W25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>23.76</v>
+        <v>31.47</v>
       </c>
       <c r="X25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>74.16</v>
+        <v>66.3</v>
       </c>
       <c r="Y25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>1.91</v>
+        <v>1.04</v>
       </c>
       <c r="Z25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,Z$1,FALSE)</f>
@@ -4644,30 +4677,30 @@
       </c>
       <c r="AB25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>10.09</v>
+        <v>8.11</v>
       </c>
       <c r="AC25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>15.33</v>
+        <v>13.34</v>
       </c>
       <c r="AD25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>19.82</v>
+        <v>17.98</v>
       </c>
       <c r="AE25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>23.44</v>
+        <v>22</v>
       </c>
       <c r="AF25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>28.06</v>
+        <v>26.82</v>
       </c>
       <c r="AG25">
         <f>VLOOKUP($S25,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>38.450000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>81</v>
       </c>
@@ -4676,27 +4709,27 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" si="11"/>
-        <v>0.08</v>
+        <v>1.77</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="12"/>
-        <v>1.65</v>
+        <v>5.08</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="13"/>
-        <v>11.22</v>
+        <v>18.27</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="14"/>
-        <v>72.08</v>
+        <v>66.319999999999993</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="15"/>
-        <v>14.97</v>
+        <v>8.56</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="16"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="17"/>
@@ -4704,66 +4737,66 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="2"/>
-        <v>98.27</v>
+        <v>93.16</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="4"/>
-        <v>10.79</v>
+        <v>8.01</v>
       </c>
       <c r="L26" s="19">
         <f t="shared" si="5"/>
-        <v>19.54</v>
+        <v>16.62</v>
       </c>
       <c r="M26" s="27">
         <f t="shared" si="6"/>
-        <v>24.16</v>
+        <v>21.91</v>
       </c>
       <c r="N26" s="23">
         <f t="shared" si="7"/>
-        <v>28.01</v>
+        <v>26.17</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="8"/>
-        <v>33.53</v>
+        <v>31.85</v>
       </c>
       <c r="P26" s="9">
         <f t="shared" si="9"/>
-        <v>46.36</v>
+        <v>54.85</v>
       </c>
       <c r="R26" s="3">
         <f t="shared" si="10"/>
-        <v>1.433469805527124</v>
+        <v>1.5746089049338148</v>
       </c>
       <c r="S26" t="s">
         <v>78</v>
       </c>
       <c r="T26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.08</v>
+        <v>1.77</v>
       </c>
       <c r="U26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>1.65</v>
+        <v>5.08</v>
       </c>
       <c r="V26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>98.27</v>
+        <v>93.16</v>
       </c>
       <c r="W26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>11.22</v>
+        <v>18.27</v>
       </c>
       <c r="X26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>72.08</v>
+        <v>66.319999999999993</v>
       </c>
       <c r="Y26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>14.97</v>
+        <v>8.56</v>
       </c>
       <c r="Z26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,Z$1,FALSE)</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,AA$1,FALSE)</f>
@@ -4771,30 +4804,30 @@
       </c>
       <c r="AB26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>10.79</v>
+        <v>8.01</v>
       </c>
       <c r="AC26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>19.54</v>
+        <v>16.62</v>
       </c>
       <c r="AD26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>24.16</v>
+        <v>21.91</v>
       </c>
       <c r="AE26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>28.01</v>
+        <v>26.17</v>
       </c>
       <c r="AF26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>33.53</v>
+        <v>31.85</v>
       </c>
       <c r="AG26">
         <f>VLOOKUP($S26,Sheet1!$A:$O,AG$1,FALSE)</f>
-        <v>46.36</v>
+        <v>54.85</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15.75" thickBot="1">
+    <row r="27" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>81</v>
       </c>
@@ -4803,27 +4836,27 @@
       </c>
       <c r="C27" s="12">
         <f t="shared" si="11"/>
-        <v>0.12</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D27" s="12">
         <f t="shared" si="12"/>
-        <v>1.2</v>
+        <v>4.05</v>
       </c>
       <c r="E27" s="12">
         <f t="shared" si="13"/>
-        <v>6.77</v>
+        <v>12.44</v>
       </c>
       <c r="F27" s="12">
         <f t="shared" si="14"/>
-        <v>49.28</v>
+        <v>51.69</v>
       </c>
       <c r="G27" s="12">
         <f t="shared" si="15"/>
-        <v>41.89</v>
+        <v>29.02</v>
       </c>
       <c r="H27" s="12">
         <f t="shared" si="16"/>
-        <v>0.74</v>
+        <v>0.35</v>
       </c>
       <c r="I27" s="12">
         <f t="shared" si="17"/>
@@ -4831,27 +4864,27 @@
       </c>
       <c r="J27" s="12">
         <f t="shared" si="2"/>
-        <v>98.68</v>
+        <v>93.5</v>
       </c>
       <c r="K27" s="12">
         <f t="shared" si="4"/>
-        <v>13.18</v>
+        <v>9.16</v>
       </c>
       <c r="L27" s="20">
         <f t="shared" si="5"/>
-        <v>23.92</v>
+        <v>20.45</v>
       </c>
       <c r="M27" s="28">
         <f t="shared" si="6"/>
-        <v>28.84</v>
+        <v>26.51</v>
       </c>
       <c r="N27" s="24">
         <f t="shared" si="7"/>
-        <v>33.35</v>
+        <v>31.37</v>
       </c>
       <c r="O27" s="12">
         <f t="shared" si="8"/>
-        <v>39.72</v>
+        <v>37.869999999999997</v>
       </c>
       <c r="P27" s="13">
         <f t="shared" si="9"/>
@@ -4859,38 +4892,38 @@
       </c>
       <c r="R27" s="3">
         <f t="shared" si="10"/>
-        <v>1.3942307692307692</v>
+        <v>1.5339853300733497</v>
       </c>
       <c r="S27" t="s">
         <v>76</v>
       </c>
       <c r="T27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.12</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="U27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>1.2</v>
+        <v>4.05</v>
       </c>
       <c r="V27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>98.68</v>
+        <v>93.5</v>
       </c>
       <c r="W27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>6.77</v>
+        <v>12.44</v>
       </c>
       <c r="X27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>49.28</v>
+        <v>51.69</v>
       </c>
       <c r="Y27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>41.89</v>
+        <v>29.02</v>
       </c>
       <c r="Z27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,Z$1,FALSE)</f>
-        <v>0.74</v>
+        <v>0.35</v>
       </c>
       <c r="AA27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,AA$1,FALSE)</f>
@@ -4898,30 +4931,30 @@
       </c>
       <c r="AB27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>13.18</v>
+        <v>9.16</v>
       </c>
       <c r="AC27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>23.92</v>
+        <v>20.45</v>
       </c>
       <c r="AD27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>28.84</v>
+        <v>26.51</v>
       </c>
       <c r="AE27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>33.35</v>
+        <v>31.37</v>
       </c>
       <c r="AF27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>39.72</v>
+        <v>37.869999999999997</v>
       </c>
       <c r="AG27">
         <f>VLOOKUP($S27,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>54.13</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -4930,55 +4963,55 @@
       </c>
       <c r="C28" s="6">
         <f t="shared" si="11"/>
-        <v>0.22</v>
+        <v>1.36</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="12"/>
-        <v>0.55000000000000004</v>
+        <v>1.36</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="13"/>
-        <v>2.2599999999999998</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="14"/>
-        <v>12.73</v>
+        <v>18.03</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="15"/>
-        <v>42.39</v>
+        <v>43.92</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" si="16"/>
-        <v>37.630000000000003</v>
+        <v>28.16</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="17"/>
-        <v>4.22</v>
+        <v>2.52</v>
       </c>
       <c r="J28" s="6">
         <f t="shared" si="2"/>
-        <v>99.23</v>
+        <v>97.28</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="4"/>
-        <v>20.329999999999998</v>
+        <v>15.38</v>
       </c>
       <c r="L28" s="18">
         <f t="shared" si="5"/>
-        <v>35.159999999999997</v>
+        <v>30.94</v>
       </c>
       <c r="M28" s="26">
         <f t="shared" si="6"/>
-        <v>42.94</v>
+        <v>39.47</v>
       </c>
       <c r="N28" s="22">
         <f t="shared" si="7"/>
-        <v>49.61</v>
+        <v>46.99</v>
       </c>
       <c r="O28" s="6">
         <f t="shared" si="8"/>
-        <v>59.2</v>
+        <v>56.81</v>
       </c>
       <c r="P28" s="7">
         <f t="shared" si="9"/>
@@ -4986,69 +5019,69 @@
       </c>
       <c r="R28" s="3">
         <f t="shared" si="10"/>
-        <v>1.4109783845278727</v>
+        <v>1.5187459599224304</v>
       </c>
       <c r="S28" t="s">
         <v>17</v>
       </c>
       <c r="T28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.22</v>
+        <v>1.36</v>
       </c>
       <c r="U28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>0.55000000000000004</v>
+        <v>1.36</v>
       </c>
       <c r="V28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>99.23</v>
+        <v>97.28</v>
       </c>
       <c r="W28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>2.2599999999999998</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="X28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>12.73</v>
+        <v>18.03</v>
       </c>
       <c r="Y28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>42.39</v>
+        <v>43.92</v>
       </c>
       <c r="Z28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,Z$1,FALSE)</f>
-        <v>37.630000000000003</v>
+        <v>28.16</v>
       </c>
       <c r="AA28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,AA$1,FALSE)</f>
-        <v>4.22</v>
+        <v>2.52</v>
       </c>
       <c r="AB28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>20.329999999999998</v>
+        <v>15.38</v>
       </c>
       <c r="AC28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>35.159999999999997</v>
+        <v>30.94</v>
       </c>
       <c r="AD28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>42.94</v>
+        <v>39.47</v>
       </c>
       <c r="AE28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>49.61</v>
+        <v>46.99</v>
       </c>
       <c r="AF28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>59.2</v>
+        <v>56.81</v>
       </c>
       <c r="AG28">
         <f>VLOOKUP($S28,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>78.150000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="15.75" thickBot="1">
+    <row r="29" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>59</v>
       </c>
@@ -5057,55 +5090,55 @@
       </c>
       <c r="C29" s="12">
         <f t="shared" ref="C29" si="47">T29</f>
-        <v>3.4</v>
+        <v>12.57</v>
       </c>
       <c r="D29" s="12">
         <f t="shared" ref="D29" si="48">U29</f>
-        <v>3.45</v>
+        <v>4.82</v>
       </c>
       <c r="E29" s="12">
         <f t="shared" ref="E29" si="49">W29</f>
-        <v>7.81</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="F29" s="12">
         <f t="shared" ref="F29" si="50">X29</f>
-        <v>20.43</v>
+        <v>22.78</v>
       </c>
       <c r="G29" s="12">
         <f t="shared" ref="G29" si="51">Y29</f>
-        <v>31.22</v>
+        <v>26.61</v>
       </c>
       <c r="H29" s="12">
         <f t="shared" ref="H29" si="52">Z29</f>
-        <v>19.03</v>
+        <v>13.75</v>
       </c>
       <c r="I29" s="12">
         <f t="shared" ref="I29" si="53">AA29</f>
-        <v>14.65</v>
+        <v>9.51</v>
       </c>
       <c r="J29" s="12">
         <f t="shared" si="2"/>
-        <v>93.15</v>
+        <v>82.61</v>
       </c>
       <c r="K29" s="12">
         <f t="shared" si="4"/>
-        <v>11.03</v>
+        <v>8.93</v>
       </c>
       <c r="L29" s="20">
         <f t="shared" si="5"/>
-        <v>27.44</v>
+        <v>23.37</v>
       </c>
       <c r="M29" s="28">
         <f t="shared" si="6"/>
-        <v>38.61</v>
+        <v>34.24</v>
       </c>
       <c r="N29" s="24">
         <f t="shared" si="7"/>
-        <v>52.23</v>
+        <v>47.33</v>
       </c>
       <c r="O29" s="12">
         <f t="shared" si="8"/>
-        <v>71.42</v>
+        <v>68.239999999999995</v>
       </c>
       <c r="P29" s="13">
         <f t="shared" si="9"/>
@@ -5113,69 +5146,69 @@
       </c>
       <c r="R29" s="3">
         <f t="shared" si="10"/>
-        <v>1.9034256559766762</v>
+        <v>2.0252460419341034</v>
       </c>
       <c r="S29" t="s">
         <v>58</v>
       </c>
       <c r="T29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>3.4</v>
+        <v>12.57</v>
       </c>
       <c r="U29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>3.45</v>
+        <v>4.82</v>
       </c>
       <c r="V29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>93.15</v>
+        <v>82.61</v>
       </c>
       <c r="W29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>7.81</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="X29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>20.43</v>
+        <v>22.78</v>
       </c>
       <c r="Y29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>31.22</v>
+        <v>26.61</v>
       </c>
       <c r="Z29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,Z$1,FALSE)</f>
-        <v>19.03</v>
+        <v>13.75</v>
       </c>
       <c r="AA29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,AA$1,FALSE)</f>
-        <v>14.65</v>
+        <v>9.51</v>
       </c>
       <c r="AB29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>11.03</v>
+        <v>8.93</v>
       </c>
       <c r="AC29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>27.44</v>
+        <v>23.37</v>
       </c>
       <c r="AD29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>38.61</v>
+        <v>34.24</v>
       </c>
       <c r="AE29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>52.23</v>
+        <v>47.33</v>
       </c>
       <c r="AF29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>71.42</v>
+        <v>68.239999999999995</v>
       </c>
       <c r="AG29">
         <f>VLOOKUP($S29,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>90.16</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>53</v>
       </c>
@@ -5184,27 +5217,27 @@
       </c>
       <c r="C30" s="6">
         <f t="shared" ref="C30:C31" si="54">T30</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.44</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" ref="D30:D31" si="55">U30</f>
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" ref="E30:E31" si="56">W30</f>
-        <v>4.43</v>
+        <v>9.93</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" ref="F30:F31" si="57">X30</f>
-        <v>69.69</v>
+        <v>70.84</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" ref="G30:G31" si="58">Y30</f>
-        <v>25.31</v>
+        <v>17.95</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ref="H30:H31" si="59">Z30</f>
-        <v>0.28999999999999998</v>
+        <v>0.19</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" ref="I30:I31" si="60">AA30</f>
@@ -5212,27 +5245,27 @@
       </c>
       <c r="J30" s="6">
         <f t="shared" si="2"/>
-        <v>99.72</v>
+        <v>98.91</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="4"/>
-        <v>15.45</v>
+        <v>12.18</v>
       </c>
       <c r="L30" s="18">
         <f t="shared" si="5"/>
-        <v>21.5</v>
+        <v>18.97</v>
       </c>
       <c r="M30" s="26">
         <f t="shared" si="6"/>
-        <v>25.73</v>
+        <v>23.53</v>
       </c>
       <c r="N30" s="22">
         <f t="shared" si="7"/>
-        <v>30.18</v>
+        <v>28.25</v>
       </c>
       <c r="O30" s="6">
         <f t="shared" si="8"/>
-        <v>36.770000000000003</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="P30" s="7">
         <f t="shared" si="9"/>
@@ -5240,38 +5273,38 @@
       </c>
       <c r="R30" s="3">
         <f t="shared" si="10"/>
-        <v>1.4037209302325582</v>
+        <v>1.4891934633632051</v>
       </c>
       <c r="S30" t="s">
         <v>52</v>
       </c>
       <c r="T30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.44</v>
       </c>
       <c r="U30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
       <c r="V30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>99.72</v>
+        <v>98.91</v>
       </c>
       <c r="W30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>4.43</v>
+        <v>9.93</v>
       </c>
       <c r="X30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>69.69</v>
+        <v>70.84</v>
       </c>
       <c r="Y30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>25.31</v>
+        <v>17.95</v>
       </c>
       <c r="Z30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,Z$1,FALSE)</f>
-        <v>0.28999999999999998</v>
+        <v>0.19</v>
       </c>
       <c r="AA30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,AA$1,FALSE)</f>
@@ -5279,30 +5312,30 @@
       </c>
       <c r="AB30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>15.45</v>
+        <v>12.18</v>
       </c>
       <c r="AC30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>21.5</v>
+        <v>18.97</v>
       </c>
       <c r="AD30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>25.73</v>
+        <v>23.53</v>
       </c>
       <c r="AE30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>30.18</v>
+        <v>28.25</v>
       </c>
       <c r="AF30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>36.770000000000003</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AG30">
         <f>VLOOKUP($S30,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>53.97</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="15.75" thickBot="1">
+    <row r="31" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>53</v>
       </c>
@@ -5311,55 +5344,55 @@
       </c>
       <c r="C31" s="12">
         <f t="shared" si="54"/>
-        <v>0.5</v>
+        <v>1.62</v>
       </c>
       <c r="D31" s="12">
         <f t="shared" si="55"/>
-        <v>0.99</v>
+        <v>1.92</v>
       </c>
       <c r="E31" s="12">
         <f t="shared" si="56"/>
-        <v>5.86</v>
+        <v>10.38</v>
       </c>
       <c r="F31" s="12">
         <f t="shared" si="57"/>
-        <v>48.04</v>
+        <v>51.7</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="58"/>
-        <v>41.84</v>
+        <v>32.44</v>
       </c>
       <c r="H31" s="12">
         <f t="shared" si="59"/>
-        <v>2.76</v>
+        <v>1.93</v>
       </c>
       <c r="I31" s="12">
         <f t="shared" si="60"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J31" s="12">
         <f t="shared" si="2"/>
-        <v>98.51</v>
+        <v>96.46</v>
       </c>
       <c r="K31" s="12">
         <f t="shared" si="4"/>
-        <v>13.99</v>
+        <v>10.77</v>
       </c>
       <c r="L31" s="20">
         <f t="shared" si="5"/>
-        <v>23.46</v>
+        <v>20.77</v>
       </c>
       <c r="M31" s="28">
         <f t="shared" si="6"/>
-        <v>29.06</v>
+        <v>26.84</v>
       </c>
       <c r="N31" s="24">
         <f t="shared" si="7"/>
-        <v>34.36</v>
+        <v>32.47</v>
       </c>
       <c r="O31" s="12">
         <f t="shared" si="8"/>
-        <v>42.54</v>
+        <v>40.97</v>
       </c>
       <c r="P31" s="13">
         <f t="shared" si="9"/>
@@ -5367,86 +5400,594 @@
       </c>
       <c r="R31" s="3">
         <f t="shared" si="10"/>
-        <v>1.4646206308610399</v>
+        <v>1.5633124699085219</v>
       </c>
       <c r="S31" t="s">
         <v>51</v>
       </c>
       <c r="T31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,T$1,FALSE)</f>
-        <v>0.5</v>
+        <v>1.62</v>
       </c>
       <c r="U31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,U$1,FALSE)</f>
-        <v>0.99</v>
+        <v>1.92</v>
       </c>
       <c r="V31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,V$1,FALSE)</f>
-        <v>98.51</v>
+        <v>96.46</v>
       </c>
       <c r="W31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,W$1,FALSE)</f>
-        <v>5.86</v>
+        <v>10.38</v>
       </c>
       <c r="X31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,X$1,FALSE)</f>
-        <v>48.04</v>
+        <v>51.7</v>
       </c>
       <c r="Y31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,Y$1,FALSE)</f>
-        <v>41.84</v>
+        <v>32.44</v>
       </c>
       <c r="Z31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,Z$1,FALSE)</f>
-        <v>2.76</v>
+        <v>1.93</v>
       </c>
       <c r="AA31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,AA$1,FALSE)</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AB31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,AB$1,FALSE)</f>
-        <v>13.99</v>
+        <v>10.77</v>
       </c>
       <c r="AC31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,AC$1,FALSE)</f>
-        <v>23.46</v>
+        <v>20.77</v>
       </c>
       <c r="AD31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,AD$1,FALSE)</f>
-        <v>29.06</v>
+        <v>26.84</v>
       </c>
       <c r="AE31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,AE$1,FALSE)</f>
-        <v>34.36</v>
+        <v>32.47</v>
       </c>
       <c r="AF31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,AF$1,FALSE)</f>
-        <v>42.54</v>
+        <v>40.97</v>
       </c>
       <c r="AG31">
         <f>VLOOKUP($S31,Sheet1!$A:$O,AG$1,FALSE)</f>
         <v>61.67</v>
       </c>
     </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" ref="C32:C35" si="61">T32</f>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" ref="D32:D35" si="62">U32</f>
+        <v>13.31</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" ref="E32:E35" si="63">W32</f>
+        <v>81.37</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" ref="F32:F35" si="64">X32</f>
+        <v>3.29</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" ref="G32:G35" si="65">Y32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" ref="H32:H35" si="66">Z32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" ref="I32:I35" si="67">AA32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" ref="J32:J35" si="68">V32</f>
+        <v>84.66</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" ref="K32:K35" si="69">AB32</f>
+        <v>5.47</v>
+      </c>
+      <c r="L32" s="18">
+        <f t="shared" ref="L32:L35" si="70">AC32</f>
+        <v>6.72</v>
+      </c>
+      <c r="M32" s="26">
+        <f t="shared" ref="M32:M35" si="71">AD32</f>
+        <v>8.33</v>
+      </c>
+      <c r="N32" s="22">
+        <f t="shared" ref="N32:N35" si="72">AE32</f>
+        <v>10.65</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" ref="O32:O35" si="73">AF32</f>
+        <v>14.31</v>
+      </c>
+      <c r="P32" s="7">
+        <f t="shared" ref="P32:P35" si="74">AG32</f>
+        <v>24.92</v>
+      </c>
+      <c r="R32" s="3">
+        <f t="shared" ref="R32:R35" si="75">N32/L32</f>
+        <v>1.5848214285714286</v>
+      </c>
+      <c r="S32" t="s">
+        <v>85</v>
+      </c>
+      <c r="T32">
+        <f>VLOOKUP($S32,Sheet1!$A:$O,T$1,FALSE)</f>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="U32">
+        <f>VLOOKUP($S32,Sheet1!$A:$O,U$1,FALSE)</f>
+        <v>13.31</v>
+      </c>
+      <c r="V32">
+        <f>VLOOKUP($S32,Sheet1!$A:$O,V$1,FALSE)</f>
+        <v>84.66</v>
+      </c>
+      <c r="W32">
+        <f>VLOOKUP($S32,Sheet1!$A:$O,W$1,FALSE)</f>
+        <v>81.37</v>
+      </c>
+      <c r="X32">
+        <f>VLOOKUP($S32,Sheet1!$A:$O,X$1,FALSE)</f>
+        <v>3.29</v>
+      </c>
+      <c r="Y32">
+        <f>VLOOKUP($S32,Sheet1!$A:$O,Y$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <f>VLOOKUP($S32,Sheet1!$A:$O,Z$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f>VLOOKUP($S32,Sheet1!$A:$O,AA$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <f>VLOOKUP($S32,Sheet1!$A:$O,AB$1,FALSE)</f>
+        <v>5.47</v>
+      </c>
+      <c r="AC32">
+        <f>VLOOKUP($S32,Sheet1!$A:$O,AC$1,FALSE)</f>
+        <v>6.72</v>
+      </c>
+      <c r="AD32">
+        <f>VLOOKUP($S32,Sheet1!$A:$O,AD$1,FALSE)</f>
+        <v>8.33</v>
+      </c>
+      <c r="AE32">
+        <f>VLOOKUP($S32,Sheet1!$A:$O,AE$1,FALSE)</f>
+        <v>10.65</v>
+      </c>
+      <c r="AF32">
+        <f>VLOOKUP($S32,Sheet1!$A:$O,AF$1,FALSE)</f>
+        <v>14.31</v>
+      </c>
+      <c r="AG32">
+        <f>VLOOKUP($S32,Sheet1!$A:$O,AG$1,FALSE)</f>
+        <v>24.92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="12">
+        <f t="shared" si="61"/>
+        <v>5.87</v>
+      </c>
+      <c r="D33" s="12">
+        <f t="shared" si="62"/>
+        <v>26.94</v>
+      </c>
+      <c r="E33" s="12">
+        <f t="shared" si="63"/>
+        <v>66.66</v>
+      </c>
+      <c r="F33" s="12">
+        <f t="shared" si="64"/>
+        <v>0.53</v>
+      </c>
+      <c r="G33" s="12">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="12">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="12">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
+        <f t="shared" si="68"/>
+        <v>67.2</v>
+      </c>
+      <c r="K33" s="12">
+        <f t="shared" si="69"/>
+        <v>5.35</v>
+      </c>
+      <c r="L33" s="20">
+        <f t="shared" si="70"/>
+        <v>6.22</v>
+      </c>
+      <c r="M33" s="28">
+        <f t="shared" si="71"/>
+        <v>7.33</v>
+      </c>
+      <c r="N33" s="24">
+        <f t="shared" si="72"/>
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="O33" s="12">
+        <f t="shared" si="73"/>
+        <v>12.02</v>
+      </c>
+      <c r="P33" s="13">
+        <f t="shared" si="74"/>
+        <v>23.44</v>
+      </c>
+      <c r="R33" s="3">
+        <f t="shared" si="75"/>
+        <v>1.4276527331189712</v>
+      </c>
+      <c r="S33" t="s">
+        <v>87</v>
+      </c>
+      <c r="T33">
+        <f>VLOOKUP($S33,Sheet1!$A:$O,T$1,FALSE)</f>
+        <v>5.87</v>
+      </c>
+      <c r="U33">
+        <f>VLOOKUP($S33,Sheet1!$A:$O,U$1,FALSE)</f>
+        <v>26.94</v>
+      </c>
+      <c r="V33">
+        <f>VLOOKUP($S33,Sheet1!$A:$O,V$1,FALSE)</f>
+        <v>67.2</v>
+      </c>
+      <c r="W33">
+        <f>VLOOKUP($S33,Sheet1!$A:$O,W$1,FALSE)</f>
+        <v>66.66</v>
+      </c>
+      <c r="X33">
+        <f>VLOOKUP($S33,Sheet1!$A:$O,X$1,FALSE)</f>
+        <v>0.53</v>
+      </c>
+      <c r="Y33">
+        <f>VLOOKUP($S33,Sheet1!$A:$O,Y$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f>VLOOKUP($S33,Sheet1!$A:$O,Z$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <f>VLOOKUP($S33,Sheet1!$A:$O,AA$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <f>VLOOKUP($S33,Sheet1!$A:$O,AB$1,FALSE)</f>
+        <v>5.35</v>
+      </c>
+      <c r="AC33">
+        <f>VLOOKUP($S33,Sheet1!$A:$O,AC$1,FALSE)</f>
+        <v>6.22</v>
+      </c>
+      <c r="AD33">
+        <f>VLOOKUP($S33,Sheet1!$A:$O,AD$1,FALSE)</f>
+        <v>7.33</v>
+      </c>
+      <c r="AE33">
+        <f>VLOOKUP($S33,Sheet1!$A:$O,AE$1,FALSE)</f>
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="AF33">
+        <f>VLOOKUP($S33,Sheet1!$A:$O,AF$1,FALSE)</f>
+        <v>12.02</v>
+      </c>
+      <c r="AG33">
+        <f>VLOOKUP($S33,Sheet1!$A:$O,AG$1,FALSE)</f>
+        <v>23.44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" si="61"/>
+        <v>0.16</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" si="62"/>
+        <v>0.09</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="63"/>
+        <v>9.66</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="64"/>
+        <v>88.44</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="65"/>
+        <v>1.65</v>
+      </c>
+      <c r="H34" s="6">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <f t="shared" si="68"/>
+        <v>99.75</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" si="69"/>
+        <v>13.14</v>
+      </c>
+      <c r="L34" s="18">
+        <f t="shared" si="70"/>
+        <v>17.510000000000002</v>
+      </c>
+      <c r="M34" s="26">
+        <f t="shared" si="71"/>
+        <v>20.57</v>
+      </c>
+      <c r="N34" s="22">
+        <f t="shared" si="72"/>
+        <v>23.12</v>
+      </c>
+      <c r="O34" s="6">
+        <f t="shared" si="73"/>
+        <v>27.53</v>
+      </c>
+      <c r="P34" s="7">
+        <f t="shared" si="74"/>
+        <v>42.61</v>
+      </c>
+      <c r="R34" s="3">
+        <f t="shared" si="75"/>
+        <v>1.320388349514563</v>
+      </c>
+      <c r="S34" t="s">
+        <v>86</v>
+      </c>
+      <c r="T34">
+        <f>VLOOKUP($S34,Sheet1!$A:$O,T$1,FALSE)</f>
+        <v>0.16</v>
+      </c>
+      <c r="U34">
+        <f>VLOOKUP($S34,Sheet1!$A:$O,U$1,FALSE)</f>
+        <v>0.09</v>
+      </c>
+      <c r="V34">
+        <f>VLOOKUP($S34,Sheet1!$A:$O,V$1,FALSE)</f>
+        <v>99.75</v>
+      </c>
+      <c r="W34">
+        <f>VLOOKUP($S34,Sheet1!$A:$O,W$1,FALSE)</f>
+        <v>9.66</v>
+      </c>
+      <c r="X34">
+        <f>VLOOKUP($S34,Sheet1!$A:$O,X$1,FALSE)</f>
+        <v>88.44</v>
+      </c>
+      <c r="Y34">
+        <f>VLOOKUP($S34,Sheet1!$A:$O,Y$1,FALSE)</f>
+        <v>1.65</v>
+      </c>
+      <c r="Z34">
+        <f>VLOOKUP($S34,Sheet1!$A:$O,Z$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <f>VLOOKUP($S34,Sheet1!$A:$O,AA$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <f>VLOOKUP($S34,Sheet1!$A:$O,AB$1,FALSE)</f>
+        <v>13.14</v>
+      </c>
+      <c r="AC34">
+        <f>VLOOKUP($S34,Sheet1!$A:$O,AC$1,FALSE)</f>
+        <v>17.510000000000002</v>
+      </c>
+      <c r="AD34">
+        <f>VLOOKUP($S34,Sheet1!$A:$O,AD$1,FALSE)</f>
+        <v>20.57</v>
+      </c>
+      <c r="AE34">
+        <f>VLOOKUP($S34,Sheet1!$A:$O,AE$1,FALSE)</f>
+        <v>23.12</v>
+      </c>
+      <c r="AF34">
+        <f>VLOOKUP($S34,Sheet1!$A:$O,AF$1,FALSE)</f>
+        <v>27.53</v>
+      </c>
+      <c r="AG34">
+        <f>VLOOKUP($S34,Sheet1!$A:$O,AG$1,FALSE)</f>
+        <v>42.61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="12">
+        <f t="shared" si="61"/>
+        <v>1.29</v>
+      </c>
+      <c r="D35" s="12">
+        <f t="shared" si="62"/>
+        <v>8.25</v>
+      </c>
+      <c r="E35" s="12">
+        <f t="shared" si="63"/>
+        <v>41.19</v>
+      </c>
+      <c r="F35" s="12">
+        <f t="shared" si="64"/>
+        <v>48.67</v>
+      </c>
+      <c r="G35" s="12">
+        <f t="shared" si="65"/>
+        <v>0.6</v>
+      </c>
+      <c r="H35" s="12">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="12">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="12">
+        <f t="shared" si="68"/>
+        <v>90.47</v>
+      </c>
+      <c r="K35" s="12">
+        <f t="shared" si="69"/>
+        <v>6.83</v>
+      </c>
+      <c r="L35" s="20">
+        <f t="shared" si="70"/>
+        <v>11.58</v>
+      </c>
+      <c r="M35" s="28">
+        <f t="shared" si="71"/>
+        <v>15.83</v>
+      </c>
+      <c r="N35" s="24">
+        <f t="shared" si="72"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="O35" s="12">
+        <f t="shared" si="73"/>
+        <v>25.38</v>
+      </c>
+      <c r="P35" s="13">
+        <f t="shared" si="74"/>
+        <v>41.28</v>
+      </c>
+      <c r="R35" s="3">
+        <f t="shared" si="75"/>
+        <v>1.7357512953367877</v>
+      </c>
+      <c r="S35" t="s">
+        <v>88</v>
+      </c>
+      <c r="T35">
+        <f>VLOOKUP($S35,Sheet1!$A:$O,T$1,FALSE)</f>
+        <v>1.29</v>
+      </c>
+      <c r="U35">
+        <f>VLOOKUP($S35,Sheet1!$A:$O,U$1,FALSE)</f>
+        <v>8.25</v>
+      </c>
+      <c r="V35">
+        <f>VLOOKUP($S35,Sheet1!$A:$O,V$1,FALSE)</f>
+        <v>90.47</v>
+      </c>
+      <c r="W35">
+        <f>VLOOKUP($S35,Sheet1!$A:$O,W$1,FALSE)</f>
+        <v>41.19</v>
+      </c>
+      <c r="X35">
+        <f>VLOOKUP($S35,Sheet1!$A:$O,X$1,FALSE)</f>
+        <v>48.67</v>
+      </c>
+      <c r="Y35">
+        <f>VLOOKUP($S35,Sheet1!$A:$O,Y$1,FALSE)</f>
+        <v>0.6</v>
+      </c>
+      <c r="Z35">
+        <f>VLOOKUP($S35,Sheet1!$A:$O,Z$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <f>VLOOKUP($S35,Sheet1!$A:$O,AA$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <f>VLOOKUP($S35,Sheet1!$A:$O,AB$1,FALSE)</f>
+        <v>6.83</v>
+      </c>
+      <c r="AC35">
+        <f>VLOOKUP($S35,Sheet1!$A:$O,AC$1,FALSE)</f>
+        <v>11.58</v>
+      </c>
+      <c r="AD35">
+        <f>VLOOKUP($S35,Sheet1!$A:$O,AD$1,FALSE)</f>
+        <v>15.83</v>
+      </c>
+      <c r="AE35">
+        <f>VLOOKUP($S35,Sheet1!$A:$O,AE$1,FALSE)</f>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AF35">
+        <f>VLOOKUP($S35,Sheet1!$A:$O,AF$1,FALSE)</f>
+        <v>25.38</v>
+      </c>
+      <c r="AG35">
+        <f>VLOOKUP($S35,Sheet1!$A:$O,AG$1,FALSE)</f>
+        <v>41.28</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:AE4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE4">
     <sortCondition ref="AD2:AD4"/>
   </sortState>
   <conditionalFormatting sqref="C2:J7 C9:J17 C23:J29">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5454,11 +5995,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:P17 K2:P7 R2:R17 R23:R31 K23:P29">
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF5A8AC6"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
@@ -5466,11 +6007,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R17 R23:R31">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5478,11 +6019,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:P17 K2:P7 K23:P29">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -5490,19 +6031,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:J30">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5510,11 +6051,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:P30">
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF5A8AC6"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
@@ -5522,11 +6063,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:P30">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -5534,19 +6075,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:J31">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5554,11 +6095,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:P31">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF5A8AC6"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
@@ -5566,11 +6107,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:P31">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -5578,11 +6119,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:P17 K2:P7 K23:P31">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -5590,29 +6131,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:J7 C9:J17 C23:J31">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:J8">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5620,11 +6161,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:P8">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF5A8AC6"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
@@ -5632,11 +6173,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:P8">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -5644,11 +6185,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:P8">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -5656,21 +6197,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:J8">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:P17 K23:P31">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF5A8AC6"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
@@ -5678,21 +6219,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:I17 C23:I31">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J17 J23:J31">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5700,19 +6241,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:J22">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5720,11 +6261,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18:R22 K18:P22">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF5A8AC6"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
@@ -5732,11 +6273,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18:R22">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5744,11 +6285,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:P22">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -5756,11 +6297,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:P22">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -5768,21 +6309,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:J22">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:P22">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF5A8AC6"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
@@ -5790,21 +6331,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:I22">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:J22">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5812,14 +6353,408 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:P31">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R32:R33">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R32:R33">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:J32">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:P32">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:P32">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:J33">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:P33">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:P33">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:P33">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:J33">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:P33">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:I33">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J33">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:P33">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R34:R35">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R34:R35">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:J34">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:P34">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:P34">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:J35">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:P35">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:P35">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:P35">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:J35">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:P35">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:I35">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:J35">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:P35">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P35">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J35">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -5829,25 +6764,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:O34"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5894,27 +6829,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="C2">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D2">
-        <v>99.93</v>
+        <v>99.62</v>
       </c>
       <c r="E2">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="F2">
-        <v>77.8</v>
+        <v>84.82</v>
       </c>
       <c r="G2">
-        <v>22.04</v>
+        <v>14.56</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -5923,42 +6858,42 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>23.84</v>
+        <v>22.31</v>
       </c>
       <c r="K2">
-        <v>26.67</v>
+        <v>25.81</v>
       </c>
       <c r="L2">
-        <v>28.22</v>
+        <v>27.26</v>
       </c>
       <c r="M2">
-        <v>29.73</v>
+        <v>28.87</v>
       </c>
       <c r="N2">
-        <v>31.7</v>
+        <v>31.07</v>
       </c>
       <c r="O2">
         <v>37.32</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.18</v>
+        <v>0.38</v>
       </c>
       <c r="C3">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="D3">
-        <v>99.77</v>
+        <v>99.54</v>
       </c>
       <c r="E3">
-        <v>11.34</v>
+        <v>15.16</v>
       </c>
       <c r="F3">
-        <v>88.43</v>
+        <v>84.38</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -5970,39 +6905,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.77</v>
+        <v>11.57</v>
       </c>
       <c r="K3">
-        <v>17.18</v>
+        <v>16.18</v>
       </c>
       <c r="L3">
-        <v>19.170000000000002</v>
+        <v>18.2</v>
       </c>
       <c r="M3">
-        <v>20.97</v>
+        <v>20.39</v>
       </c>
       <c r="N3">
-        <v>22.84</v>
+        <v>22.19</v>
       </c>
       <c r="O3">
         <v>28.63</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5.48</v>
       </c>
       <c r="C4">
-        <v>3.73</v>
+        <v>12.77</v>
       </c>
       <c r="D4">
-        <v>96.27</v>
+        <v>81.75</v>
       </c>
       <c r="E4">
-        <v>96.27</v>
+        <v>81.75</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6017,39 +6952,39 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.99</v>
+        <v>5.58</v>
       </c>
       <c r="K4">
-        <v>7.32</v>
+        <v>6.55</v>
       </c>
       <c r="L4">
-        <v>8.41</v>
+        <v>7.56</v>
       </c>
       <c r="M4">
-        <v>10.11</v>
+        <v>8.99</v>
       </c>
       <c r="N4">
-        <v>12.14</v>
+        <v>11.29</v>
       </c>
       <c r="O4">
         <v>14.04</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5">
-        <v>22.07</v>
+        <v>43.86</v>
       </c>
       <c r="C5">
-        <v>69.41</v>
+        <v>50.75</v>
       </c>
       <c r="D5">
-        <v>8.52</v>
+        <v>5.39</v>
       </c>
       <c r="E5">
-        <v>8.52</v>
+        <v>5.39</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6064,39 +6999,39 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.28</v>
+        <v>5.24</v>
       </c>
       <c r="K5">
-        <v>6.12</v>
+        <v>5.87</v>
       </c>
       <c r="L5">
-        <v>6.96</v>
+        <v>6.54</v>
       </c>
       <c r="M5">
-        <v>7.8</v>
+        <v>7.36</v>
       </c>
       <c r="N5">
-        <v>8.9</v>
+        <v>8.49</v>
       </c>
       <c r="O5">
-        <v>13.1</v>
+        <v>13.38</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>2.1800000000000002</v>
+        <v>7.8</v>
       </c>
       <c r="C6">
-        <v>3.83</v>
+        <v>7.2</v>
       </c>
       <c r="D6">
-        <v>93.99</v>
+        <v>85</v>
       </c>
       <c r="E6">
-        <v>93.99</v>
+        <v>85</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6111,45 +7046,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.13</v>
+        <v>5.62</v>
       </c>
       <c r="K6">
-        <v>7.21</v>
+        <v>6.47</v>
       </c>
       <c r="L6">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="M6">
-        <v>8.33</v>
+        <v>7.7</v>
       </c>
       <c r="N6">
-        <v>9.08</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="O6">
-        <v>12.47</v>
+        <v>12.25</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="C7">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D7">
-        <v>99.98</v>
+        <v>99.67</v>
       </c>
       <c r="E7">
-        <v>0.19</v>
+        <v>0.87</v>
       </c>
       <c r="F7">
-        <v>88.13</v>
+        <v>92.86</v>
       </c>
       <c r="G7">
-        <v>11.66</v>
+        <v>5.94</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -6158,92 +7093,92 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>22.6</v>
+        <v>20.52</v>
       </c>
       <c r="K7">
-        <v>25.87</v>
+        <v>24.19</v>
       </c>
       <c r="L7">
-        <v>27.45</v>
+        <v>26.26</v>
       </c>
       <c r="M7">
-        <v>28.78</v>
+        <v>27.74</v>
       </c>
       <c r="N7">
-        <v>31.8</v>
+        <v>30.32</v>
       </c>
       <c r="O7">
-        <v>41.73</v>
+        <v>40.53</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.12</v>
+        <v>0.92</v>
       </c>
       <c r="C8">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>99.68</v>
+        <v>98.68</v>
       </c>
       <c r="E8">
-        <v>0.52</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F8">
-        <v>28.25</v>
+        <v>44.11</v>
       </c>
       <c r="G8">
-        <v>66.81</v>
+        <v>50.88</v>
       </c>
       <c r="H8">
-        <v>4.0999999999999996</v>
+        <v>1.48</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>23.49</v>
+        <v>18.91</v>
       </c>
       <c r="K8">
-        <v>29.27</v>
+        <v>26.19</v>
       </c>
       <c r="L8">
-        <v>34.369999999999997</v>
+        <v>30.62</v>
       </c>
       <c r="M8">
-        <v>39.659999999999997</v>
+        <v>36.25</v>
       </c>
       <c r="N8">
-        <v>44.61</v>
+        <v>42.57</v>
       </c>
       <c r="O8">
         <v>50.19</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.21</v>
+        <v>1.83</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>1.22</v>
       </c>
       <c r="D9">
-        <v>99.29</v>
+        <v>96.95</v>
       </c>
       <c r="E9">
-        <v>2.79</v>
+        <v>5.81</v>
       </c>
       <c r="F9">
-        <v>45.93</v>
+        <v>53.63</v>
       </c>
       <c r="G9">
-        <v>50.57</v>
+        <v>37.51</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -6252,45 +7187,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>18.079999999999998</v>
+        <v>13.79</v>
       </c>
       <c r="K9">
-        <v>26.54</v>
+        <v>23.99</v>
       </c>
       <c r="L9">
-        <v>30.13</v>
+        <v>28.46</v>
       </c>
       <c r="M9">
-        <v>32.520000000000003</v>
+        <v>31.51</v>
       </c>
       <c r="N9">
-        <v>35.35</v>
+        <v>34.53</v>
       </c>
       <c r="O9">
         <v>43.13</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.51</v>
+        <v>3.38</v>
       </c>
       <c r="C10">
-        <v>0.78</v>
+        <v>1.87</v>
       </c>
       <c r="D10">
-        <v>98.71</v>
+        <v>94.75</v>
       </c>
       <c r="E10">
-        <v>3.81</v>
+        <v>5.94</v>
       </c>
       <c r="F10">
-        <v>33.9</v>
+        <v>43.7</v>
       </c>
       <c r="G10">
-        <v>61</v>
+        <v>45.11</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -6299,133 +7234,133 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>17.399999999999999</v>
+        <v>12.99</v>
       </c>
       <c r="K10">
-        <v>28.39</v>
+        <v>26.52</v>
       </c>
       <c r="L10">
-        <v>31.07</v>
+        <v>29.65</v>
       </c>
       <c r="M10">
-        <v>32.86</v>
+        <v>31.83</v>
       </c>
       <c r="N10">
-        <v>35.56</v>
+        <v>34.5</v>
       </c>
       <c r="O10">
         <v>44.89</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.22</v>
+        <v>1.36</v>
       </c>
       <c r="C11">
-        <v>0.55000000000000004</v>
+        <v>1.36</v>
       </c>
       <c r="D11">
-        <v>99.23</v>
+        <v>97.28</v>
       </c>
       <c r="E11">
-        <v>2.2599999999999998</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="F11">
-        <v>12.73</v>
+        <v>18.03</v>
       </c>
       <c r="G11">
-        <v>42.39</v>
+        <v>43.92</v>
       </c>
       <c r="H11">
-        <v>37.630000000000003</v>
+        <v>28.16</v>
       </c>
       <c r="I11">
-        <v>4.22</v>
+        <v>2.52</v>
       </c>
       <c r="J11">
-        <v>20.329999999999998</v>
+        <v>15.38</v>
       </c>
       <c r="K11">
-        <v>35.159999999999997</v>
+        <v>30.94</v>
       </c>
       <c r="L11">
-        <v>42.94</v>
+        <v>39.47</v>
       </c>
       <c r="M11">
-        <v>49.61</v>
+        <v>46.99</v>
       </c>
       <c r="N11">
-        <v>59.2</v>
+        <v>56.81</v>
       </c>
       <c r="O11">
         <v>78.150000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.1</v>
+        <v>1.97</v>
       </c>
       <c r="C12">
-        <v>0.86</v>
+        <v>2.99</v>
       </c>
       <c r="D12">
-        <v>99.04</v>
+        <v>95.04</v>
       </c>
       <c r="E12">
-        <v>6.17</v>
+        <v>11.46</v>
       </c>
       <c r="F12">
-        <v>39.659999999999997</v>
+        <v>43.63</v>
       </c>
       <c r="G12">
-        <v>51</v>
+        <v>38.76</v>
       </c>
       <c r="H12">
-        <v>2.2200000000000002</v>
+        <v>1.19</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>13.66</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="K12">
-        <v>25.53</v>
+        <v>21.82</v>
       </c>
       <c r="L12">
-        <v>30.77</v>
+        <v>28.24</v>
       </c>
       <c r="M12">
-        <v>35.53</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="N12">
-        <v>42.67</v>
+        <v>40.770000000000003</v>
       </c>
       <c r="O12">
         <v>55.52</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13">
-        <v>20.350000000000001</v>
+        <v>27.71</v>
       </c>
       <c r="C13">
-        <v>55.55</v>
+        <v>58.94</v>
       </c>
       <c r="D13">
-        <v>24.1</v>
+        <v>13.36</v>
       </c>
       <c r="E13">
-        <v>24.1</v>
+        <v>13.36</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -6440,136 +7375,136 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.0999999999999996</v>
+        <v>5.09</v>
       </c>
       <c r="K13">
-        <v>5.46</v>
+        <v>5.33</v>
       </c>
       <c r="L13">
-        <v>5.99</v>
+        <v>5.71</v>
       </c>
       <c r="M13">
-        <v>6.87</v>
+        <v>6.5</v>
       </c>
       <c r="N13">
-        <v>8.89</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="O13">
-        <v>13.07</v>
+        <v>12.89</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.01</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C14">
-        <v>0.25</v>
+        <v>1.7</v>
       </c>
       <c r="D14">
-        <v>99.73</v>
+        <v>98.02</v>
       </c>
       <c r="E14">
-        <v>17.43</v>
+        <v>24.42</v>
       </c>
       <c r="F14">
-        <v>70.53</v>
+        <v>65.92</v>
       </c>
       <c r="G14">
-        <v>11.77</v>
+        <v>7.67</v>
       </c>
       <c r="H14">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.66</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="K14">
-        <v>17.100000000000001</v>
+        <v>15.03</v>
       </c>
       <c r="L14">
-        <v>22.39</v>
+        <v>20.66</v>
       </c>
       <c r="M14">
-        <v>26.93</v>
+        <v>25.48</v>
       </c>
       <c r="N14">
-        <v>32.630000000000003</v>
+        <v>31.32</v>
       </c>
       <c r="O14">
         <v>46.91</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="C15">
-        <v>0.08</v>
+        <v>0.39</v>
       </c>
       <c r="D15">
-        <v>99.88</v>
+        <v>99.21</v>
       </c>
       <c r="E15">
-        <v>0.56999999999999995</v>
+        <v>1.99</v>
       </c>
       <c r="F15">
-        <v>25.32</v>
+        <v>38.96</v>
       </c>
       <c r="G15">
-        <v>73.12</v>
+        <v>57.82</v>
       </c>
       <c r="H15">
-        <v>0.87</v>
+        <v>0.45</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>24.12</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="K15">
-        <v>29.81</v>
+        <v>27.2</v>
       </c>
       <c r="L15">
-        <v>33.159999999999997</v>
+        <v>31.23</v>
       </c>
       <c r="M15">
-        <v>36.03</v>
+        <v>34.19</v>
       </c>
       <c r="N15">
-        <v>39.97</v>
+        <v>38.369999999999997</v>
       </c>
       <c r="O15">
         <v>51.83</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01</v>
+        <v>0.66</v>
       </c>
       <c r="C16">
-        <v>2.58</v>
+        <v>11.89</v>
       </c>
       <c r="D16">
-        <v>97.41</v>
+        <v>87.45</v>
       </c>
       <c r="E16">
-        <v>90.3</v>
+        <v>84.34</v>
       </c>
       <c r="F16">
-        <v>7.12</v>
+        <v>3.11</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -6581,45 +7516,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.55</v>
+        <v>5.81</v>
       </c>
       <c r="K16">
-        <v>8.98</v>
+        <v>7.59</v>
       </c>
       <c r="L16">
-        <v>11.07</v>
+        <v>9.65</v>
       </c>
       <c r="M16">
-        <v>12.89</v>
+        <v>11.69</v>
       </c>
       <c r="N16">
-        <v>15.58</v>
+        <v>14.38</v>
       </c>
       <c r="O16">
-        <v>26.74</v>
+        <v>26.23</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.66</v>
+        <v>6.19</v>
       </c>
       <c r="C17">
-        <v>0.82</v>
+        <v>2.82</v>
       </c>
       <c r="D17">
-        <v>98.52</v>
+        <v>90.99</v>
       </c>
       <c r="E17">
-        <v>5.96</v>
+        <v>12.23</v>
       </c>
       <c r="F17">
-        <v>90.85</v>
+        <v>78.010000000000005</v>
       </c>
       <c r="G17">
-        <v>1.72</v>
+        <v>0.75</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -6628,45 +7563,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>14.18</v>
+        <v>10.65</v>
       </c>
       <c r="K17">
-        <v>20.14</v>
+        <v>17.64</v>
       </c>
       <c r="L17">
-        <v>23.34</v>
+        <v>21.52</v>
       </c>
       <c r="M17">
-        <v>26.1</v>
+        <v>24.37</v>
       </c>
       <c r="N17">
-        <v>28.75</v>
+        <v>27.67</v>
       </c>
       <c r="O17">
         <v>36.25</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.92</v>
+        <v>9.94</v>
       </c>
       <c r="C18">
-        <v>1.17</v>
+        <v>3.18</v>
       </c>
       <c r="D18">
-        <v>97.91</v>
+        <v>86.88</v>
       </c>
       <c r="E18">
-        <v>4.04</v>
+        <v>7.02</v>
       </c>
       <c r="F18">
-        <v>44.07</v>
+        <v>48.46</v>
       </c>
       <c r="G18">
-        <v>49.81</v>
+        <v>31.4</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -6675,42 +7610,42 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>16.55</v>
+        <v>10.96</v>
       </c>
       <c r="K18">
-        <v>27.5</v>
+        <v>25.21</v>
       </c>
       <c r="L18">
-        <v>30.1</v>
+        <v>28.55</v>
       </c>
       <c r="M18">
-        <v>32.08</v>
+        <v>31.05</v>
       </c>
       <c r="N18">
-        <v>34.35</v>
+        <v>33.42</v>
       </c>
       <c r="O18">
         <v>40.630000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>3.48</v>
       </c>
       <c r="D19">
-        <v>98.5</v>
+        <v>87.3</v>
       </c>
       <c r="E19">
-        <v>11.03</v>
+        <v>18.75</v>
       </c>
       <c r="F19">
-        <v>87.47</v>
+        <v>68.55</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -6722,139 +7657,139 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.72</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="K19">
-        <v>17.690000000000001</v>
+        <v>15.76</v>
       </c>
       <c r="L19">
-        <v>19.850000000000001</v>
+        <v>18.23</v>
       </c>
       <c r="M19">
-        <v>21.66</v>
+        <v>20.53</v>
       </c>
       <c r="N19">
-        <v>24.04</v>
+        <v>23.11</v>
       </c>
       <c r="O19">
         <v>27.27</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>51</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>1.62</v>
       </c>
       <c r="C20">
-        <v>0.99</v>
+        <v>1.92</v>
       </c>
       <c r="D20">
-        <v>98.51</v>
+        <v>96.46</v>
       </c>
       <c r="E20">
-        <v>5.86</v>
+        <v>10.38</v>
       </c>
       <c r="F20">
-        <v>48.04</v>
+        <v>51.7</v>
       </c>
       <c r="G20">
-        <v>41.84</v>
+        <v>32.44</v>
       </c>
       <c r="H20">
-        <v>2.76</v>
+        <v>1.93</v>
       </c>
       <c r="I20">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>13.99</v>
+        <v>10.77</v>
       </c>
       <c r="K20">
-        <v>23.46</v>
+        <v>20.77</v>
       </c>
       <c r="L20">
-        <v>29.06</v>
+        <v>26.84</v>
       </c>
       <c r="M20">
-        <v>34.36</v>
+        <v>32.47</v>
       </c>
       <c r="N20">
-        <v>42.54</v>
+        <v>40.97</v>
       </c>
       <c r="O20">
         <v>61.67</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
       <c r="B21">
-        <v>7.0000000000000007E-2</v>
+        <v>0.44</v>
       </c>
       <c r="C21">
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
       <c r="D21">
-        <v>99.72</v>
+        <v>98.91</v>
       </c>
       <c r="E21">
-        <v>4.43</v>
+        <v>9.93</v>
       </c>
       <c r="F21">
-        <v>69.69</v>
+        <v>70.84</v>
       </c>
       <c r="G21">
-        <v>25.31</v>
+        <v>17.95</v>
       </c>
       <c r="H21">
-        <v>0.28999999999999998</v>
+        <v>0.19</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>15.45</v>
+        <v>12.18</v>
       </c>
       <c r="K21">
-        <v>21.5</v>
+        <v>18.97</v>
       </c>
       <c r="L21">
-        <v>25.73</v>
+        <v>23.53</v>
       </c>
       <c r="M21">
-        <v>30.18</v>
+        <v>28.25</v>
       </c>
       <c r="N21">
-        <v>36.770000000000003</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="O21">
         <v>53.97</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>56</v>
       </c>
       <c r="B22">
-        <v>0.31</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="C22">
-        <v>2.5</v>
+        <v>7.51</v>
       </c>
       <c r="D22">
-        <v>97.19</v>
+        <v>87.64</v>
       </c>
       <c r="E22">
-        <v>12.98</v>
+        <v>22.42</v>
       </c>
       <c r="F22">
-        <v>83.86</v>
+        <v>65.14</v>
       </c>
       <c r="G22">
-        <v>0.34</v>
+        <v>0.08</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -6863,42 +7798,42 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.68</v>
+        <v>7.08</v>
       </c>
       <c r="K22">
-        <v>17.760000000000002</v>
+        <v>14.84</v>
       </c>
       <c r="L22">
-        <v>20.48</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="M22">
-        <v>22.64</v>
+        <v>21.21</v>
       </c>
       <c r="N22">
-        <v>25.71</v>
+        <v>24.34</v>
       </c>
       <c r="O22">
         <v>36.24</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>57</v>
       </c>
       <c r="B23">
-        <v>1.45</v>
+        <v>26.81</v>
       </c>
       <c r="C23">
-        <v>26.3</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="D23">
-        <v>72.25</v>
+        <v>40.07</v>
       </c>
       <c r="E23">
-        <v>72.22</v>
+        <v>40.07</v>
       </c>
       <c r="F23">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -6910,42 +7845,42 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.31</v>
+        <v>5.24</v>
       </c>
       <c r="K23">
-        <v>6.09</v>
+        <v>5.76</v>
       </c>
       <c r="L23">
-        <v>6.93</v>
+        <v>6.4</v>
       </c>
       <c r="M23">
-        <v>8.06</v>
+        <v>7.38</v>
       </c>
       <c r="N23">
-        <v>10.66</v>
+        <v>9.68</v>
       </c>
       <c r="O23">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>65</v>
       </c>
       <c r="B24">
-        <v>0.44</v>
+        <v>13.05</v>
       </c>
       <c r="C24">
-        <v>5.1100000000000003</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="D24">
-        <v>94.45</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="E24">
-        <v>94.44</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="F24">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -6957,92 +7892,92 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.89</v>
+        <v>5.41</v>
       </c>
       <c r="K24">
-        <v>6.97</v>
+        <v>6.14</v>
       </c>
       <c r="L24">
-        <v>7.96</v>
+        <v>6.93</v>
       </c>
       <c r="M24">
-        <v>9.2899999999999991</v>
+        <v>8.02</v>
       </c>
       <c r="N24">
-        <v>11.47</v>
+        <v>10.28</v>
       </c>
       <c r="O24">
         <v>15.49</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>58</v>
       </c>
       <c r="B25">
-        <v>3.4</v>
+        <v>12.57</v>
       </c>
       <c r="C25">
-        <v>3.45</v>
+        <v>4.82</v>
       </c>
       <c r="D25">
-        <v>93.15</v>
+        <v>82.61</v>
       </c>
       <c r="E25">
-        <v>7.81</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="F25">
-        <v>20.43</v>
+        <v>22.78</v>
       </c>
       <c r="G25">
-        <v>31.22</v>
+        <v>26.61</v>
       </c>
       <c r="H25">
-        <v>19.03</v>
+        <v>13.75</v>
       </c>
       <c r="I25">
-        <v>14.65</v>
+        <v>9.51</v>
       </c>
       <c r="J25">
-        <v>11.03</v>
+        <v>8.93</v>
       </c>
       <c r="K25">
-        <v>27.44</v>
+        <v>23.37</v>
       </c>
       <c r="L25">
-        <v>38.61</v>
+        <v>34.24</v>
       </c>
       <c r="M25">
-        <v>52.23</v>
+        <v>47.33</v>
       </c>
       <c r="N25">
-        <v>71.42</v>
+        <v>68.239999999999995</v>
       </c>
       <c r="O25">
         <v>90.16</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>67</v>
       </c>
       <c r="B26">
-        <v>22.68</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="C26">
-        <v>5.03</v>
+        <v>4.49</v>
       </c>
       <c r="D26">
-        <v>72.290000000000006</v>
+        <v>55.89</v>
       </c>
       <c r="E26">
-        <v>12.1</v>
+        <v>11.1</v>
       </c>
       <c r="F26">
-        <v>55.52</v>
+        <v>42.44</v>
       </c>
       <c r="G26">
-        <v>4.66</v>
+        <v>2.35</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -7051,39 +7986,39 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>7.94</v>
+        <v>7.5</v>
       </c>
       <c r="K26">
-        <v>18.48</v>
+        <v>16.93</v>
       </c>
       <c r="L26">
-        <v>23.62</v>
+        <v>22.49</v>
       </c>
       <c r="M26">
-        <v>26.97</v>
+        <v>26.17</v>
       </c>
       <c r="N26">
-        <v>30.39</v>
+        <v>29.71</v>
       </c>
       <c r="O26">
         <v>36.28</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>73</v>
       </c>
       <c r="B27">
-        <v>74.760000000000005</v>
+        <v>88.16</v>
       </c>
       <c r="C27">
-        <v>23.58</v>
+        <v>11.37</v>
       </c>
       <c r="D27">
-        <v>1.66</v>
+        <v>0.47</v>
       </c>
       <c r="E27">
-        <v>1.66</v>
+        <v>0.47</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -7101,42 +8036,42 @@
         <v>5.08</v>
       </c>
       <c r="K27">
-        <v>5.39</v>
+        <v>5.32</v>
       </c>
       <c r="L27">
-        <v>5.71</v>
+        <v>5.64</v>
       </c>
       <c r="M27">
-        <v>6.43</v>
+        <v>6.22</v>
       </c>
       <c r="N27">
-        <v>7.21</v>
+        <v>6.94</v>
       </c>
       <c r="O27">
         <v>7.55</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>74</v>
       </c>
       <c r="B28">
-        <v>2.75</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="C28">
-        <v>3.79</v>
+        <v>8.32</v>
       </c>
       <c r="D28">
-        <v>93.46</v>
+        <v>71.75</v>
       </c>
       <c r="E28">
-        <v>50.31</v>
+        <v>52.54</v>
       </c>
       <c r="F28">
-        <v>42.87</v>
+        <v>19.12</v>
       </c>
       <c r="G28">
-        <v>0.28000000000000003</v>
+        <v>0.1</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -7145,42 +8080,42 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>7.71</v>
+        <v>6.41</v>
       </c>
       <c r="K28">
-        <v>12.09</v>
+        <v>9.86</v>
       </c>
       <c r="L28">
-        <v>14.62</v>
+        <v>12.56</v>
       </c>
       <c r="M28">
-        <v>17.100000000000001</v>
+        <v>15.28</v>
       </c>
       <c r="N28">
-        <v>21.6</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="O28">
         <v>36.36</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>75</v>
       </c>
       <c r="B29">
-        <v>5.43</v>
+        <v>26.65</v>
       </c>
       <c r="C29">
-        <v>8.2200000000000006</v>
+        <v>12.18</v>
       </c>
       <c r="D29">
-        <v>86.35</v>
+        <v>61.16</v>
       </c>
       <c r="E29">
-        <v>70.48</v>
+        <v>55.88</v>
       </c>
       <c r="F29">
-        <v>15.87</v>
+        <v>5.28</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -7192,89 +8127,89 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>6.25</v>
+        <v>5.77</v>
       </c>
       <c r="K29">
-        <v>9.3800000000000008</v>
+        <v>7.86</v>
       </c>
       <c r="L29">
-        <v>12.03</v>
+        <v>10.52</v>
       </c>
       <c r="M29">
-        <v>14.21</v>
+        <v>12.55</v>
       </c>
       <c r="N29">
-        <v>18.21</v>
+        <v>16.309999999999999</v>
       </c>
       <c r="O29">
         <v>29.4</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>76</v>
       </c>
       <c r="B30">
-        <v>0.12</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="C30">
-        <v>1.2</v>
+        <v>4.05</v>
       </c>
       <c r="D30">
-        <v>98.68</v>
+        <v>93.5</v>
       </c>
       <c r="E30">
-        <v>6.77</v>
+        <v>12.44</v>
       </c>
       <c r="F30">
-        <v>49.28</v>
+        <v>51.69</v>
       </c>
       <c r="G30">
-        <v>41.89</v>
+        <v>29.02</v>
       </c>
       <c r="H30">
-        <v>0.74</v>
+        <v>0.35</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>13.18</v>
+        <v>9.16</v>
       </c>
       <c r="K30">
-        <v>23.92</v>
+        <v>20.45</v>
       </c>
       <c r="L30">
-        <v>28.84</v>
+        <v>26.51</v>
       </c>
       <c r="M30">
-        <v>33.35</v>
+        <v>31.37</v>
       </c>
       <c r="N30">
-        <v>39.72</v>
+        <v>37.869999999999997</v>
       </c>
       <c r="O30">
         <v>54.13</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>77</v>
       </c>
       <c r="B31">
-        <v>1.67</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="C31">
-        <v>82.12</v>
+        <v>86.61</v>
       </c>
       <c r="D31">
-        <v>16.21</v>
+        <v>8.34</v>
       </c>
       <c r="E31">
-        <v>14.99</v>
+        <v>7.6</v>
       </c>
       <c r="F31">
-        <v>1.23</v>
+        <v>0.74</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -7286,92 +8221,92 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>5.0999999999999996</v>
+        <v>5.13</v>
       </c>
       <c r="K31">
-        <v>5.68</v>
+        <v>5.74</v>
       </c>
       <c r="L31">
-        <v>6.81</v>
+        <v>7.08</v>
       </c>
       <c r="M31">
-        <v>9.3699999999999992</v>
+        <v>10.67</v>
       </c>
       <c r="N31">
-        <v>16.690000000000001</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="O31">
-        <v>24.59</v>
+        <v>20.28</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
       <c r="B32">
-        <v>0.08</v>
+        <v>1.77</v>
       </c>
       <c r="C32">
-        <v>1.65</v>
+        <v>5.08</v>
       </c>
       <c r="D32">
-        <v>98.27</v>
+        <v>93.16</v>
       </c>
       <c r="E32">
-        <v>11.22</v>
+        <v>18.27</v>
       </c>
       <c r="F32">
-        <v>72.08</v>
+        <v>66.319999999999993</v>
       </c>
       <c r="G32">
-        <v>14.97</v>
+        <v>8.56</v>
       </c>
       <c r="H32">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>10.79</v>
+        <v>8.01</v>
       </c>
       <c r="K32">
-        <v>19.54</v>
+        <v>16.62</v>
       </c>
       <c r="L32">
-        <v>24.16</v>
+        <v>21.91</v>
       </c>
       <c r="M32">
-        <v>28.01</v>
+        <v>26.17</v>
       </c>
       <c r="N32">
-        <v>33.53</v>
+        <v>31.85</v>
       </c>
       <c r="O32">
-        <v>46.36</v>
+        <v>54.85</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>79</v>
       </c>
       <c r="B33">
-        <v>0.01</v>
+        <v>0.19</v>
       </c>
       <c r="C33">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>99.83</v>
+        <v>98.81</v>
       </c>
       <c r="E33">
-        <v>23.76</v>
+        <v>31.47</v>
       </c>
       <c r="F33">
-        <v>74.16</v>
+        <v>66.3</v>
       </c>
       <c r="G33">
-        <v>1.91</v>
+        <v>1.04</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -7380,42 +8315,42 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>10.09</v>
+        <v>8.11</v>
       </c>
       <c r="K33">
-        <v>15.33</v>
+        <v>13.34</v>
       </c>
       <c r="L33">
-        <v>19.82</v>
+        <v>17.98</v>
       </c>
       <c r="M33">
-        <v>23.44</v>
+        <v>22</v>
       </c>
       <c r="N33">
-        <v>28.06</v>
+        <v>26.82</v>
       </c>
       <c r="O33">
         <v>38.450000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>80</v>
       </c>
       <c r="B34">
-        <v>0.02</v>
+        <v>0.54</v>
       </c>
       <c r="C34">
-        <v>1.54</v>
+        <v>7.77</v>
       </c>
       <c r="D34">
-        <v>98.44</v>
+        <v>91.69</v>
       </c>
       <c r="E34">
-        <v>93.35</v>
+        <v>89.53</v>
       </c>
       <c r="F34">
-        <v>5.09</v>
+        <v>2.17</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -7427,22 +8362,210 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>6.47</v>
+        <v>5.72</v>
       </c>
       <c r="K34">
-        <v>8.52</v>
+        <v>7.16</v>
       </c>
       <c r="L34">
-        <v>10.3</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="M34">
-        <v>11.81</v>
+        <v>10.75</v>
       </c>
       <c r="N34">
-        <v>15.07</v>
+        <v>13.53</v>
       </c>
       <c r="O34">
-        <v>19.95</v>
+        <v>20.260000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="C35">
+        <v>13.31</v>
+      </c>
+      <c r="D35">
+        <v>84.66</v>
+      </c>
+      <c r="E35">
+        <v>81.37</v>
+      </c>
+      <c r="F35">
+        <v>3.29</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>5.47</v>
+      </c>
+      <c r="K35">
+        <v>6.72</v>
+      </c>
+      <c r="L35">
+        <v>8.33</v>
+      </c>
+      <c r="M35">
+        <v>10.65</v>
+      </c>
+      <c r="N35">
+        <v>14.31</v>
+      </c>
+      <c r="O35">
+        <v>24.92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36">
+        <v>0.16</v>
+      </c>
+      <c r="C36">
+        <v>0.09</v>
+      </c>
+      <c r="D36">
+        <v>99.75</v>
+      </c>
+      <c r="E36">
+        <v>9.66</v>
+      </c>
+      <c r="F36">
+        <v>88.44</v>
+      </c>
+      <c r="G36">
+        <v>1.65</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>13.14</v>
+      </c>
+      <c r="K36">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="L36">
+        <v>20.57</v>
+      </c>
+      <c r="M36">
+        <v>23.12</v>
+      </c>
+      <c r="N36">
+        <v>27.53</v>
+      </c>
+      <c r="O36">
+        <v>42.61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37">
+        <v>5.87</v>
+      </c>
+      <c r="C37">
+        <v>26.94</v>
+      </c>
+      <c r="D37">
+        <v>67.2</v>
+      </c>
+      <c r="E37">
+        <v>66.66</v>
+      </c>
+      <c r="F37">
+        <v>0.53</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>5.35</v>
+      </c>
+      <c r="K37">
+        <v>6.22</v>
+      </c>
+      <c r="L37">
+        <v>7.33</v>
+      </c>
+      <c r="M37">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="N37">
+        <v>12.02</v>
+      </c>
+      <c r="O37">
+        <v>23.44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38">
+        <v>1.29</v>
+      </c>
+      <c r="C38">
+        <v>8.25</v>
+      </c>
+      <c r="D38">
+        <v>90.47</v>
+      </c>
+      <c r="E38">
+        <v>41.19</v>
+      </c>
+      <c r="F38">
+        <v>48.67</v>
+      </c>
+      <c r="G38">
+        <v>0.6</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>6.83</v>
+      </c>
+      <c r="K38">
+        <v>11.58</v>
+      </c>
+      <c r="L38">
+        <v>15.83</v>
+      </c>
+      <c r="M38">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="N38">
+        <v>25.38</v>
+      </c>
+      <c r="O38">
+        <v>41.28</v>
       </c>
     </row>
   </sheetData>
@@ -7451,16 +8574,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -7558,7 +8681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -7650,7 +8773,7 @@
         <v>37.32</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -7742,7 +8865,7 @@
         <v>28.63</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -7834,7 +8957,7 @@
         <v>14.04</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -7926,7 +9049,7 @@
         <v>13.38</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -8018,7 +9141,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -8110,7 +9233,7 @@
         <v>40.53</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -8202,7 +9325,7 @@
         <v>50.19</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -8294,7 +9417,7 @@
         <v>43.13</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -8386,7 +9509,7 @@
         <v>44.89</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -8478,7 +9601,7 @@
         <v>78.150000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -8570,7 +9693,7 @@
         <v>55.52</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -8662,7 +9785,7 @@
         <v>12.89</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -8754,7 +9877,7 @@
         <v>46.91</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -8846,7 +9969,7 @@
         <v>51.83</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -8938,7 +10061,7 @@
         <v>26.23</v>
       </c>
     </row>
-    <row r="17" spans="2:32">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -9030,7 +10153,7 @@
         <v>36.25</v>
       </c>
     </row>
-    <row r="18" spans="2:32">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -9122,7 +10245,7 @@
         <v>40.630000000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:32">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -9214,7 +10337,7 @@
         <v>27.27</v>
       </c>
     </row>
-    <row r="20" spans="2:32">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>51</v>
       </c>
@@ -9306,7 +10429,7 @@
         <v>61.67</v>
       </c>
     </row>
-    <row r="21" spans="2:32">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>52</v>
       </c>
@@ -9398,7 +10521,7 @@
         <v>53.97</v>
       </c>
     </row>
-    <row r="22" spans="2:32">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>56</v>
       </c>
@@ -9490,7 +10613,7 @@
         <v>36.24</v>
       </c>
     </row>
-    <row r="23" spans="2:32">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>57</v>
       </c>
@@ -9582,7 +10705,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:32">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>65</v>
       </c>
@@ -9674,7 +10797,7 @@
         <v>15.49</v>
       </c>
     </row>
-    <row r="25" spans="2:32">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>58</v>
       </c>
@@ -9766,7 +10889,7 @@
         <v>90.16</v>
       </c>
     </row>
-    <row r="26" spans="2:32">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>67</v>
       </c>
@@ -9858,7 +10981,7 @@
         <v>36.28</v>
       </c>
     </row>
-    <row r="27" spans="2:32">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>73</v>
       </c>
@@ -9950,7 +11073,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="28" spans="2:32">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>74</v>
       </c>
@@ -10042,7 +11165,7 @@
         <v>36.36</v>
       </c>
     </row>
-    <row r="29" spans="2:32">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>75</v>
       </c>
@@ -10134,7 +11257,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="30" spans="2:32">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>76</v>
       </c>
@@ -10226,7 +11349,7 @@
         <v>54.13</v>
       </c>
     </row>
-    <row r="31" spans="2:32">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>77</v>
       </c>
@@ -10318,7 +11441,7 @@
         <v>20.28</v>
       </c>
     </row>
-    <row r="32" spans="2:32">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>78</v>
       </c>
@@ -10410,7 +11533,7 @@
         <v>54.85</v>
       </c>
     </row>
-    <row r="33" spans="2:32">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>79</v>
       </c>
@@ -10502,7 +11625,7 @@
         <v>38.450000000000003</v>
       </c>
     </row>
-    <row r="34" spans="2:32">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>80</v>
       </c>
